--- a/questions/Assignment 6 - Blue Gecko Client Command Table.xlsx
+++ b/questions/Assignment 6 - Blue Gecko Client Command Table.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="98">
   <si>
     <t>Event Handler Event</t>
   </si>
@@ -139,6 +139,12 @@
     <t>connection, uuid len, uuid data</t>
   </si>
   <si>
+    <t>const values</t>
+  </si>
+  <si>
+    <t>"Service Discovered"</t>
+  </si>
+  <si>
     <t>SERVICE_DISCOVERING</t>
   </si>
   <si>
@@ -157,6 +163,9 @@
     <t>https://docs.silabs.com/bluetooth/latest/gatt#evt_gatt_procedure_completed</t>
   </si>
   <si>
+    <t>Depends on Global GATT State</t>
+  </si>
+  <si>
     <t>Indicates if a particular GATT command is properly executed or not.</t>
   </si>
   <si>
@@ -172,6 +181,9 @@
     <t>connection, service, uuid len, uuid data</t>
   </si>
   <si>
+    <t>"Characteristics Discovered"</t>
+  </si>
+  <si>
     <t>evt_gatt_characteristic</t>
   </si>
   <si>
@@ -193,6 +205,9 @@
     <t>connection, characteristics, flags</t>
   </si>
   <si>
+    <t>"Notifications Enabled"</t>
+  </si>
+  <si>
     <t>evt_gatt_characteristic_value</t>
   </si>
   <si>
@@ -250,9 +265,6 @@
     <t>0 for no duration limit or maxevents, min and max advertising intervals, 0 for handle</t>
   </si>
   <si>
-    <t>const values</t>
-  </si>
-  <si>
     <t>Sets timing and duration for advertisements</t>
   </si>
   <si>
@@ -293,19 +305,13 @@
   </si>
   <si>
     <t>Starts discovery on the client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cmd_gatt_set_characteristic_notification </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cmd_gatt_send_characteristic_confirmation </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -325,6 +331,11 @@
     </font>
     <font>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -352,7 +363,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,12 +380,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
         <bgColor rgb="FF00FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -436,52 +441,52 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -589,7 +594,7 @@
       <c r="J2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="6" t="s">
@@ -633,7 +638,7 @@
       <c r="J3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="9" t="s">
         <v>20</v>
       </c>
       <c r="L3" s="6" t="s">
@@ -677,7 +682,7 @@
       <c r="J4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L4" s="8" t="s">
@@ -721,7 +726,7 @@
       <c r="J5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L5" s="8" t="s">
@@ -760,38 +765,44 @@
       <c r="A6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>45</v>
+      <c r="M6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
@@ -817,29 +828,47 @@
       <c r="AJ6" s="8"/>
     </row>
     <row r="7">
-      <c r="A7" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="A7" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="8" t="s">
+      <c r="D7" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="26" t="s">
-        <v>48</v>
+      <c r="F7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>51</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
@@ -865,41 +894,47 @@
       <c r="AJ7" s="8"/>
     </row>
     <row r="8">
-      <c r="A8" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="21" t="s">
+      <c r="D8" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="19" t="s">
+      <c r="E8" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="26" t="s">
+      <c r="F8" s="21" t="s">
         <v>55</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
@@ -925,41 +960,47 @@
       <c r="AJ8" s="8"/>
     </row>
     <row r="9">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" s="26" t="s">
-        <v>62</v>
+      <c r="L9" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
@@ -986,40 +1027,46 @@
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="19" t="s">
+      <c r="D10" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>61</v>
-      </c>
       <c r="J10" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>69</v>
+        <v>48</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>74</v>
       </c>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
@@ -1046,10 +1093,10 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>16</v>
@@ -1075,7 +1122,7 @@
       <c r="J11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="6" t="s">
@@ -1112,10 +1159,10 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>19</v>
@@ -1141,7 +1188,7 @@
       <c r="J12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="9" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="6" t="s">
@@ -1178,10 +1225,10 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>16</v>
@@ -1207,7 +1254,7 @@
       <c r="J13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L13" s="6" t="s">
@@ -1247,6 +1294,7 @@
       <c r="F14" s="31"/>
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
       <c r="M14" s="31"/>
     </row>
     <row r="15">
@@ -1260,14 +1308,14 @@
       <c r="H15" s="8"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="8"/>
+      <c r="K15" s="9"/>
       <c r="L15" s="8"/>
       <c r="M15" s="9"/>
       <c r="N15" s="8"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1278,32 +1326,32 @@
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="8"/>
+      <c r="K16" s="9"/>
       <c r="L16" s="8"/>
       <c r="M16" s="9"/>
       <c r="N16" s="8"/>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="9" t="s">
@@ -1312,7 +1360,7 @@
       <c r="J17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L17" s="8" t="s">
@@ -1322,42 +1370,42 @@
         <v>18</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>18</v>
@@ -1366,7 +1414,7 @@
         <v>18</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
@@ -1380,14 +1428,14 @@
       <c r="H19" s="8"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="8"/>
+      <c r="K19" s="9"/>
       <c r="L19" s="8"/>
       <c r="M19" s="9"/>
       <c r="N19" s="8"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="8"/>
@@ -1398,35 +1446,35 @@
       <c r="H20" s="8"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="8"/>
+      <c r="K20" s="9"/>
       <c r="L20" s="8"/>
       <c r="M20" s="9"/>
       <c r="N20" s="8"/>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>18</v>
@@ -1434,7 +1482,7 @@
       <c r="J21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L21" s="8" t="s">
@@ -1444,7 +1492,7 @@
         <v>18</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
@@ -1452,6 +1500,7 @@
       <c r="F22" s="31"/>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
       <c r="M22" s="31"/>
     </row>
     <row r="23">
@@ -1459,6 +1508,7 @@
       <c r="F23" s="31"/>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
       <c r="M23" s="31"/>
     </row>
     <row r="24">
@@ -1467,6 +1517,7 @@
       <c r="F24" s="31"/>
       <c r="I24" s="31"/>
       <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
       <c r="M24" s="31"/>
     </row>
     <row r="25">
@@ -1474,46 +1525,39 @@
       <c r="F25" s="31"/>
       <c r="I25" s="31"/>
       <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
       <c r="M25" s="31"/>
     </row>
     <row r="26">
-      <c r="D26" s="17" t="s">
-        <v>39</v>
-      </c>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
       <c r="M26" s="31"/>
     </row>
     <row r="27">
-      <c r="D27" s="17" t="s">
-        <v>50</v>
-      </c>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
       <c r="I27" s="31"/>
       <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
       <c r="M27" s="31"/>
     </row>
     <row r="28">
-      <c r="D28" s="17" t="s">
-        <v>94</v>
-      </c>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
       <c r="I28" s="31"/>
       <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
       <c r="M28" s="31"/>
     </row>
     <row r="29">
-      <c r="D29" s="17" t="s">
-        <v>95</v>
-      </c>
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
       <c r="I29" s="31"/>
       <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
       <c r="M29" s="31"/>
     </row>
     <row r="30">
@@ -1521,6 +1565,7 @@
       <c r="F30" s="31"/>
       <c r="I30" s="31"/>
       <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
       <c r="M30" s="31"/>
     </row>
     <row r="31">
@@ -1528,6 +1573,7 @@
       <c r="F31" s="31"/>
       <c r="I31" s="31"/>
       <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
       <c r="M31" s="31"/>
     </row>
     <row r="32">
@@ -1535,6 +1581,7 @@
       <c r="F32" s="31"/>
       <c r="I32" s="31"/>
       <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
       <c r="M32" s="31"/>
     </row>
     <row r="33">
@@ -1542,6 +1589,7 @@
       <c r="F33" s="31"/>
       <c r="I33" s="31"/>
       <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
       <c r="M33" s="31"/>
     </row>
     <row r="34">
@@ -1549,6 +1597,7 @@
       <c r="F34" s="31"/>
       <c r="I34" s="31"/>
       <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
       <c r="M34" s="31"/>
     </row>
     <row r="35">
@@ -1556,6 +1605,7 @@
       <c r="F35" s="31"/>
       <c r="I35" s="31"/>
       <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
       <c r="M35" s="31"/>
     </row>
     <row r="36">
@@ -1563,6 +1613,7 @@
       <c r="F36" s="31"/>
       <c r="I36" s="31"/>
       <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
       <c r="M36" s="31"/>
     </row>
     <row r="37">
@@ -1570,6 +1621,7 @@
       <c r="F37" s="31"/>
       <c r="I37" s="31"/>
       <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
       <c r="M37" s="31"/>
     </row>
     <row r="38">
@@ -1577,6 +1629,7 @@
       <c r="F38" s="31"/>
       <c r="I38" s="31"/>
       <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
       <c r="M38" s="31"/>
     </row>
     <row r="39">
@@ -1584,6 +1637,7 @@
       <c r="F39" s="31"/>
       <c r="I39" s="31"/>
       <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
       <c r="M39" s="31"/>
     </row>
     <row r="40">
@@ -1591,6 +1645,7 @@
       <c r="F40" s="31"/>
       <c r="I40" s="31"/>
       <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
       <c r="M40" s="31"/>
     </row>
     <row r="41">
@@ -1598,6 +1653,7 @@
       <c r="F41" s="31"/>
       <c r="I41" s="31"/>
       <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
       <c r="M41" s="31"/>
     </row>
     <row r="42">
@@ -1605,6 +1661,7 @@
       <c r="F42" s="31"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
       <c r="M42" s="31"/>
     </row>
     <row r="43">
@@ -1612,6 +1669,7 @@
       <c r="F43" s="31"/>
       <c r="I43" s="31"/>
       <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
       <c r="M43" s="31"/>
     </row>
     <row r="44">
@@ -1619,6 +1677,7 @@
       <c r="F44" s="31"/>
       <c r="I44" s="31"/>
       <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
       <c r="M44" s="31"/>
     </row>
     <row r="45">
@@ -1626,6 +1685,7 @@
       <c r="F45" s="31"/>
       <c r="I45" s="31"/>
       <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
       <c r="M45" s="31"/>
     </row>
     <row r="46">
@@ -1633,6 +1693,7 @@
       <c r="F46" s="31"/>
       <c r="I46" s="31"/>
       <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
       <c r="M46" s="31"/>
     </row>
     <row r="47">
@@ -1640,6 +1701,7 @@
       <c r="F47" s="31"/>
       <c r="I47" s="31"/>
       <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
       <c r="M47" s="31"/>
     </row>
     <row r="48">
@@ -1647,6 +1709,7 @@
       <c r="F48" s="31"/>
       <c r="I48" s="31"/>
       <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
       <c r="M48" s="31"/>
     </row>
     <row r="49">
@@ -1654,6 +1717,7 @@
       <c r="F49" s="31"/>
       <c r="I49" s="31"/>
       <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
       <c r="M49" s="31"/>
     </row>
     <row r="50">
@@ -1661,6 +1725,7 @@
       <c r="F50" s="31"/>
       <c r="I50" s="31"/>
       <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
       <c r="M50" s="31"/>
     </row>
     <row r="51">
@@ -1668,6 +1733,7 @@
       <c r="F51" s="31"/>
       <c r="I51" s="31"/>
       <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
       <c r="M51" s="31"/>
     </row>
     <row r="52">
@@ -1675,6 +1741,7 @@
       <c r="F52" s="31"/>
       <c r="I52" s="31"/>
       <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
       <c r="M52" s="31"/>
     </row>
     <row r="53">
@@ -1682,6 +1749,7 @@
       <c r="F53" s="31"/>
       <c r="I53" s="31"/>
       <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
       <c r="M53" s="31"/>
     </row>
     <row r="54">
@@ -1689,6 +1757,7 @@
       <c r="F54" s="31"/>
       <c r="I54" s="31"/>
       <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
       <c r="M54" s="31"/>
     </row>
     <row r="55">
@@ -1696,6 +1765,7 @@
       <c r="F55" s="31"/>
       <c r="I55" s="31"/>
       <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
       <c r="M55" s="31"/>
     </row>
     <row r="56">
@@ -1703,6 +1773,7 @@
       <c r="F56" s="31"/>
       <c r="I56" s="31"/>
       <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
       <c r="M56" s="31"/>
     </row>
     <row r="57">
@@ -1710,6 +1781,7 @@
       <c r="F57" s="31"/>
       <c r="I57" s="31"/>
       <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
       <c r="M57" s="31"/>
     </row>
     <row r="58">
@@ -1717,6 +1789,7 @@
       <c r="F58" s="31"/>
       <c r="I58" s="31"/>
       <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
       <c r="M58" s="31"/>
     </row>
     <row r="59">
@@ -1724,6 +1797,7 @@
       <c r="F59" s="31"/>
       <c r="I59" s="31"/>
       <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
       <c r="M59" s="31"/>
     </row>
     <row r="60">
@@ -1731,6 +1805,7 @@
       <c r="F60" s="31"/>
       <c r="I60" s="31"/>
       <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
       <c r="M60" s="31"/>
     </row>
     <row r="61">
@@ -1738,6 +1813,7 @@
       <c r="F61" s="31"/>
       <c r="I61" s="31"/>
       <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
       <c r="M61" s="31"/>
     </row>
     <row r="62">
@@ -1745,6 +1821,7 @@
       <c r="F62" s="31"/>
       <c r="I62" s="31"/>
       <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
       <c r="M62" s="31"/>
     </row>
     <row r="63">
@@ -1752,6 +1829,7 @@
       <c r="F63" s="31"/>
       <c r="I63" s="31"/>
       <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
       <c r="M63" s="31"/>
     </row>
     <row r="64">
@@ -1759,6 +1837,7 @@
       <c r="F64" s="31"/>
       <c r="I64" s="31"/>
       <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
       <c r="M64" s="31"/>
     </row>
     <row r="65">
@@ -1766,6 +1845,7 @@
       <c r="F65" s="31"/>
       <c r="I65" s="31"/>
       <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
       <c r="M65" s="31"/>
     </row>
     <row r="66">
@@ -1773,6 +1853,7 @@
       <c r="F66" s="31"/>
       <c r="I66" s="31"/>
       <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
       <c r="M66" s="31"/>
     </row>
     <row r="67">
@@ -1780,6 +1861,7 @@
       <c r="F67" s="31"/>
       <c r="I67" s="31"/>
       <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
       <c r="M67" s="31"/>
     </row>
     <row r="68">
@@ -1787,6 +1869,7 @@
       <c r="F68" s="31"/>
       <c r="I68" s="31"/>
       <c r="J68" s="31"/>
+      <c r="K68" s="31"/>
       <c r="M68" s="31"/>
     </row>
     <row r="69">
@@ -1794,6 +1877,7 @@
       <c r="F69" s="31"/>
       <c r="I69" s="31"/>
       <c r="J69" s="31"/>
+      <c r="K69" s="31"/>
       <c r="M69" s="31"/>
     </row>
     <row r="70">
@@ -1801,6 +1885,7 @@
       <c r="F70" s="31"/>
       <c r="I70" s="31"/>
       <c r="J70" s="31"/>
+      <c r="K70" s="31"/>
       <c r="M70" s="31"/>
     </row>
     <row r="71">
@@ -1808,6 +1893,7 @@
       <c r="F71" s="31"/>
       <c r="I71" s="31"/>
       <c r="J71" s="31"/>
+      <c r="K71" s="31"/>
       <c r="M71" s="31"/>
     </row>
     <row r="72">
@@ -1815,6 +1901,7 @@
       <c r="F72" s="31"/>
       <c r="I72" s="31"/>
       <c r="J72" s="31"/>
+      <c r="K72" s="31"/>
       <c r="M72" s="31"/>
     </row>
     <row r="73">
@@ -1822,6 +1909,7 @@
       <c r="F73" s="31"/>
       <c r="I73" s="31"/>
       <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
       <c r="M73" s="31"/>
     </row>
     <row r="74">
@@ -1829,6 +1917,7 @@
       <c r="F74" s="31"/>
       <c r="I74" s="31"/>
       <c r="J74" s="31"/>
+      <c r="K74" s="31"/>
       <c r="M74" s="31"/>
     </row>
     <row r="75">
@@ -1836,6 +1925,7 @@
       <c r="F75" s="31"/>
       <c r="I75" s="31"/>
       <c r="J75" s="31"/>
+      <c r="K75" s="31"/>
       <c r="M75" s="31"/>
     </row>
     <row r="76">
@@ -1843,6 +1933,7 @@
       <c r="F76" s="31"/>
       <c r="I76" s="31"/>
       <c r="J76" s="31"/>
+      <c r="K76" s="31"/>
       <c r="M76" s="31"/>
     </row>
     <row r="77">
@@ -1850,6 +1941,7 @@
       <c r="F77" s="31"/>
       <c r="I77" s="31"/>
       <c r="J77" s="31"/>
+      <c r="K77" s="31"/>
       <c r="M77" s="31"/>
     </row>
     <row r="78">
@@ -1857,6 +1949,7 @@
       <c r="F78" s="31"/>
       <c r="I78" s="31"/>
       <c r="J78" s="31"/>
+      <c r="K78" s="31"/>
       <c r="M78" s="31"/>
     </row>
     <row r="79">
@@ -1864,6 +1957,7 @@
       <c r="F79" s="31"/>
       <c r="I79" s="31"/>
       <c r="J79" s="31"/>
+      <c r="K79" s="31"/>
       <c r="M79" s="31"/>
     </row>
     <row r="80">
@@ -1871,6 +1965,7 @@
       <c r="F80" s="31"/>
       <c r="I80" s="31"/>
       <c r="J80" s="31"/>
+      <c r="K80" s="31"/>
       <c r="M80" s="31"/>
     </row>
     <row r="81">
@@ -1878,6 +1973,7 @@
       <c r="F81" s="31"/>
       <c r="I81" s="31"/>
       <c r="J81" s="31"/>
+      <c r="K81" s="31"/>
       <c r="M81" s="31"/>
     </row>
     <row r="82">
@@ -1885,6 +1981,7 @@
       <c r="F82" s="31"/>
       <c r="I82" s="31"/>
       <c r="J82" s="31"/>
+      <c r="K82" s="31"/>
       <c r="M82" s="31"/>
     </row>
     <row r="83">
@@ -1892,6 +1989,7 @@
       <c r="F83" s="31"/>
       <c r="I83" s="31"/>
       <c r="J83" s="31"/>
+      <c r="K83" s="31"/>
       <c r="M83" s="31"/>
     </row>
     <row r="84">
@@ -1899,6 +1997,7 @@
       <c r="F84" s="31"/>
       <c r="I84" s="31"/>
       <c r="J84" s="31"/>
+      <c r="K84" s="31"/>
       <c r="M84" s="31"/>
     </row>
     <row r="85">
@@ -1906,6 +2005,7 @@
       <c r="F85" s="31"/>
       <c r="I85" s="31"/>
       <c r="J85" s="31"/>
+      <c r="K85" s="31"/>
       <c r="M85" s="31"/>
     </row>
     <row r="86">
@@ -1913,6 +2013,7 @@
       <c r="F86" s="31"/>
       <c r="I86" s="31"/>
       <c r="J86" s="31"/>
+      <c r="K86" s="31"/>
       <c r="M86" s="31"/>
     </row>
     <row r="87">
@@ -1920,6 +2021,7 @@
       <c r="F87" s="31"/>
       <c r="I87" s="31"/>
       <c r="J87" s="31"/>
+      <c r="K87" s="31"/>
       <c r="M87" s="31"/>
     </row>
     <row r="88">
@@ -1927,6 +2029,7 @@
       <c r="F88" s="31"/>
       <c r="I88" s="31"/>
       <c r="J88" s="31"/>
+      <c r="K88" s="31"/>
       <c r="M88" s="31"/>
     </row>
     <row r="89">
@@ -1934,6 +2037,7 @@
       <c r="F89" s="31"/>
       <c r="I89" s="31"/>
       <c r="J89" s="31"/>
+      <c r="K89" s="31"/>
       <c r="M89" s="31"/>
     </row>
     <row r="90">
@@ -1941,6 +2045,7 @@
       <c r="F90" s="31"/>
       <c r="I90" s="31"/>
       <c r="J90" s="31"/>
+      <c r="K90" s="31"/>
       <c r="M90" s="31"/>
     </row>
     <row r="91">
@@ -1948,6 +2053,7 @@
       <c r="F91" s="31"/>
       <c r="I91" s="31"/>
       <c r="J91" s="31"/>
+      <c r="K91" s="31"/>
       <c r="M91" s="31"/>
     </row>
     <row r="92">
@@ -1955,6 +2061,7 @@
       <c r="F92" s="31"/>
       <c r="I92" s="31"/>
       <c r="J92" s="31"/>
+      <c r="K92" s="31"/>
       <c r="M92" s="31"/>
     </row>
     <row r="93">
@@ -1962,6 +2069,7 @@
       <c r="F93" s="31"/>
       <c r="I93" s="31"/>
       <c r="J93" s="31"/>
+      <c r="K93" s="31"/>
       <c r="M93" s="31"/>
     </row>
     <row r="94">
@@ -1969,6 +2077,7 @@
       <c r="F94" s="31"/>
       <c r="I94" s="31"/>
       <c r="J94" s="31"/>
+      <c r="K94" s="31"/>
       <c r="M94" s="31"/>
     </row>
     <row r="95">
@@ -1976,6 +2085,7 @@
       <c r="F95" s="31"/>
       <c r="I95" s="31"/>
       <c r="J95" s="31"/>
+      <c r="K95" s="31"/>
       <c r="M95" s="31"/>
     </row>
     <row r="96">
@@ -1983,6 +2093,7 @@
       <c r="F96" s="31"/>
       <c r="I96" s="31"/>
       <c r="J96" s="31"/>
+      <c r="K96" s="31"/>
       <c r="M96" s="31"/>
     </row>
     <row r="97">
@@ -1990,6 +2101,7 @@
       <c r="F97" s="31"/>
       <c r="I97" s="31"/>
       <c r="J97" s="31"/>
+      <c r="K97" s="31"/>
       <c r="M97" s="31"/>
     </row>
     <row r="98">
@@ -1997,6 +2109,7 @@
       <c r="F98" s="31"/>
       <c r="I98" s="31"/>
       <c r="J98" s="31"/>
+      <c r="K98" s="31"/>
       <c r="M98" s="31"/>
     </row>
     <row r="99">
@@ -2004,6 +2117,7 @@
       <c r="F99" s="31"/>
       <c r="I99" s="31"/>
       <c r="J99" s="31"/>
+      <c r="K99" s="31"/>
       <c r="M99" s="31"/>
     </row>
     <row r="100">
@@ -2011,6 +2125,7 @@
       <c r="F100" s="31"/>
       <c r="I100" s="31"/>
       <c r="J100" s="31"/>
+      <c r="K100" s="31"/>
       <c r="M100" s="31"/>
     </row>
     <row r="101">
@@ -2018,6 +2133,7 @@
       <c r="F101" s="31"/>
       <c r="I101" s="31"/>
       <c r="J101" s="31"/>
+      <c r="K101" s="31"/>
       <c r="M101" s="31"/>
     </row>
     <row r="102">
@@ -2025,6 +2141,7 @@
       <c r="F102" s="31"/>
       <c r="I102" s="31"/>
       <c r="J102" s="31"/>
+      <c r="K102" s="31"/>
       <c r="M102" s="31"/>
     </row>
     <row r="103">
@@ -2032,6 +2149,7 @@
       <c r="F103" s="31"/>
       <c r="I103" s="31"/>
       <c r="J103" s="31"/>
+      <c r="K103" s="31"/>
       <c r="M103" s="31"/>
     </row>
     <row r="104">
@@ -2039,6 +2157,7 @@
       <c r="F104" s="31"/>
       <c r="I104" s="31"/>
       <c r="J104" s="31"/>
+      <c r="K104" s="31"/>
       <c r="M104" s="31"/>
     </row>
     <row r="105">
@@ -2046,6 +2165,7 @@
       <c r="F105" s="31"/>
       <c r="I105" s="31"/>
       <c r="J105" s="31"/>
+      <c r="K105" s="31"/>
       <c r="M105" s="31"/>
     </row>
     <row r="106">
@@ -2053,6 +2173,7 @@
       <c r="F106" s="31"/>
       <c r="I106" s="31"/>
       <c r="J106" s="31"/>
+      <c r="K106" s="31"/>
       <c r="M106" s="31"/>
     </row>
     <row r="107">
@@ -2060,6 +2181,7 @@
       <c r="F107" s="31"/>
       <c r="I107" s="31"/>
       <c r="J107" s="31"/>
+      <c r="K107" s="31"/>
       <c r="M107" s="31"/>
     </row>
     <row r="108">
@@ -2067,6 +2189,7 @@
       <c r="F108" s="31"/>
       <c r="I108" s="31"/>
       <c r="J108" s="31"/>
+      <c r="K108" s="31"/>
       <c r="M108" s="31"/>
     </row>
     <row r="109">
@@ -2074,6 +2197,7 @@
       <c r="F109" s="31"/>
       <c r="I109" s="31"/>
       <c r="J109" s="31"/>
+      <c r="K109" s="31"/>
       <c r="M109" s="31"/>
     </row>
     <row r="110">
@@ -2081,6 +2205,7 @@
       <c r="F110" s="31"/>
       <c r="I110" s="31"/>
       <c r="J110" s="31"/>
+      <c r="K110" s="31"/>
       <c r="M110" s="31"/>
     </row>
     <row r="111">
@@ -2088,6 +2213,7 @@
       <c r="F111" s="31"/>
       <c r="I111" s="31"/>
       <c r="J111" s="31"/>
+      <c r="K111" s="31"/>
       <c r="M111" s="31"/>
     </row>
     <row r="112">
@@ -2095,6 +2221,7 @@
       <c r="F112" s="31"/>
       <c r="I112" s="31"/>
       <c r="J112" s="31"/>
+      <c r="K112" s="31"/>
       <c r="M112" s="31"/>
     </row>
     <row r="113">
@@ -2102,6 +2229,7 @@
       <c r="F113" s="31"/>
       <c r="I113" s="31"/>
       <c r="J113" s="31"/>
+      <c r="K113" s="31"/>
       <c r="M113" s="31"/>
     </row>
     <row r="114">
@@ -2109,6 +2237,7 @@
       <c r="F114" s="31"/>
       <c r="I114" s="31"/>
       <c r="J114" s="31"/>
+      <c r="K114" s="31"/>
       <c r="M114" s="31"/>
     </row>
     <row r="115">
@@ -2116,6 +2245,7 @@
       <c r="F115" s="31"/>
       <c r="I115" s="31"/>
       <c r="J115" s="31"/>
+      <c r="K115" s="31"/>
       <c r="M115" s="31"/>
     </row>
     <row r="116">
@@ -2123,6 +2253,7 @@
       <c r="F116" s="31"/>
       <c r="I116" s="31"/>
       <c r="J116" s="31"/>
+      <c r="K116" s="31"/>
       <c r="M116" s="31"/>
     </row>
     <row r="117">
@@ -2130,6 +2261,7 @@
       <c r="F117" s="31"/>
       <c r="I117" s="31"/>
       <c r="J117" s="31"/>
+      <c r="K117" s="31"/>
       <c r="M117" s="31"/>
     </row>
     <row r="118">
@@ -2137,6 +2269,7 @@
       <c r="F118" s="31"/>
       <c r="I118" s="31"/>
       <c r="J118" s="31"/>
+      <c r="K118" s="31"/>
       <c r="M118" s="31"/>
     </row>
     <row r="119">
@@ -2144,6 +2277,7 @@
       <c r="F119" s="31"/>
       <c r="I119" s="31"/>
       <c r="J119" s="31"/>
+      <c r="K119" s="31"/>
       <c r="M119" s="31"/>
     </row>
     <row r="120">
@@ -2151,6 +2285,7 @@
       <c r="F120" s="31"/>
       <c r="I120" s="31"/>
       <c r="J120" s="31"/>
+      <c r="K120" s="31"/>
       <c r="M120" s="31"/>
     </row>
     <row r="121">
@@ -2158,6 +2293,7 @@
       <c r="F121" s="31"/>
       <c r="I121" s="31"/>
       <c r="J121" s="31"/>
+      <c r="K121" s="31"/>
       <c r="M121" s="31"/>
     </row>
     <row r="122">
@@ -2165,6 +2301,7 @@
       <c r="F122" s="31"/>
       <c r="I122" s="31"/>
       <c r="J122" s="31"/>
+      <c r="K122" s="31"/>
       <c r="M122" s="31"/>
     </row>
     <row r="123">
@@ -2172,6 +2309,7 @@
       <c r="F123" s="31"/>
       <c r="I123" s="31"/>
       <c r="J123" s="31"/>
+      <c r="K123" s="31"/>
       <c r="M123" s="31"/>
     </row>
     <row r="124">
@@ -2179,6 +2317,7 @@
       <c r="F124" s="31"/>
       <c r="I124" s="31"/>
       <c r="J124" s="31"/>
+      <c r="K124" s="31"/>
       <c r="M124" s="31"/>
     </row>
     <row r="125">
@@ -2186,6 +2325,7 @@
       <c r="F125" s="31"/>
       <c r="I125" s="31"/>
       <c r="J125" s="31"/>
+      <c r="K125" s="31"/>
       <c r="M125" s="31"/>
     </row>
     <row r="126">
@@ -2193,6 +2333,7 @@
       <c r="F126" s="31"/>
       <c r="I126" s="31"/>
       <c r="J126" s="31"/>
+      <c r="K126" s="31"/>
       <c r="M126" s="31"/>
     </row>
     <row r="127">
@@ -2200,6 +2341,7 @@
       <c r="F127" s="31"/>
       <c r="I127" s="31"/>
       <c r="J127" s="31"/>
+      <c r="K127" s="31"/>
       <c r="M127" s="31"/>
     </row>
     <row r="128">
@@ -2207,6 +2349,7 @@
       <c r="F128" s="31"/>
       <c r="I128" s="31"/>
       <c r="J128" s="31"/>
+      <c r="K128" s="31"/>
       <c r="M128" s="31"/>
     </row>
     <row r="129">
@@ -2214,6 +2357,7 @@
       <c r="F129" s="31"/>
       <c r="I129" s="31"/>
       <c r="J129" s="31"/>
+      <c r="K129" s="31"/>
       <c r="M129" s="31"/>
     </row>
     <row r="130">
@@ -2221,6 +2365,7 @@
       <c r="F130" s="31"/>
       <c r="I130" s="31"/>
       <c r="J130" s="31"/>
+      <c r="K130" s="31"/>
       <c r="M130" s="31"/>
     </row>
     <row r="131">
@@ -2228,6 +2373,7 @@
       <c r="F131" s="31"/>
       <c r="I131" s="31"/>
       <c r="J131" s="31"/>
+      <c r="K131" s="31"/>
       <c r="M131" s="31"/>
     </row>
     <row r="132">
@@ -2235,6 +2381,7 @@
       <c r="F132" s="31"/>
       <c r="I132" s="31"/>
       <c r="J132" s="31"/>
+      <c r="K132" s="31"/>
       <c r="M132" s="31"/>
     </row>
     <row r="133">
@@ -2242,6 +2389,7 @@
       <c r="F133" s="31"/>
       <c r="I133" s="31"/>
       <c r="J133" s="31"/>
+      <c r="K133" s="31"/>
       <c r="M133" s="31"/>
     </row>
     <row r="134">
@@ -2249,6 +2397,7 @@
       <c r="F134" s="31"/>
       <c r="I134" s="31"/>
       <c r="J134" s="31"/>
+      <c r="K134" s="31"/>
       <c r="M134" s="31"/>
     </row>
     <row r="135">
@@ -2256,6 +2405,7 @@
       <c r="F135" s="31"/>
       <c r="I135" s="31"/>
       <c r="J135" s="31"/>
+      <c r="K135" s="31"/>
       <c r="M135" s="31"/>
     </row>
     <row r="136">
@@ -2263,6 +2413,7 @@
       <c r="F136" s="31"/>
       <c r="I136" s="31"/>
       <c r="J136" s="31"/>
+      <c r="K136" s="31"/>
       <c r="M136" s="31"/>
     </row>
     <row r="137">
@@ -2270,6 +2421,7 @@
       <c r="F137" s="31"/>
       <c r="I137" s="31"/>
       <c r="J137" s="31"/>
+      <c r="K137" s="31"/>
       <c r="M137" s="31"/>
     </row>
     <row r="138">
@@ -2277,6 +2429,7 @@
       <c r="F138" s="31"/>
       <c r="I138" s="31"/>
       <c r="J138" s="31"/>
+      <c r="K138" s="31"/>
       <c r="M138" s="31"/>
     </row>
     <row r="139">
@@ -2284,6 +2437,7 @@
       <c r="F139" s="31"/>
       <c r="I139" s="31"/>
       <c r="J139" s="31"/>
+      <c r="K139" s="31"/>
       <c r="M139" s="31"/>
     </row>
     <row r="140">
@@ -2291,6 +2445,7 @@
       <c r="F140" s="31"/>
       <c r="I140" s="31"/>
       <c r="J140" s="31"/>
+      <c r="K140" s="31"/>
       <c r="M140" s="31"/>
     </row>
     <row r="141">
@@ -2298,6 +2453,7 @@
       <c r="F141" s="31"/>
       <c r="I141" s="31"/>
       <c r="J141" s="31"/>
+      <c r="K141" s="31"/>
       <c r="M141" s="31"/>
     </row>
     <row r="142">
@@ -2305,6 +2461,7 @@
       <c r="F142" s="31"/>
       <c r="I142" s="31"/>
       <c r="J142" s="31"/>
+      <c r="K142" s="31"/>
       <c r="M142" s="31"/>
     </row>
     <row r="143">
@@ -2312,6 +2469,7 @@
       <c r="F143" s="31"/>
       <c r="I143" s="31"/>
       <c r="J143" s="31"/>
+      <c r="K143" s="31"/>
       <c r="M143" s="31"/>
     </row>
     <row r="144">
@@ -2319,6 +2477,7 @@
       <c r="F144" s="31"/>
       <c r="I144" s="31"/>
       <c r="J144" s="31"/>
+      <c r="K144" s="31"/>
       <c r="M144" s="31"/>
     </row>
     <row r="145">
@@ -2326,6 +2485,7 @@
       <c r="F145" s="31"/>
       <c r="I145" s="31"/>
       <c r="J145" s="31"/>
+      <c r="K145" s="31"/>
       <c r="M145" s="31"/>
     </row>
     <row r="146">
@@ -2333,6 +2493,7 @@
       <c r="F146" s="31"/>
       <c r="I146" s="31"/>
       <c r="J146" s="31"/>
+      <c r="K146" s="31"/>
       <c r="M146" s="31"/>
     </row>
     <row r="147">
@@ -2340,6 +2501,7 @@
       <c r="F147" s="31"/>
       <c r="I147" s="31"/>
       <c r="J147" s="31"/>
+      <c r="K147" s="31"/>
       <c r="M147" s="31"/>
     </row>
     <row r="148">
@@ -2347,6 +2509,7 @@
       <c r="F148" s="31"/>
       <c r="I148" s="31"/>
       <c r="J148" s="31"/>
+      <c r="K148" s="31"/>
       <c r="M148" s="31"/>
     </row>
     <row r="149">
@@ -2354,6 +2517,7 @@
       <c r="F149" s="31"/>
       <c r="I149" s="31"/>
       <c r="J149" s="31"/>
+      <c r="K149" s="31"/>
       <c r="M149" s="31"/>
     </row>
     <row r="150">
@@ -2361,6 +2525,7 @@
       <c r="F150" s="31"/>
       <c r="I150" s="31"/>
       <c r="J150" s="31"/>
+      <c r="K150" s="31"/>
       <c r="M150" s="31"/>
     </row>
     <row r="151">
@@ -2368,6 +2533,7 @@
       <c r="F151" s="31"/>
       <c r="I151" s="31"/>
       <c r="J151" s="31"/>
+      <c r="K151" s="31"/>
       <c r="M151" s="31"/>
     </row>
     <row r="152">
@@ -2375,6 +2541,7 @@
       <c r="F152" s="31"/>
       <c r="I152" s="31"/>
       <c r="J152" s="31"/>
+      <c r="K152" s="31"/>
       <c r="M152" s="31"/>
     </row>
     <row r="153">
@@ -2382,6 +2549,7 @@
       <c r="F153" s="31"/>
       <c r="I153" s="31"/>
       <c r="J153" s="31"/>
+      <c r="K153" s="31"/>
       <c r="M153" s="31"/>
     </row>
     <row r="154">
@@ -2389,6 +2557,7 @@
       <c r="F154" s="31"/>
       <c r="I154" s="31"/>
       <c r="J154" s="31"/>
+      <c r="K154" s="31"/>
       <c r="M154" s="31"/>
     </row>
     <row r="155">
@@ -2396,6 +2565,7 @@
       <c r="F155" s="31"/>
       <c r="I155" s="31"/>
       <c r="J155" s="31"/>
+      <c r="K155" s="31"/>
       <c r="M155" s="31"/>
     </row>
     <row r="156">
@@ -2403,6 +2573,7 @@
       <c r="F156" s="31"/>
       <c r="I156" s="31"/>
       <c r="J156" s="31"/>
+      <c r="K156" s="31"/>
       <c r="M156" s="31"/>
     </row>
     <row r="157">
@@ -2410,6 +2581,7 @@
       <c r="F157" s="31"/>
       <c r="I157" s="31"/>
       <c r="J157" s="31"/>
+      <c r="K157" s="31"/>
       <c r="M157" s="31"/>
     </row>
     <row r="158">
@@ -2417,6 +2589,7 @@
       <c r="F158" s="31"/>
       <c r="I158" s="31"/>
       <c r="J158" s="31"/>
+      <c r="K158" s="31"/>
       <c r="M158" s="31"/>
     </row>
     <row r="159">
@@ -2424,6 +2597,7 @@
       <c r="F159" s="31"/>
       <c r="I159" s="31"/>
       <c r="J159" s="31"/>
+      <c r="K159" s="31"/>
       <c r="M159" s="31"/>
     </row>
     <row r="160">
@@ -2431,6 +2605,7 @@
       <c r="F160" s="31"/>
       <c r="I160" s="31"/>
       <c r="J160" s="31"/>
+      <c r="K160" s="31"/>
       <c r="M160" s="31"/>
     </row>
     <row r="161">
@@ -2438,6 +2613,7 @@
       <c r="F161" s="31"/>
       <c r="I161" s="31"/>
       <c r="J161" s="31"/>
+      <c r="K161" s="31"/>
       <c r="M161" s="31"/>
     </row>
     <row r="162">
@@ -2445,6 +2621,7 @@
       <c r="F162" s="31"/>
       <c r="I162" s="31"/>
       <c r="J162" s="31"/>
+      <c r="K162" s="31"/>
       <c r="M162" s="31"/>
     </row>
     <row r="163">
@@ -2452,6 +2629,7 @@
       <c r="F163" s="31"/>
       <c r="I163" s="31"/>
       <c r="J163" s="31"/>
+      <c r="K163" s="31"/>
       <c r="M163" s="31"/>
     </row>
     <row r="164">
@@ -2459,6 +2637,7 @@
       <c r="F164" s="31"/>
       <c r="I164" s="31"/>
       <c r="J164" s="31"/>
+      <c r="K164" s="31"/>
       <c r="M164" s="31"/>
     </row>
     <row r="165">
@@ -2466,6 +2645,7 @@
       <c r="F165" s="31"/>
       <c r="I165" s="31"/>
       <c r="J165" s="31"/>
+      <c r="K165" s="31"/>
       <c r="M165" s="31"/>
     </row>
     <row r="166">
@@ -2473,6 +2653,7 @@
       <c r="F166" s="31"/>
       <c r="I166" s="31"/>
       <c r="J166" s="31"/>
+      <c r="K166" s="31"/>
       <c r="M166" s="31"/>
     </row>
     <row r="167">
@@ -2480,6 +2661,7 @@
       <c r="F167" s="31"/>
       <c r="I167" s="31"/>
       <c r="J167" s="31"/>
+      <c r="K167" s="31"/>
       <c r="M167" s="31"/>
     </row>
     <row r="168">
@@ -2487,6 +2669,7 @@
       <c r="F168" s="31"/>
       <c r="I168" s="31"/>
       <c r="J168" s="31"/>
+      <c r="K168" s="31"/>
       <c r="M168" s="31"/>
     </row>
     <row r="169">
@@ -2494,6 +2677,7 @@
       <c r="F169" s="31"/>
       <c r="I169" s="31"/>
       <c r="J169" s="31"/>
+      <c r="K169" s="31"/>
       <c r="M169" s="31"/>
     </row>
     <row r="170">
@@ -2501,6 +2685,7 @@
       <c r="F170" s="31"/>
       <c r="I170" s="31"/>
       <c r="J170" s="31"/>
+      <c r="K170" s="31"/>
       <c r="M170" s="31"/>
     </row>
     <row r="171">
@@ -2508,6 +2693,7 @@
       <c r="F171" s="31"/>
       <c r="I171" s="31"/>
       <c r="J171" s="31"/>
+      <c r="K171" s="31"/>
       <c r="M171" s="31"/>
     </row>
     <row r="172">
@@ -2515,6 +2701,7 @@
       <c r="F172" s="31"/>
       <c r="I172" s="31"/>
       <c r="J172" s="31"/>
+      <c r="K172" s="31"/>
       <c r="M172" s="31"/>
     </row>
     <row r="173">
@@ -2522,6 +2709,7 @@
       <c r="F173" s="31"/>
       <c r="I173" s="31"/>
       <c r="J173" s="31"/>
+      <c r="K173" s="31"/>
       <c r="M173" s="31"/>
     </row>
     <row r="174">
@@ -2529,6 +2717,7 @@
       <c r="F174" s="31"/>
       <c r="I174" s="31"/>
       <c r="J174" s="31"/>
+      <c r="K174" s="31"/>
       <c r="M174" s="31"/>
     </row>
     <row r="175">
@@ -2536,6 +2725,7 @@
       <c r="F175" s="31"/>
       <c r="I175" s="31"/>
       <c r="J175" s="31"/>
+      <c r="K175" s="31"/>
       <c r="M175" s="31"/>
     </row>
     <row r="176">
@@ -2543,6 +2733,7 @@
       <c r="F176" s="31"/>
       <c r="I176" s="31"/>
       <c r="J176" s="31"/>
+      <c r="K176" s="31"/>
       <c r="M176" s="31"/>
     </row>
     <row r="177">
@@ -2550,6 +2741,7 @@
       <c r="F177" s="31"/>
       <c r="I177" s="31"/>
       <c r="J177" s="31"/>
+      <c r="K177" s="31"/>
       <c r="M177" s="31"/>
     </row>
     <row r="178">
@@ -2557,6 +2749,7 @@
       <c r="F178" s="31"/>
       <c r="I178" s="31"/>
       <c r="J178" s="31"/>
+      <c r="K178" s="31"/>
       <c r="M178" s="31"/>
     </row>
     <row r="179">
@@ -2564,6 +2757,7 @@
       <c r="F179" s="31"/>
       <c r="I179" s="31"/>
       <c r="J179" s="31"/>
+      <c r="K179" s="31"/>
       <c r="M179" s="31"/>
     </row>
     <row r="180">
@@ -2571,6 +2765,7 @@
       <c r="F180" s="31"/>
       <c r="I180" s="31"/>
       <c r="J180" s="31"/>
+      <c r="K180" s="31"/>
       <c r="M180" s="31"/>
     </row>
     <row r="181">
@@ -2578,6 +2773,7 @@
       <c r="F181" s="31"/>
       <c r="I181" s="31"/>
       <c r="J181" s="31"/>
+      <c r="K181" s="31"/>
       <c r="M181" s="31"/>
     </row>
     <row r="182">
@@ -2585,6 +2781,7 @@
       <c r="F182" s="31"/>
       <c r="I182" s="31"/>
       <c r="J182" s="31"/>
+      <c r="K182" s="31"/>
       <c r="M182" s="31"/>
     </row>
     <row r="183">
@@ -2592,6 +2789,7 @@
       <c r="F183" s="31"/>
       <c r="I183" s="31"/>
       <c r="J183" s="31"/>
+      <c r="K183" s="31"/>
       <c r="M183" s="31"/>
     </row>
     <row r="184">
@@ -2599,6 +2797,7 @@
       <c r="F184" s="31"/>
       <c r="I184" s="31"/>
       <c r="J184" s="31"/>
+      <c r="K184" s="31"/>
       <c r="M184" s="31"/>
     </row>
     <row r="185">
@@ -2606,6 +2805,7 @@
       <c r="F185" s="31"/>
       <c r="I185" s="31"/>
       <c r="J185" s="31"/>
+      <c r="K185" s="31"/>
       <c r="M185" s="31"/>
     </row>
     <row r="186">
@@ -2613,6 +2813,7 @@
       <c r="F186" s="31"/>
       <c r="I186" s="31"/>
       <c r="J186" s="31"/>
+      <c r="K186" s="31"/>
       <c r="M186" s="31"/>
     </row>
     <row r="187">
@@ -2620,6 +2821,7 @@
       <c r="F187" s="31"/>
       <c r="I187" s="31"/>
       <c r="J187" s="31"/>
+      <c r="K187" s="31"/>
       <c r="M187" s="31"/>
     </row>
     <row r="188">
@@ -2627,6 +2829,7 @@
       <c r="F188" s="31"/>
       <c r="I188" s="31"/>
       <c r="J188" s="31"/>
+      <c r="K188" s="31"/>
       <c r="M188" s="31"/>
     </row>
     <row r="189">
@@ -2634,6 +2837,7 @@
       <c r="F189" s="31"/>
       <c r="I189" s="31"/>
       <c r="J189" s="31"/>
+      <c r="K189" s="31"/>
       <c r="M189" s="31"/>
     </row>
     <row r="190">
@@ -2641,6 +2845,7 @@
       <c r="F190" s="31"/>
       <c r="I190" s="31"/>
       <c r="J190" s="31"/>
+      <c r="K190" s="31"/>
       <c r="M190" s="31"/>
     </row>
     <row r="191">
@@ -2648,6 +2853,7 @@
       <c r="F191" s="31"/>
       <c r="I191" s="31"/>
       <c r="J191" s="31"/>
+      <c r="K191" s="31"/>
       <c r="M191" s="31"/>
     </row>
     <row r="192">
@@ -2655,6 +2861,7 @@
       <c r="F192" s="31"/>
       <c r="I192" s="31"/>
       <c r="J192" s="31"/>
+      <c r="K192" s="31"/>
       <c r="M192" s="31"/>
     </row>
     <row r="193">
@@ -2662,6 +2869,7 @@
       <c r="F193" s="31"/>
       <c r="I193" s="31"/>
       <c r="J193" s="31"/>
+      <c r="K193" s="31"/>
       <c r="M193" s="31"/>
     </row>
     <row r="194">
@@ -2669,6 +2877,7 @@
       <c r="F194" s="31"/>
       <c r="I194" s="31"/>
       <c r="J194" s="31"/>
+      <c r="K194" s="31"/>
       <c r="M194" s="31"/>
     </row>
     <row r="195">
@@ -2676,6 +2885,7 @@
       <c r="F195" s="31"/>
       <c r="I195" s="31"/>
       <c r="J195" s="31"/>
+      <c r="K195" s="31"/>
       <c r="M195" s="31"/>
     </row>
     <row r="196">
@@ -2683,6 +2893,7 @@
       <c r="F196" s="31"/>
       <c r="I196" s="31"/>
       <c r="J196" s="31"/>
+      <c r="K196" s="31"/>
       <c r="M196" s="31"/>
     </row>
     <row r="197">
@@ -2690,6 +2901,7 @@
       <c r="F197" s="31"/>
       <c r="I197" s="31"/>
       <c r="J197" s="31"/>
+      <c r="K197" s="31"/>
       <c r="M197" s="31"/>
     </row>
     <row r="198">
@@ -2697,6 +2909,7 @@
       <c r="F198" s="31"/>
       <c r="I198" s="31"/>
       <c r="J198" s="31"/>
+      <c r="K198" s="31"/>
       <c r="M198" s="31"/>
     </row>
     <row r="199">
@@ -2704,6 +2917,7 @@
       <c r="F199" s="31"/>
       <c r="I199" s="31"/>
       <c r="J199" s="31"/>
+      <c r="K199" s="31"/>
       <c r="M199" s="31"/>
     </row>
     <row r="200">
@@ -2711,6 +2925,7 @@
       <c r="F200" s="31"/>
       <c r="I200" s="31"/>
       <c r="J200" s="31"/>
+      <c r="K200" s="31"/>
       <c r="M200" s="31"/>
     </row>
     <row r="201">
@@ -2718,6 +2933,7 @@
       <c r="F201" s="31"/>
       <c r="I201" s="31"/>
       <c r="J201" s="31"/>
+      <c r="K201" s="31"/>
       <c r="M201" s="31"/>
     </row>
     <row r="202">
@@ -2725,6 +2941,7 @@
       <c r="F202" s="31"/>
       <c r="I202" s="31"/>
       <c r="J202" s="31"/>
+      <c r="K202" s="31"/>
       <c r="M202" s="31"/>
     </row>
     <row r="203">
@@ -2732,6 +2949,7 @@
       <c r="F203" s="31"/>
       <c r="I203" s="31"/>
       <c r="J203" s="31"/>
+      <c r="K203" s="31"/>
       <c r="M203" s="31"/>
     </row>
     <row r="204">
@@ -2739,6 +2957,7 @@
       <c r="F204" s="31"/>
       <c r="I204" s="31"/>
       <c r="J204" s="31"/>
+      <c r="K204" s="31"/>
       <c r="M204" s="31"/>
     </row>
     <row r="205">
@@ -2746,6 +2965,7 @@
       <c r="F205" s="31"/>
       <c r="I205" s="31"/>
       <c r="J205" s="31"/>
+      <c r="K205" s="31"/>
       <c r="M205" s="31"/>
     </row>
     <row r="206">
@@ -2753,6 +2973,7 @@
       <c r="F206" s="31"/>
       <c r="I206" s="31"/>
       <c r="J206" s="31"/>
+      <c r="K206" s="31"/>
       <c r="M206" s="31"/>
     </row>
     <row r="207">
@@ -2760,6 +2981,7 @@
       <c r="F207" s="31"/>
       <c r="I207" s="31"/>
       <c r="J207" s="31"/>
+      <c r="K207" s="31"/>
       <c r="M207" s="31"/>
     </row>
     <row r="208">
@@ -2767,6 +2989,7 @@
       <c r="F208" s="31"/>
       <c r="I208" s="31"/>
       <c r="J208" s="31"/>
+      <c r="K208" s="31"/>
       <c r="M208" s="31"/>
     </row>
     <row r="209">
@@ -2774,6 +2997,7 @@
       <c r="F209" s="31"/>
       <c r="I209" s="31"/>
       <c r="J209" s="31"/>
+      <c r="K209" s="31"/>
       <c r="M209" s="31"/>
     </row>
     <row r="210">
@@ -2781,6 +3005,7 @@
       <c r="F210" s="31"/>
       <c r="I210" s="31"/>
       <c r="J210" s="31"/>
+      <c r="K210" s="31"/>
       <c r="M210" s="31"/>
     </row>
     <row r="211">
@@ -2788,6 +3013,7 @@
       <c r="F211" s="31"/>
       <c r="I211" s="31"/>
       <c r="J211" s="31"/>
+      <c r="K211" s="31"/>
       <c r="M211" s="31"/>
     </row>
     <row r="212">
@@ -2795,6 +3021,7 @@
       <c r="F212" s="31"/>
       <c r="I212" s="31"/>
       <c r="J212" s="31"/>
+      <c r="K212" s="31"/>
       <c r="M212" s="31"/>
     </row>
     <row r="213">
@@ -2802,6 +3029,7 @@
       <c r="F213" s="31"/>
       <c r="I213" s="31"/>
       <c r="J213" s="31"/>
+      <c r="K213" s="31"/>
       <c r="M213" s="31"/>
     </row>
     <row r="214">
@@ -2809,6 +3037,7 @@
       <c r="F214" s="31"/>
       <c r="I214" s="31"/>
       <c r="J214" s="31"/>
+      <c r="K214" s="31"/>
       <c r="M214" s="31"/>
     </row>
     <row r="215">
@@ -2816,6 +3045,7 @@
       <c r="F215" s="31"/>
       <c r="I215" s="31"/>
       <c r="J215" s="31"/>
+      <c r="K215" s="31"/>
       <c r="M215" s="31"/>
     </row>
     <row r="216">
@@ -2823,6 +3053,7 @@
       <c r="F216" s="31"/>
       <c r="I216" s="31"/>
       <c r="J216" s="31"/>
+      <c r="K216" s="31"/>
       <c r="M216" s="31"/>
     </row>
     <row r="217">
@@ -2830,6 +3061,7 @@
       <c r="F217" s="31"/>
       <c r="I217" s="31"/>
       <c r="J217" s="31"/>
+      <c r="K217" s="31"/>
       <c r="M217" s="31"/>
     </row>
     <row r="218">
@@ -2837,6 +3069,7 @@
       <c r="F218" s="31"/>
       <c r="I218" s="31"/>
       <c r="J218" s="31"/>
+      <c r="K218" s="31"/>
       <c r="M218" s="31"/>
     </row>
     <row r="219">
@@ -2844,6 +3077,7 @@
       <c r="F219" s="31"/>
       <c r="I219" s="31"/>
       <c r="J219" s="31"/>
+      <c r="K219" s="31"/>
       <c r="M219" s="31"/>
     </row>
     <row r="220">
@@ -2851,6 +3085,7 @@
       <c r="F220" s="31"/>
       <c r="I220" s="31"/>
       <c r="J220" s="31"/>
+      <c r="K220" s="31"/>
       <c r="M220" s="31"/>
     </row>
     <row r="221">
@@ -2858,6 +3093,7 @@
       <c r="F221" s="31"/>
       <c r="I221" s="31"/>
       <c r="J221" s="31"/>
+      <c r="K221" s="31"/>
       <c r="M221" s="31"/>
     </row>
     <row r="222">
@@ -2865,6 +3101,7 @@
       <c r="F222" s="31"/>
       <c r="I222" s="31"/>
       <c r="J222" s="31"/>
+      <c r="K222" s="31"/>
       <c r="M222" s="31"/>
     </row>
     <row r="223">
@@ -2872,6 +3109,7 @@
       <c r="F223" s="31"/>
       <c r="I223" s="31"/>
       <c r="J223" s="31"/>
+      <c r="K223" s="31"/>
       <c r="M223" s="31"/>
     </row>
     <row r="224">
@@ -2879,6 +3117,7 @@
       <c r="F224" s="31"/>
       <c r="I224" s="31"/>
       <c r="J224" s="31"/>
+      <c r="K224" s="31"/>
       <c r="M224" s="31"/>
     </row>
     <row r="225">
@@ -2886,6 +3125,7 @@
       <c r="F225" s="31"/>
       <c r="I225" s="31"/>
       <c r="J225" s="31"/>
+      <c r="K225" s="31"/>
       <c r="M225" s="31"/>
     </row>
     <row r="226">
@@ -2893,6 +3133,7 @@
       <c r="F226" s="31"/>
       <c r="I226" s="31"/>
       <c r="J226" s="31"/>
+      <c r="K226" s="31"/>
       <c r="M226" s="31"/>
     </row>
     <row r="227">
@@ -2900,6 +3141,7 @@
       <c r="F227" s="31"/>
       <c r="I227" s="31"/>
       <c r="J227" s="31"/>
+      <c r="K227" s="31"/>
       <c r="M227" s="31"/>
     </row>
     <row r="228">
@@ -2907,6 +3149,7 @@
       <c r="F228" s="31"/>
       <c r="I228" s="31"/>
       <c r="J228" s="31"/>
+      <c r="K228" s="31"/>
       <c r="M228" s="31"/>
     </row>
     <row r="229">
@@ -2914,6 +3157,7 @@
       <c r="F229" s="31"/>
       <c r="I229" s="31"/>
       <c r="J229" s="31"/>
+      <c r="K229" s="31"/>
       <c r="M229" s="31"/>
     </row>
     <row r="230">
@@ -2921,6 +3165,7 @@
       <c r="F230" s="31"/>
       <c r="I230" s="31"/>
       <c r="J230" s="31"/>
+      <c r="K230" s="31"/>
       <c r="M230" s="31"/>
     </row>
     <row r="231">
@@ -2928,6 +3173,7 @@
       <c r="F231" s="31"/>
       <c r="I231" s="31"/>
       <c r="J231" s="31"/>
+      <c r="K231" s="31"/>
       <c r="M231" s="31"/>
     </row>
     <row r="232">
@@ -2935,6 +3181,7 @@
       <c r="F232" s="31"/>
       <c r="I232" s="31"/>
       <c r="J232" s="31"/>
+      <c r="K232" s="31"/>
       <c r="M232" s="31"/>
     </row>
     <row r="233">
@@ -2942,6 +3189,7 @@
       <c r="F233" s="31"/>
       <c r="I233" s="31"/>
       <c r="J233" s="31"/>
+      <c r="K233" s="31"/>
       <c r="M233" s="31"/>
     </row>
     <row r="234">
@@ -2949,6 +3197,7 @@
       <c r="F234" s="31"/>
       <c r="I234" s="31"/>
       <c r="J234" s="31"/>
+      <c r="K234" s="31"/>
       <c r="M234" s="31"/>
     </row>
     <row r="235">
@@ -2956,6 +3205,7 @@
       <c r="F235" s="31"/>
       <c r="I235" s="31"/>
       <c r="J235" s="31"/>
+      <c r="K235" s="31"/>
       <c r="M235" s="31"/>
     </row>
     <row r="236">
@@ -2963,6 +3213,7 @@
       <c r="F236" s="31"/>
       <c r="I236" s="31"/>
       <c r="J236" s="31"/>
+      <c r="K236" s="31"/>
       <c r="M236" s="31"/>
     </row>
     <row r="237">
@@ -2970,6 +3221,7 @@
       <c r="F237" s="31"/>
       <c r="I237" s="31"/>
       <c r="J237" s="31"/>
+      <c r="K237" s="31"/>
       <c r="M237" s="31"/>
     </row>
     <row r="238">
@@ -2977,6 +3229,7 @@
       <c r="F238" s="31"/>
       <c r="I238" s="31"/>
       <c r="J238" s="31"/>
+      <c r="K238" s="31"/>
       <c r="M238" s="31"/>
     </row>
     <row r="239">
@@ -2984,6 +3237,7 @@
       <c r="F239" s="31"/>
       <c r="I239" s="31"/>
       <c r="J239" s="31"/>
+      <c r="K239" s="31"/>
       <c r="M239" s="31"/>
     </row>
     <row r="240">
@@ -2991,6 +3245,7 @@
       <c r="F240" s="31"/>
       <c r="I240" s="31"/>
       <c r="J240" s="31"/>
+      <c r="K240" s="31"/>
       <c r="M240" s="31"/>
     </row>
     <row r="241">
@@ -2998,6 +3253,7 @@
       <c r="F241" s="31"/>
       <c r="I241" s="31"/>
       <c r="J241" s="31"/>
+      <c r="K241" s="31"/>
       <c r="M241" s="31"/>
     </row>
     <row r="242">
@@ -3005,6 +3261,7 @@
       <c r="F242" s="31"/>
       <c r="I242" s="31"/>
       <c r="J242" s="31"/>
+      <c r="K242" s="31"/>
       <c r="M242" s="31"/>
     </row>
     <row r="243">
@@ -3012,6 +3269,7 @@
       <c r="F243" s="31"/>
       <c r="I243" s="31"/>
       <c r="J243" s="31"/>
+      <c r="K243" s="31"/>
       <c r="M243" s="31"/>
     </row>
     <row r="244">
@@ -3019,6 +3277,7 @@
       <c r="F244" s="31"/>
       <c r="I244" s="31"/>
       <c r="J244" s="31"/>
+      <c r="K244" s="31"/>
       <c r="M244" s="31"/>
     </row>
     <row r="245">
@@ -3026,6 +3285,7 @@
       <c r="F245" s="31"/>
       <c r="I245" s="31"/>
       <c r="J245" s="31"/>
+      <c r="K245" s="31"/>
       <c r="M245" s="31"/>
     </row>
     <row r="246">
@@ -3033,6 +3293,7 @@
       <c r="F246" s="31"/>
       <c r="I246" s="31"/>
       <c r="J246" s="31"/>
+      <c r="K246" s="31"/>
       <c r="M246" s="31"/>
     </row>
     <row r="247">
@@ -3040,6 +3301,7 @@
       <c r="F247" s="31"/>
       <c r="I247" s="31"/>
       <c r="J247" s="31"/>
+      <c r="K247" s="31"/>
       <c r="M247" s="31"/>
     </row>
     <row r="248">
@@ -3047,6 +3309,7 @@
       <c r="F248" s="31"/>
       <c r="I248" s="31"/>
       <c r="J248" s="31"/>
+      <c r="K248" s="31"/>
       <c r="M248" s="31"/>
     </row>
     <row r="249">
@@ -3054,6 +3317,7 @@
       <c r="F249" s="31"/>
       <c r="I249" s="31"/>
       <c r="J249" s="31"/>
+      <c r="K249" s="31"/>
       <c r="M249" s="31"/>
     </row>
     <row r="250">
@@ -3061,6 +3325,7 @@
       <c r="F250" s="31"/>
       <c r="I250" s="31"/>
       <c r="J250" s="31"/>
+      <c r="K250" s="31"/>
       <c r="M250" s="31"/>
     </row>
     <row r="251">
@@ -3068,6 +3333,7 @@
       <c r="F251" s="31"/>
       <c r="I251" s="31"/>
       <c r="J251" s="31"/>
+      <c r="K251" s="31"/>
       <c r="M251" s="31"/>
     </row>
     <row r="252">
@@ -3075,6 +3341,7 @@
       <c r="F252" s="31"/>
       <c r="I252" s="31"/>
       <c r="J252" s="31"/>
+      <c r="K252" s="31"/>
       <c r="M252" s="31"/>
     </row>
     <row r="253">
@@ -3082,6 +3349,7 @@
       <c r="F253" s="31"/>
       <c r="I253" s="31"/>
       <c r="J253" s="31"/>
+      <c r="K253" s="31"/>
       <c r="M253" s="31"/>
     </row>
     <row r="254">
@@ -3089,6 +3357,7 @@
       <c r="F254" s="31"/>
       <c r="I254" s="31"/>
       <c r="J254" s="31"/>
+      <c r="K254" s="31"/>
       <c r="M254" s="31"/>
     </row>
     <row r="255">
@@ -3096,6 +3365,7 @@
       <c r="F255" s="31"/>
       <c r="I255" s="31"/>
       <c r="J255" s="31"/>
+      <c r="K255" s="31"/>
       <c r="M255" s="31"/>
     </row>
     <row r="256">
@@ -3103,6 +3373,7 @@
       <c r="F256" s="31"/>
       <c r="I256" s="31"/>
       <c r="J256" s="31"/>
+      <c r="K256" s="31"/>
       <c r="M256" s="31"/>
     </row>
     <row r="257">
@@ -3110,6 +3381,7 @@
       <c r="F257" s="31"/>
       <c r="I257" s="31"/>
       <c r="J257" s="31"/>
+      <c r="K257" s="31"/>
       <c r="M257" s="31"/>
     </row>
     <row r="258">
@@ -3117,6 +3389,7 @@
       <c r="F258" s="31"/>
       <c r="I258" s="31"/>
       <c r="J258" s="31"/>
+      <c r="K258" s="31"/>
       <c r="M258" s="31"/>
     </row>
     <row r="259">
@@ -3124,6 +3397,7 @@
       <c r="F259" s="31"/>
       <c r="I259" s="31"/>
       <c r="J259" s="31"/>
+      <c r="K259" s="31"/>
       <c r="M259" s="31"/>
     </row>
     <row r="260">
@@ -3131,6 +3405,7 @@
       <c r="F260" s="31"/>
       <c r="I260" s="31"/>
       <c r="J260" s="31"/>
+      <c r="K260" s="31"/>
       <c r="M260" s="31"/>
     </row>
     <row r="261">
@@ -3138,6 +3413,7 @@
       <c r="F261" s="31"/>
       <c r="I261" s="31"/>
       <c r="J261" s="31"/>
+      <c r="K261" s="31"/>
       <c r="M261" s="31"/>
     </row>
     <row r="262">
@@ -3145,6 +3421,7 @@
       <c r="F262" s="31"/>
       <c r="I262" s="31"/>
       <c r="J262" s="31"/>
+      <c r="K262" s="31"/>
       <c r="M262" s="31"/>
     </row>
     <row r="263">
@@ -3152,6 +3429,7 @@
       <c r="F263" s="31"/>
       <c r="I263" s="31"/>
       <c r="J263" s="31"/>
+      <c r="K263" s="31"/>
       <c r="M263" s="31"/>
     </row>
     <row r="264">
@@ -3159,6 +3437,7 @@
       <c r="F264" s="31"/>
       <c r="I264" s="31"/>
       <c r="J264" s="31"/>
+      <c r="K264" s="31"/>
       <c r="M264" s="31"/>
     </row>
     <row r="265">
@@ -3166,6 +3445,7 @@
       <c r="F265" s="31"/>
       <c r="I265" s="31"/>
       <c r="J265" s="31"/>
+      <c r="K265" s="31"/>
       <c r="M265" s="31"/>
     </row>
     <row r="266">
@@ -3173,6 +3453,7 @@
       <c r="F266" s="31"/>
       <c r="I266" s="31"/>
       <c r="J266" s="31"/>
+      <c r="K266" s="31"/>
       <c r="M266" s="31"/>
     </row>
     <row r="267">
@@ -3180,6 +3461,7 @@
       <c r="F267" s="31"/>
       <c r="I267" s="31"/>
       <c r="J267" s="31"/>
+      <c r="K267" s="31"/>
       <c r="M267" s="31"/>
     </row>
     <row r="268">
@@ -3187,6 +3469,7 @@
       <c r="F268" s="31"/>
       <c r="I268" s="31"/>
       <c r="J268" s="31"/>
+      <c r="K268" s="31"/>
       <c r="M268" s="31"/>
     </row>
     <row r="269">
@@ -3194,6 +3477,7 @@
       <c r="F269" s="31"/>
       <c r="I269" s="31"/>
       <c r="J269" s="31"/>
+      <c r="K269" s="31"/>
       <c r="M269" s="31"/>
     </row>
     <row r="270">
@@ -3201,6 +3485,7 @@
       <c r="F270" s="31"/>
       <c r="I270" s="31"/>
       <c r="J270" s="31"/>
+      <c r="K270" s="31"/>
       <c r="M270" s="31"/>
     </row>
     <row r="271">
@@ -3208,6 +3493,7 @@
       <c r="F271" s="31"/>
       <c r="I271" s="31"/>
       <c r="J271" s="31"/>
+      <c r="K271" s="31"/>
       <c r="M271" s="31"/>
     </row>
     <row r="272">
@@ -3215,6 +3501,7 @@
       <c r="F272" s="31"/>
       <c r="I272" s="31"/>
       <c r="J272" s="31"/>
+      <c r="K272" s="31"/>
       <c r="M272" s="31"/>
     </row>
     <row r="273">
@@ -3222,6 +3509,7 @@
       <c r="F273" s="31"/>
       <c r="I273" s="31"/>
       <c r="J273" s="31"/>
+      <c r="K273" s="31"/>
       <c r="M273" s="31"/>
     </row>
     <row r="274">
@@ -3229,6 +3517,7 @@
       <c r="F274" s="31"/>
       <c r="I274" s="31"/>
       <c r="J274" s="31"/>
+      <c r="K274" s="31"/>
       <c r="M274" s="31"/>
     </row>
     <row r="275">
@@ -3236,6 +3525,7 @@
       <c r="F275" s="31"/>
       <c r="I275" s="31"/>
       <c r="J275" s="31"/>
+      <c r="K275" s="31"/>
       <c r="M275" s="31"/>
     </row>
     <row r="276">
@@ -3243,6 +3533,7 @@
       <c r="F276" s="31"/>
       <c r="I276" s="31"/>
       <c r="J276" s="31"/>
+      <c r="K276" s="31"/>
       <c r="M276" s="31"/>
     </row>
     <row r="277">
@@ -3250,6 +3541,7 @@
       <c r="F277" s="31"/>
       <c r="I277" s="31"/>
       <c r="J277" s="31"/>
+      <c r="K277" s="31"/>
       <c r="M277" s="31"/>
     </row>
     <row r="278">
@@ -3257,6 +3549,7 @@
       <c r="F278" s="31"/>
       <c r="I278" s="31"/>
       <c r="J278" s="31"/>
+      <c r="K278" s="31"/>
       <c r="M278" s="31"/>
     </row>
     <row r="279">
@@ -3264,6 +3557,7 @@
       <c r="F279" s="31"/>
       <c r="I279" s="31"/>
       <c r="J279" s="31"/>
+      <c r="K279" s="31"/>
       <c r="M279" s="31"/>
     </row>
     <row r="280">
@@ -3271,6 +3565,7 @@
       <c r="F280" s="31"/>
       <c r="I280" s="31"/>
       <c r="J280" s="31"/>
+      <c r="K280" s="31"/>
       <c r="M280" s="31"/>
     </row>
     <row r="281">
@@ -3278,6 +3573,7 @@
       <c r="F281" s="31"/>
       <c r="I281" s="31"/>
       <c r="J281" s="31"/>
+      <c r="K281" s="31"/>
       <c r="M281" s="31"/>
     </row>
     <row r="282">
@@ -3285,6 +3581,7 @@
       <c r="F282" s="31"/>
       <c r="I282" s="31"/>
       <c r="J282" s="31"/>
+      <c r="K282" s="31"/>
       <c r="M282" s="31"/>
     </row>
     <row r="283">
@@ -3292,6 +3589,7 @@
       <c r="F283" s="31"/>
       <c r="I283" s="31"/>
       <c r="J283" s="31"/>
+      <c r="K283" s="31"/>
       <c r="M283" s="31"/>
     </row>
     <row r="284">
@@ -3299,6 +3597,7 @@
       <c r="F284" s="31"/>
       <c r="I284" s="31"/>
       <c r="J284" s="31"/>
+      <c r="K284" s="31"/>
       <c r="M284" s="31"/>
     </row>
     <row r="285">
@@ -3306,6 +3605,7 @@
       <c r="F285" s="31"/>
       <c r="I285" s="31"/>
       <c r="J285" s="31"/>
+      <c r="K285" s="31"/>
       <c r="M285" s="31"/>
     </row>
     <row r="286">
@@ -3313,6 +3613,7 @@
       <c r="F286" s="31"/>
       <c r="I286" s="31"/>
       <c r="J286" s="31"/>
+      <c r="K286" s="31"/>
       <c r="M286" s="31"/>
     </row>
     <row r="287">
@@ -3320,6 +3621,7 @@
       <c r="F287" s="31"/>
       <c r="I287" s="31"/>
       <c r="J287" s="31"/>
+      <c r="K287" s="31"/>
       <c r="M287" s="31"/>
     </row>
     <row r="288">
@@ -3327,6 +3629,7 @@
       <c r="F288" s="31"/>
       <c r="I288" s="31"/>
       <c r="J288" s="31"/>
+      <c r="K288" s="31"/>
       <c r="M288" s="31"/>
     </row>
     <row r="289">
@@ -3334,6 +3637,7 @@
       <c r="F289" s="31"/>
       <c r="I289" s="31"/>
       <c r="J289" s="31"/>
+      <c r="K289" s="31"/>
       <c r="M289" s="31"/>
     </row>
     <row r="290">
@@ -3341,6 +3645,7 @@
       <c r="F290" s="31"/>
       <c r="I290" s="31"/>
       <c r="J290" s="31"/>
+      <c r="K290" s="31"/>
       <c r="M290" s="31"/>
     </row>
     <row r="291">
@@ -3348,6 +3653,7 @@
       <c r="F291" s="31"/>
       <c r="I291" s="31"/>
       <c r="J291" s="31"/>
+      <c r="K291" s="31"/>
       <c r="M291" s="31"/>
     </row>
     <row r="292">
@@ -3355,6 +3661,7 @@
       <c r="F292" s="31"/>
       <c r="I292" s="31"/>
       <c r="J292" s="31"/>
+      <c r="K292" s="31"/>
       <c r="M292" s="31"/>
     </row>
     <row r="293">
@@ -3362,6 +3669,7 @@
       <c r="F293" s="31"/>
       <c r="I293" s="31"/>
       <c r="J293" s="31"/>
+      <c r="K293" s="31"/>
       <c r="M293" s="31"/>
     </row>
     <row r="294">
@@ -3369,6 +3677,7 @@
       <c r="F294" s="31"/>
       <c r="I294" s="31"/>
       <c r="J294" s="31"/>
+      <c r="K294" s="31"/>
       <c r="M294" s="31"/>
     </row>
     <row r="295">
@@ -3376,6 +3685,7 @@
       <c r="F295" s="31"/>
       <c r="I295" s="31"/>
       <c r="J295" s="31"/>
+      <c r="K295" s="31"/>
       <c r="M295" s="31"/>
     </row>
     <row r="296">
@@ -3383,6 +3693,7 @@
       <c r="F296" s="31"/>
       <c r="I296" s="31"/>
       <c r="J296" s="31"/>
+      <c r="K296" s="31"/>
       <c r="M296" s="31"/>
     </row>
     <row r="297">
@@ -3390,6 +3701,7 @@
       <c r="F297" s="31"/>
       <c r="I297" s="31"/>
       <c r="J297" s="31"/>
+      <c r="K297" s="31"/>
       <c r="M297" s="31"/>
     </row>
     <row r="298">
@@ -3397,6 +3709,7 @@
       <c r="F298" s="31"/>
       <c r="I298" s="31"/>
       <c r="J298" s="31"/>
+      <c r="K298" s="31"/>
       <c r="M298" s="31"/>
     </row>
     <row r="299">
@@ -3404,6 +3717,7 @@
       <c r="F299" s="31"/>
       <c r="I299" s="31"/>
       <c r="J299" s="31"/>
+      <c r="K299" s="31"/>
       <c r="M299" s="31"/>
     </row>
     <row r="300">
@@ -3411,6 +3725,7 @@
       <c r="F300" s="31"/>
       <c r="I300" s="31"/>
       <c r="J300" s="31"/>
+      <c r="K300" s="31"/>
       <c r="M300" s="31"/>
     </row>
     <row r="301">
@@ -3418,6 +3733,7 @@
       <c r="F301" s="31"/>
       <c r="I301" s="31"/>
       <c r="J301" s="31"/>
+      <c r="K301" s="31"/>
       <c r="M301" s="31"/>
     </row>
     <row r="302">
@@ -3425,6 +3741,7 @@
       <c r="F302" s="31"/>
       <c r="I302" s="31"/>
       <c r="J302" s="31"/>
+      <c r="K302" s="31"/>
       <c r="M302" s="31"/>
     </row>
     <row r="303">
@@ -3432,6 +3749,7 @@
       <c r="F303" s="31"/>
       <c r="I303" s="31"/>
       <c r="J303" s="31"/>
+      <c r="K303" s="31"/>
       <c r="M303" s="31"/>
     </row>
     <row r="304">
@@ -3439,6 +3757,7 @@
       <c r="F304" s="31"/>
       <c r="I304" s="31"/>
       <c r="J304" s="31"/>
+      <c r="K304" s="31"/>
       <c r="M304" s="31"/>
     </row>
     <row r="305">
@@ -3446,6 +3765,7 @@
       <c r="F305" s="31"/>
       <c r="I305" s="31"/>
       <c r="J305" s="31"/>
+      <c r="K305" s="31"/>
       <c r="M305" s="31"/>
     </row>
     <row r="306">
@@ -3453,6 +3773,7 @@
       <c r="F306" s="31"/>
       <c r="I306" s="31"/>
       <c r="J306" s="31"/>
+      <c r="K306" s="31"/>
       <c r="M306" s="31"/>
     </row>
     <row r="307">
@@ -3460,6 +3781,7 @@
       <c r="F307" s="31"/>
       <c r="I307" s="31"/>
       <c r="J307" s="31"/>
+      <c r="K307" s="31"/>
       <c r="M307" s="31"/>
     </row>
     <row r="308">
@@ -3467,6 +3789,7 @@
       <c r="F308" s="31"/>
       <c r="I308" s="31"/>
       <c r="J308" s="31"/>
+      <c r="K308" s="31"/>
       <c r="M308" s="31"/>
     </row>
     <row r="309">
@@ -3474,6 +3797,7 @@
       <c r="F309" s="31"/>
       <c r="I309" s="31"/>
       <c r="J309" s="31"/>
+      <c r="K309" s="31"/>
       <c r="M309" s="31"/>
     </row>
     <row r="310">
@@ -3481,6 +3805,7 @@
       <c r="F310" s="31"/>
       <c r="I310" s="31"/>
       <c r="J310" s="31"/>
+      <c r="K310" s="31"/>
       <c r="M310" s="31"/>
     </row>
     <row r="311">
@@ -3488,6 +3813,7 @@
       <c r="F311" s="31"/>
       <c r="I311" s="31"/>
       <c r="J311" s="31"/>
+      <c r="K311" s="31"/>
       <c r="M311" s="31"/>
     </row>
     <row r="312">
@@ -3495,6 +3821,7 @@
       <c r="F312" s="31"/>
       <c r="I312" s="31"/>
       <c r="J312" s="31"/>
+      <c r="K312" s="31"/>
       <c r="M312" s="31"/>
     </row>
     <row r="313">
@@ -3502,6 +3829,7 @@
       <c r="F313" s="31"/>
       <c r="I313" s="31"/>
       <c r="J313" s="31"/>
+      <c r="K313" s="31"/>
       <c r="M313" s="31"/>
     </row>
     <row r="314">
@@ -3509,6 +3837,7 @@
       <c r="F314" s="31"/>
       <c r="I314" s="31"/>
       <c r="J314" s="31"/>
+      <c r="K314" s="31"/>
       <c r="M314" s="31"/>
     </row>
     <row r="315">
@@ -3516,6 +3845,7 @@
       <c r="F315" s="31"/>
       <c r="I315" s="31"/>
       <c r="J315" s="31"/>
+      <c r="K315" s="31"/>
       <c r="M315" s="31"/>
     </row>
     <row r="316">
@@ -3523,6 +3853,7 @@
       <c r="F316" s="31"/>
       <c r="I316" s="31"/>
       <c r="J316" s="31"/>
+      <c r="K316" s="31"/>
       <c r="M316" s="31"/>
     </row>
     <row r="317">
@@ -3530,6 +3861,7 @@
       <c r="F317" s="31"/>
       <c r="I317" s="31"/>
       <c r="J317" s="31"/>
+      <c r="K317" s="31"/>
       <c r="M317" s="31"/>
     </row>
     <row r="318">
@@ -3537,6 +3869,7 @@
       <c r="F318" s="31"/>
       <c r="I318" s="31"/>
       <c r="J318" s="31"/>
+      <c r="K318" s="31"/>
       <c r="M318" s="31"/>
     </row>
     <row r="319">
@@ -3544,6 +3877,7 @@
       <c r="F319" s="31"/>
       <c r="I319" s="31"/>
       <c r="J319" s="31"/>
+      <c r="K319" s="31"/>
       <c r="M319" s="31"/>
     </row>
     <row r="320">
@@ -3551,6 +3885,7 @@
       <c r="F320" s="31"/>
       <c r="I320" s="31"/>
       <c r="J320" s="31"/>
+      <c r="K320" s="31"/>
       <c r="M320" s="31"/>
     </row>
     <row r="321">
@@ -3558,6 +3893,7 @@
       <c r="F321" s="31"/>
       <c r="I321" s="31"/>
       <c r="J321" s="31"/>
+      <c r="K321" s="31"/>
       <c r="M321" s="31"/>
     </row>
     <row r="322">
@@ -3565,6 +3901,7 @@
       <c r="F322" s="31"/>
       <c r="I322" s="31"/>
       <c r="J322" s="31"/>
+      <c r="K322" s="31"/>
       <c r="M322" s="31"/>
     </row>
     <row r="323">
@@ -3572,6 +3909,7 @@
       <c r="F323" s="31"/>
       <c r="I323" s="31"/>
       <c r="J323" s="31"/>
+      <c r="K323" s="31"/>
       <c r="M323" s="31"/>
     </row>
     <row r="324">
@@ -3579,6 +3917,7 @@
       <c r="F324" s="31"/>
       <c r="I324" s="31"/>
       <c r="J324" s="31"/>
+      <c r="K324" s="31"/>
       <c r="M324" s="31"/>
     </row>
     <row r="325">
@@ -3586,6 +3925,7 @@
       <c r="F325" s="31"/>
       <c r="I325" s="31"/>
       <c r="J325" s="31"/>
+      <c r="K325" s="31"/>
       <c r="M325" s="31"/>
     </row>
     <row r="326">
@@ -3593,6 +3933,7 @@
       <c r="F326" s="31"/>
       <c r="I326" s="31"/>
       <c r="J326" s="31"/>
+      <c r="K326" s="31"/>
       <c r="M326" s="31"/>
     </row>
     <row r="327">
@@ -3600,6 +3941,7 @@
       <c r="F327" s="31"/>
       <c r="I327" s="31"/>
       <c r="J327" s="31"/>
+      <c r="K327" s="31"/>
       <c r="M327" s="31"/>
     </row>
     <row r="328">
@@ -3607,6 +3949,7 @@
       <c r="F328" s="31"/>
       <c r="I328" s="31"/>
       <c r="J328" s="31"/>
+      <c r="K328" s="31"/>
       <c r="M328" s="31"/>
     </row>
     <row r="329">
@@ -3614,6 +3957,7 @@
       <c r="F329" s="31"/>
       <c r="I329" s="31"/>
       <c r="J329" s="31"/>
+      <c r="K329" s="31"/>
       <c r="M329" s="31"/>
     </row>
     <row r="330">
@@ -3621,6 +3965,7 @@
       <c r="F330" s="31"/>
       <c r="I330" s="31"/>
       <c r="J330" s="31"/>
+      <c r="K330" s="31"/>
       <c r="M330" s="31"/>
     </row>
     <row r="331">
@@ -3628,6 +3973,7 @@
       <c r="F331" s="31"/>
       <c r="I331" s="31"/>
       <c r="J331" s="31"/>
+      <c r="K331" s="31"/>
       <c r="M331" s="31"/>
     </row>
     <row r="332">
@@ -3635,6 +3981,7 @@
       <c r="F332" s="31"/>
       <c r="I332" s="31"/>
       <c r="J332" s="31"/>
+      <c r="K332" s="31"/>
       <c r="M332" s="31"/>
     </row>
     <row r="333">
@@ -3642,6 +3989,7 @@
       <c r="F333" s="31"/>
       <c r="I333" s="31"/>
       <c r="J333" s="31"/>
+      <c r="K333" s="31"/>
       <c r="M333" s="31"/>
     </row>
     <row r="334">
@@ -3649,6 +3997,7 @@
       <c r="F334" s="31"/>
       <c r="I334" s="31"/>
       <c r="J334" s="31"/>
+      <c r="K334" s="31"/>
       <c r="M334" s="31"/>
     </row>
     <row r="335">
@@ -3656,6 +4005,7 @@
       <c r="F335" s="31"/>
       <c r="I335" s="31"/>
       <c r="J335" s="31"/>
+      <c r="K335" s="31"/>
       <c r="M335" s="31"/>
     </row>
     <row r="336">
@@ -3663,6 +4013,7 @@
       <c r="F336" s="31"/>
       <c r="I336" s="31"/>
       <c r="J336" s="31"/>
+      <c r="K336" s="31"/>
       <c r="M336" s="31"/>
     </row>
     <row r="337">
@@ -3670,6 +4021,7 @@
       <c r="F337" s="31"/>
       <c r="I337" s="31"/>
       <c r="J337" s="31"/>
+      <c r="K337" s="31"/>
       <c r="M337" s="31"/>
     </row>
     <row r="338">
@@ -3677,6 +4029,7 @@
       <c r="F338" s="31"/>
       <c r="I338" s="31"/>
       <c r="J338" s="31"/>
+      <c r="K338" s="31"/>
       <c r="M338" s="31"/>
     </row>
     <row r="339">
@@ -3684,6 +4037,7 @@
       <c r="F339" s="31"/>
       <c r="I339" s="31"/>
       <c r="J339" s="31"/>
+      <c r="K339" s="31"/>
       <c r="M339" s="31"/>
     </row>
     <row r="340">
@@ -3691,6 +4045,7 @@
       <c r="F340" s="31"/>
       <c r="I340" s="31"/>
       <c r="J340" s="31"/>
+      <c r="K340" s="31"/>
       <c r="M340" s="31"/>
     </row>
     <row r="341">
@@ -3698,6 +4053,7 @@
       <c r="F341" s="31"/>
       <c r="I341" s="31"/>
       <c r="J341" s="31"/>
+      <c r="K341" s="31"/>
       <c r="M341" s="31"/>
     </row>
     <row r="342">
@@ -3705,6 +4061,7 @@
       <c r="F342" s="31"/>
       <c r="I342" s="31"/>
       <c r="J342" s="31"/>
+      <c r="K342" s="31"/>
       <c r="M342" s="31"/>
     </row>
     <row r="343">
@@ -3712,6 +4069,7 @@
       <c r="F343" s="31"/>
       <c r="I343" s="31"/>
       <c r="J343" s="31"/>
+      <c r="K343" s="31"/>
       <c r="M343" s="31"/>
     </row>
     <row r="344">
@@ -3719,6 +4077,7 @@
       <c r="F344" s="31"/>
       <c r="I344" s="31"/>
       <c r="J344" s="31"/>
+      <c r="K344" s="31"/>
       <c r="M344" s="31"/>
     </row>
     <row r="345">
@@ -3726,6 +4085,7 @@
       <c r="F345" s="31"/>
       <c r="I345" s="31"/>
       <c r="J345" s="31"/>
+      <c r="K345" s="31"/>
       <c r="M345" s="31"/>
     </row>
     <row r="346">
@@ -3733,6 +4093,7 @@
       <c r="F346" s="31"/>
       <c r="I346" s="31"/>
       <c r="J346" s="31"/>
+      <c r="K346" s="31"/>
       <c r="M346" s="31"/>
     </row>
     <row r="347">
@@ -3740,6 +4101,7 @@
       <c r="F347" s="31"/>
       <c r="I347" s="31"/>
       <c r="J347" s="31"/>
+      <c r="K347" s="31"/>
       <c r="M347" s="31"/>
     </row>
     <row r="348">
@@ -3747,6 +4109,7 @@
       <c r="F348" s="31"/>
       <c r="I348" s="31"/>
       <c r="J348" s="31"/>
+      <c r="K348" s="31"/>
       <c r="M348" s="31"/>
     </row>
     <row r="349">
@@ -3754,6 +4117,7 @@
       <c r="F349" s="31"/>
       <c r="I349" s="31"/>
       <c r="J349" s="31"/>
+      <c r="K349" s="31"/>
       <c r="M349" s="31"/>
     </row>
     <row r="350">
@@ -3761,6 +4125,7 @@
       <c r="F350" s="31"/>
       <c r="I350" s="31"/>
       <c r="J350" s="31"/>
+      <c r="K350" s="31"/>
       <c r="M350" s="31"/>
     </row>
     <row r="351">
@@ -3768,6 +4133,7 @@
       <c r="F351" s="31"/>
       <c r="I351" s="31"/>
       <c r="J351" s="31"/>
+      <c r="K351" s="31"/>
       <c r="M351" s="31"/>
     </row>
     <row r="352">
@@ -3775,6 +4141,7 @@
       <c r="F352" s="31"/>
       <c r="I352" s="31"/>
       <c r="J352" s="31"/>
+      <c r="K352" s="31"/>
       <c r="M352" s="31"/>
     </row>
     <row r="353">
@@ -3782,6 +4149,7 @@
       <c r="F353" s="31"/>
       <c r="I353" s="31"/>
       <c r="J353" s="31"/>
+      <c r="K353" s="31"/>
       <c r="M353" s="31"/>
     </row>
     <row r="354">
@@ -3789,6 +4157,7 @@
       <c r="F354" s="31"/>
       <c r="I354" s="31"/>
       <c r="J354" s="31"/>
+      <c r="K354" s="31"/>
       <c r="M354" s="31"/>
     </row>
     <row r="355">
@@ -3796,6 +4165,7 @@
       <c r="F355" s="31"/>
       <c r="I355" s="31"/>
       <c r="J355" s="31"/>
+      <c r="K355" s="31"/>
       <c r="M355" s="31"/>
     </row>
     <row r="356">
@@ -3803,6 +4173,7 @@
       <c r="F356" s="31"/>
       <c r="I356" s="31"/>
       <c r="J356" s="31"/>
+      <c r="K356" s="31"/>
       <c r="M356" s="31"/>
     </row>
     <row r="357">
@@ -3810,6 +4181,7 @@
       <c r="F357" s="31"/>
       <c r="I357" s="31"/>
       <c r="J357" s="31"/>
+      <c r="K357" s="31"/>
       <c r="M357" s="31"/>
     </row>
     <row r="358">
@@ -3817,6 +4189,7 @@
       <c r="F358" s="31"/>
       <c r="I358" s="31"/>
       <c r="J358" s="31"/>
+      <c r="K358" s="31"/>
       <c r="M358" s="31"/>
     </row>
     <row r="359">
@@ -3824,6 +4197,7 @@
       <c r="F359" s="31"/>
       <c r="I359" s="31"/>
       <c r="J359" s="31"/>
+      <c r="K359" s="31"/>
       <c r="M359" s="31"/>
     </row>
     <row r="360">
@@ -3831,6 +4205,7 @@
       <c r="F360" s="31"/>
       <c r="I360" s="31"/>
       <c r="J360" s="31"/>
+      <c r="K360" s="31"/>
       <c r="M360" s="31"/>
     </row>
     <row r="361">
@@ -3838,6 +4213,7 @@
       <c r="F361" s="31"/>
       <c r="I361" s="31"/>
       <c r="J361" s="31"/>
+      <c r="K361" s="31"/>
       <c r="M361" s="31"/>
     </row>
     <row r="362">
@@ -3845,6 +4221,7 @@
       <c r="F362" s="31"/>
       <c r="I362" s="31"/>
       <c r="J362" s="31"/>
+      <c r="K362" s="31"/>
       <c r="M362" s="31"/>
     </row>
     <row r="363">
@@ -3852,6 +4229,7 @@
       <c r="F363" s="31"/>
       <c r="I363" s="31"/>
       <c r="J363" s="31"/>
+      <c r="K363" s="31"/>
       <c r="M363" s="31"/>
     </row>
     <row r="364">
@@ -3859,6 +4237,7 @@
       <c r="F364" s="31"/>
       <c r="I364" s="31"/>
       <c r="J364" s="31"/>
+      <c r="K364" s="31"/>
       <c r="M364" s="31"/>
     </row>
     <row r="365">
@@ -3866,6 +4245,7 @@
       <c r="F365" s="31"/>
       <c r="I365" s="31"/>
       <c r="J365" s="31"/>
+      <c r="K365" s="31"/>
       <c r="M365" s="31"/>
     </row>
     <row r="366">
@@ -3873,6 +4253,7 @@
       <c r="F366" s="31"/>
       <c r="I366" s="31"/>
       <c r="J366" s="31"/>
+      <c r="K366" s="31"/>
       <c r="M366" s="31"/>
     </row>
     <row r="367">
@@ -3880,6 +4261,7 @@
       <c r="F367" s="31"/>
       <c r="I367" s="31"/>
       <c r="J367" s="31"/>
+      <c r="K367" s="31"/>
       <c r="M367" s="31"/>
     </row>
     <row r="368">
@@ -3887,6 +4269,7 @@
       <c r="F368" s="31"/>
       <c r="I368" s="31"/>
       <c r="J368" s="31"/>
+      <c r="K368" s="31"/>
       <c r="M368" s="31"/>
     </row>
     <row r="369">
@@ -3894,6 +4277,7 @@
       <c r="F369" s="31"/>
       <c r="I369" s="31"/>
       <c r="J369" s="31"/>
+      <c r="K369" s="31"/>
       <c r="M369" s="31"/>
     </row>
     <row r="370">
@@ -3901,6 +4285,7 @@
       <c r="F370" s="31"/>
       <c r="I370" s="31"/>
       <c r="J370" s="31"/>
+      <c r="K370" s="31"/>
       <c r="M370" s="31"/>
     </row>
     <row r="371">
@@ -3908,6 +4293,7 @@
       <c r="F371" s="31"/>
       <c r="I371" s="31"/>
       <c r="J371" s="31"/>
+      <c r="K371" s="31"/>
       <c r="M371" s="31"/>
     </row>
     <row r="372">
@@ -3915,6 +4301,7 @@
       <c r="F372" s="31"/>
       <c r="I372" s="31"/>
       <c r="J372" s="31"/>
+      <c r="K372" s="31"/>
       <c r="M372" s="31"/>
     </row>
     <row r="373">
@@ -3922,6 +4309,7 @@
       <c r="F373" s="31"/>
       <c r="I373" s="31"/>
       <c r="J373" s="31"/>
+      <c r="K373" s="31"/>
       <c r="M373" s="31"/>
     </row>
     <row r="374">
@@ -3929,6 +4317,7 @@
       <c r="F374" s="31"/>
       <c r="I374" s="31"/>
       <c r="J374" s="31"/>
+      <c r="K374" s="31"/>
       <c r="M374" s="31"/>
     </row>
     <row r="375">
@@ -3936,6 +4325,7 @@
       <c r="F375" s="31"/>
       <c r="I375" s="31"/>
       <c r="J375" s="31"/>
+      <c r="K375" s="31"/>
       <c r="M375" s="31"/>
     </row>
     <row r="376">
@@ -3943,6 +4333,7 @@
       <c r="F376" s="31"/>
       <c r="I376" s="31"/>
       <c r="J376" s="31"/>
+      <c r="K376" s="31"/>
       <c r="M376" s="31"/>
     </row>
     <row r="377">
@@ -3950,6 +4341,7 @@
       <c r="F377" s="31"/>
       <c r="I377" s="31"/>
       <c r="J377" s="31"/>
+      <c r="K377" s="31"/>
       <c r="M377" s="31"/>
     </row>
     <row r="378">
@@ -3957,6 +4349,7 @@
       <c r="F378" s="31"/>
       <c r="I378" s="31"/>
       <c r="J378" s="31"/>
+      <c r="K378" s="31"/>
       <c r="M378" s="31"/>
     </row>
     <row r="379">
@@ -3964,6 +4357,7 @@
       <c r="F379" s="31"/>
       <c r="I379" s="31"/>
       <c r="J379" s="31"/>
+      <c r="K379" s="31"/>
       <c r="M379" s="31"/>
     </row>
     <row r="380">
@@ -3971,6 +4365,7 @@
       <c r="F380" s="31"/>
       <c r="I380" s="31"/>
       <c r="J380" s="31"/>
+      <c r="K380" s="31"/>
       <c r="M380" s="31"/>
     </row>
     <row r="381">
@@ -3978,6 +4373,7 @@
       <c r="F381" s="31"/>
       <c r="I381" s="31"/>
       <c r="J381" s="31"/>
+      <c r="K381" s="31"/>
       <c r="M381" s="31"/>
     </row>
     <row r="382">
@@ -3985,6 +4381,7 @@
       <c r="F382" s="31"/>
       <c r="I382" s="31"/>
       <c r="J382" s="31"/>
+      <c r="K382" s="31"/>
       <c r="M382" s="31"/>
     </row>
     <row r="383">
@@ -3992,6 +4389,7 @@
       <c r="F383" s="31"/>
       <c r="I383" s="31"/>
       <c r="J383" s="31"/>
+      <c r="K383" s="31"/>
       <c r="M383" s="31"/>
     </row>
     <row r="384">
@@ -3999,6 +4397,7 @@
       <c r="F384" s="31"/>
       <c r="I384" s="31"/>
       <c r="J384" s="31"/>
+      <c r="K384" s="31"/>
       <c r="M384" s="31"/>
     </row>
     <row r="385">
@@ -4006,6 +4405,7 @@
       <c r="F385" s="31"/>
       <c r="I385" s="31"/>
       <c r="J385" s="31"/>
+      <c r="K385" s="31"/>
       <c r="M385" s="31"/>
     </row>
     <row r="386">
@@ -4013,6 +4413,7 @@
       <c r="F386" s="31"/>
       <c r="I386" s="31"/>
       <c r="J386" s="31"/>
+      <c r="K386" s="31"/>
       <c r="M386" s="31"/>
     </row>
     <row r="387">
@@ -4020,6 +4421,7 @@
       <c r="F387" s="31"/>
       <c r="I387" s="31"/>
       <c r="J387" s="31"/>
+      <c r="K387" s="31"/>
       <c r="M387" s="31"/>
     </row>
     <row r="388">
@@ -4027,6 +4429,7 @@
       <c r="F388" s="31"/>
       <c r="I388" s="31"/>
       <c r="J388" s="31"/>
+      <c r="K388" s="31"/>
       <c r="M388" s="31"/>
     </row>
     <row r="389">
@@ -4034,6 +4437,7 @@
       <c r="F389" s="31"/>
       <c r="I389" s="31"/>
       <c r="J389" s="31"/>
+      <c r="K389" s="31"/>
       <c r="M389" s="31"/>
     </row>
     <row r="390">
@@ -4041,6 +4445,7 @@
       <c r="F390" s="31"/>
       <c r="I390" s="31"/>
       <c r="J390" s="31"/>
+      <c r="K390" s="31"/>
       <c r="M390" s="31"/>
     </row>
     <row r="391">
@@ -4048,6 +4453,7 @@
       <c r="F391" s="31"/>
       <c r="I391" s="31"/>
       <c r="J391" s="31"/>
+      <c r="K391" s="31"/>
       <c r="M391" s="31"/>
     </row>
     <row r="392">
@@ -4055,6 +4461,7 @@
       <c r="F392" s="31"/>
       <c r="I392" s="31"/>
       <c r="J392" s="31"/>
+      <c r="K392" s="31"/>
       <c r="M392" s="31"/>
     </row>
     <row r="393">
@@ -4062,6 +4469,7 @@
       <c r="F393" s="31"/>
       <c r="I393" s="31"/>
       <c r="J393" s="31"/>
+      <c r="K393" s="31"/>
       <c r="M393" s="31"/>
     </row>
     <row r="394">
@@ -4069,6 +4477,7 @@
       <c r="F394" s="31"/>
       <c r="I394" s="31"/>
       <c r="J394" s="31"/>
+      <c r="K394" s="31"/>
       <c r="M394" s="31"/>
     </row>
     <row r="395">
@@ -4076,6 +4485,7 @@
       <c r="F395" s="31"/>
       <c r="I395" s="31"/>
       <c r="J395" s="31"/>
+      <c r="K395" s="31"/>
       <c r="M395" s="31"/>
     </row>
     <row r="396">
@@ -4083,6 +4493,7 @@
       <c r="F396" s="31"/>
       <c r="I396" s="31"/>
       <c r="J396" s="31"/>
+      <c r="K396" s="31"/>
       <c r="M396" s="31"/>
     </row>
     <row r="397">
@@ -4090,6 +4501,7 @@
       <c r="F397" s="31"/>
       <c r="I397" s="31"/>
       <c r="J397" s="31"/>
+      <c r="K397" s="31"/>
       <c r="M397" s="31"/>
     </row>
     <row r="398">
@@ -4097,6 +4509,7 @@
       <c r="F398" s="31"/>
       <c r="I398" s="31"/>
       <c r="J398" s="31"/>
+      <c r="K398" s="31"/>
       <c r="M398" s="31"/>
     </row>
     <row r="399">
@@ -4104,6 +4517,7 @@
       <c r="F399" s="31"/>
       <c r="I399" s="31"/>
       <c r="J399" s="31"/>
+      <c r="K399" s="31"/>
       <c r="M399" s="31"/>
     </row>
     <row r="400">
@@ -4111,6 +4525,7 @@
       <c r="F400" s="31"/>
       <c r="I400" s="31"/>
       <c r="J400" s="31"/>
+      <c r="K400" s="31"/>
       <c r="M400" s="31"/>
     </row>
     <row r="401">
@@ -4118,6 +4533,7 @@
       <c r="F401" s="31"/>
       <c r="I401" s="31"/>
       <c r="J401" s="31"/>
+      <c r="K401" s="31"/>
       <c r="M401" s="31"/>
     </row>
     <row r="402">
@@ -4125,6 +4541,7 @@
       <c r="F402" s="31"/>
       <c r="I402" s="31"/>
       <c r="J402" s="31"/>
+      <c r="K402" s="31"/>
       <c r="M402" s="31"/>
     </row>
     <row r="403">
@@ -4132,6 +4549,7 @@
       <c r="F403" s="31"/>
       <c r="I403" s="31"/>
       <c r="J403" s="31"/>
+      <c r="K403" s="31"/>
       <c r="M403" s="31"/>
     </row>
     <row r="404">
@@ -4139,6 +4557,7 @@
       <c r="F404" s="31"/>
       <c r="I404" s="31"/>
       <c r="J404" s="31"/>
+      <c r="K404" s="31"/>
       <c r="M404" s="31"/>
     </row>
     <row r="405">
@@ -4146,6 +4565,7 @@
       <c r="F405" s="31"/>
       <c r="I405" s="31"/>
       <c r="J405" s="31"/>
+      <c r="K405" s="31"/>
       <c r="M405" s="31"/>
     </row>
     <row r="406">
@@ -4153,6 +4573,7 @@
       <c r="F406" s="31"/>
       <c r="I406" s="31"/>
       <c r="J406" s="31"/>
+      <c r="K406" s="31"/>
       <c r="M406" s="31"/>
     </row>
     <row r="407">
@@ -4160,6 +4581,7 @@
       <c r="F407" s="31"/>
       <c r="I407" s="31"/>
       <c r="J407" s="31"/>
+      <c r="K407" s="31"/>
       <c r="M407" s="31"/>
     </row>
     <row r="408">
@@ -4167,6 +4589,7 @@
       <c r="F408" s="31"/>
       <c r="I408" s="31"/>
       <c r="J408" s="31"/>
+      <c r="K408" s="31"/>
       <c r="M408" s="31"/>
     </row>
     <row r="409">
@@ -4174,6 +4597,7 @@
       <c r="F409" s="31"/>
       <c r="I409" s="31"/>
       <c r="J409" s="31"/>
+      <c r="K409" s="31"/>
       <c r="M409" s="31"/>
     </row>
     <row r="410">
@@ -4181,6 +4605,7 @@
       <c r="F410" s="31"/>
       <c r="I410" s="31"/>
       <c r="J410" s="31"/>
+      <c r="K410" s="31"/>
       <c r="M410" s="31"/>
     </row>
     <row r="411">
@@ -4188,6 +4613,7 @@
       <c r="F411" s="31"/>
       <c r="I411" s="31"/>
       <c r="J411" s="31"/>
+      <c r="K411" s="31"/>
       <c r="M411" s="31"/>
     </row>
     <row r="412">
@@ -4195,6 +4621,7 @@
       <c r="F412" s="31"/>
       <c r="I412" s="31"/>
       <c r="J412" s="31"/>
+      <c r="K412" s="31"/>
       <c r="M412" s="31"/>
     </row>
     <row r="413">
@@ -4202,6 +4629,7 @@
       <c r="F413" s="31"/>
       <c r="I413" s="31"/>
       <c r="J413" s="31"/>
+      <c r="K413" s="31"/>
       <c r="M413" s="31"/>
     </row>
     <row r="414">
@@ -4209,6 +4637,7 @@
       <c r="F414" s="31"/>
       <c r="I414" s="31"/>
       <c r="J414" s="31"/>
+      <c r="K414" s="31"/>
       <c r="M414" s="31"/>
     </row>
     <row r="415">
@@ -4216,6 +4645,7 @@
       <c r="F415" s="31"/>
       <c r="I415" s="31"/>
       <c r="J415" s="31"/>
+      <c r="K415" s="31"/>
       <c r="M415" s="31"/>
     </row>
     <row r="416">
@@ -4223,6 +4653,7 @@
       <c r="F416" s="31"/>
       <c r="I416" s="31"/>
       <c r="J416" s="31"/>
+      <c r="K416" s="31"/>
       <c r="M416" s="31"/>
     </row>
     <row r="417">
@@ -4230,6 +4661,7 @@
       <c r="F417" s="31"/>
       <c r="I417" s="31"/>
       <c r="J417" s="31"/>
+      <c r="K417" s="31"/>
       <c r="M417" s="31"/>
     </row>
     <row r="418">
@@ -4237,6 +4669,7 @@
       <c r="F418" s="31"/>
       <c r="I418" s="31"/>
       <c r="J418" s="31"/>
+      <c r="K418" s="31"/>
       <c r="M418" s="31"/>
     </row>
     <row r="419">
@@ -4244,6 +4677,7 @@
       <c r="F419" s="31"/>
       <c r="I419" s="31"/>
       <c r="J419" s="31"/>
+      <c r="K419" s="31"/>
       <c r="M419" s="31"/>
     </row>
     <row r="420">
@@ -4251,6 +4685,7 @@
       <c r="F420" s="31"/>
       <c r="I420" s="31"/>
       <c r="J420" s="31"/>
+      <c r="K420" s="31"/>
       <c r="M420" s="31"/>
     </row>
     <row r="421">
@@ -4258,6 +4693,7 @@
       <c r="F421" s="31"/>
       <c r="I421" s="31"/>
       <c r="J421" s="31"/>
+      <c r="K421" s="31"/>
       <c r="M421" s="31"/>
     </row>
     <row r="422">
@@ -4265,6 +4701,7 @@
       <c r="F422" s="31"/>
       <c r="I422" s="31"/>
       <c r="J422" s="31"/>
+      <c r="K422" s="31"/>
       <c r="M422" s="31"/>
     </row>
     <row r="423">
@@ -4272,6 +4709,7 @@
       <c r="F423" s="31"/>
       <c r="I423" s="31"/>
       <c r="J423" s="31"/>
+      <c r="K423" s="31"/>
       <c r="M423" s="31"/>
     </row>
     <row r="424">
@@ -4279,6 +4717,7 @@
       <c r="F424" s="31"/>
       <c r="I424" s="31"/>
       <c r="J424" s="31"/>
+      <c r="K424" s="31"/>
       <c r="M424" s="31"/>
     </row>
     <row r="425">
@@ -4286,6 +4725,7 @@
       <c r="F425" s="31"/>
       <c r="I425" s="31"/>
       <c r="J425" s="31"/>
+      <c r="K425" s="31"/>
       <c r="M425" s="31"/>
     </row>
     <row r="426">
@@ -4293,6 +4733,7 @@
       <c r="F426" s="31"/>
       <c r="I426" s="31"/>
       <c r="J426" s="31"/>
+      <c r="K426" s="31"/>
       <c r="M426" s="31"/>
     </row>
     <row r="427">
@@ -4300,6 +4741,7 @@
       <c r="F427" s="31"/>
       <c r="I427" s="31"/>
       <c r="J427" s="31"/>
+      <c r="K427" s="31"/>
       <c r="M427" s="31"/>
     </row>
     <row r="428">
@@ -4307,6 +4749,7 @@
       <c r="F428" s="31"/>
       <c r="I428" s="31"/>
       <c r="J428" s="31"/>
+      <c r="K428" s="31"/>
       <c r="M428" s="31"/>
     </row>
     <row r="429">
@@ -4314,6 +4757,7 @@
       <c r="F429" s="31"/>
       <c r="I429" s="31"/>
       <c r="J429" s="31"/>
+      <c r="K429" s="31"/>
       <c r="M429" s="31"/>
     </row>
     <row r="430">
@@ -4321,6 +4765,7 @@
       <c r="F430" s="31"/>
       <c r="I430" s="31"/>
       <c r="J430" s="31"/>
+      <c r="K430" s="31"/>
       <c r="M430" s="31"/>
     </row>
     <row r="431">
@@ -4328,6 +4773,7 @@
       <c r="F431" s="31"/>
       <c r="I431" s="31"/>
       <c r="J431" s="31"/>
+      <c r="K431" s="31"/>
       <c r="M431" s="31"/>
     </row>
     <row r="432">
@@ -4335,6 +4781,7 @@
       <c r="F432" s="31"/>
       <c r="I432" s="31"/>
       <c r="J432" s="31"/>
+      <c r="K432" s="31"/>
       <c r="M432" s="31"/>
     </row>
     <row r="433">
@@ -4342,6 +4789,7 @@
       <c r="F433" s="31"/>
       <c r="I433" s="31"/>
       <c r="J433" s="31"/>
+      <c r="K433" s="31"/>
       <c r="M433" s="31"/>
     </row>
     <row r="434">
@@ -4349,6 +4797,7 @@
       <c r="F434" s="31"/>
       <c r="I434" s="31"/>
       <c r="J434" s="31"/>
+      <c r="K434" s="31"/>
       <c r="M434" s="31"/>
     </row>
     <row r="435">
@@ -4356,6 +4805,7 @@
       <c r="F435" s="31"/>
       <c r="I435" s="31"/>
       <c r="J435" s="31"/>
+      <c r="K435" s="31"/>
       <c r="M435" s="31"/>
     </row>
     <row r="436">
@@ -4363,6 +4813,7 @@
       <c r="F436" s="31"/>
       <c r="I436" s="31"/>
       <c r="J436" s="31"/>
+      <c r="K436" s="31"/>
       <c r="M436" s="31"/>
     </row>
     <row r="437">
@@ -4370,6 +4821,7 @@
       <c r="F437" s="31"/>
       <c r="I437" s="31"/>
       <c r="J437" s="31"/>
+      <c r="K437" s="31"/>
       <c r="M437" s="31"/>
     </row>
     <row r="438">
@@ -4377,6 +4829,7 @@
       <c r="F438" s="31"/>
       <c r="I438" s="31"/>
       <c r="J438" s="31"/>
+      <c r="K438" s="31"/>
       <c r="M438" s="31"/>
     </row>
     <row r="439">
@@ -4384,6 +4837,7 @@
       <c r="F439" s="31"/>
       <c r="I439" s="31"/>
       <c r="J439" s="31"/>
+      <c r="K439" s="31"/>
       <c r="M439" s="31"/>
     </row>
     <row r="440">
@@ -4391,6 +4845,7 @@
       <c r="F440" s="31"/>
       <c r="I440" s="31"/>
       <c r="J440" s="31"/>
+      <c r="K440" s="31"/>
       <c r="M440" s="31"/>
     </row>
     <row r="441">
@@ -4398,6 +4853,7 @@
       <c r="F441" s="31"/>
       <c r="I441" s="31"/>
       <c r="J441" s="31"/>
+      <c r="K441" s="31"/>
       <c r="M441" s="31"/>
     </row>
     <row r="442">
@@ -4405,6 +4861,7 @@
       <c r="F442" s="31"/>
       <c r="I442" s="31"/>
       <c r="J442" s="31"/>
+      <c r="K442" s="31"/>
       <c r="M442" s="31"/>
     </row>
     <row r="443">
@@ -4412,6 +4869,7 @@
       <c r="F443" s="31"/>
       <c r="I443" s="31"/>
       <c r="J443" s="31"/>
+      <c r="K443" s="31"/>
       <c r="M443" s="31"/>
     </row>
     <row r="444">
@@ -4419,6 +4877,7 @@
       <c r="F444" s="31"/>
       <c r="I444" s="31"/>
       <c r="J444" s="31"/>
+      <c r="K444" s="31"/>
       <c r="M444" s="31"/>
     </row>
     <row r="445">
@@ -4426,6 +4885,7 @@
       <c r="F445" s="31"/>
       <c r="I445" s="31"/>
       <c r="J445" s="31"/>
+      <c r="K445" s="31"/>
       <c r="M445" s="31"/>
     </row>
     <row r="446">
@@ -4433,6 +4893,7 @@
       <c r="F446" s="31"/>
       <c r="I446" s="31"/>
       <c r="J446" s="31"/>
+      <c r="K446" s="31"/>
       <c r="M446" s="31"/>
     </row>
     <row r="447">
@@ -4440,6 +4901,7 @@
       <c r="F447" s="31"/>
       <c r="I447" s="31"/>
       <c r="J447" s="31"/>
+      <c r="K447" s="31"/>
       <c r="M447" s="31"/>
     </row>
     <row r="448">
@@ -4447,6 +4909,7 @@
       <c r="F448" s="31"/>
       <c r="I448" s="31"/>
       <c r="J448" s="31"/>
+      <c r="K448" s="31"/>
       <c r="M448" s="31"/>
     </row>
     <row r="449">
@@ -4454,6 +4917,7 @@
       <c r="F449" s="31"/>
       <c r="I449" s="31"/>
       <c r="J449" s="31"/>
+      <c r="K449" s="31"/>
       <c r="M449" s="31"/>
     </row>
     <row r="450">
@@ -4461,6 +4925,7 @@
       <c r="F450" s="31"/>
       <c r="I450" s="31"/>
       <c r="J450" s="31"/>
+      <c r="K450" s="31"/>
       <c r="M450" s="31"/>
     </row>
     <row r="451">
@@ -4468,6 +4933,7 @@
       <c r="F451" s="31"/>
       <c r="I451" s="31"/>
       <c r="J451" s="31"/>
+      <c r="K451" s="31"/>
       <c r="M451" s="31"/>
     </row>
     <row r="452">
@@ -4475,6 +4941,7 @@
       <c r="F452" s="31"/>
       <c r="I452" s="31"/>
       <c r="J452" s="31"/>
+      <c r="K452" s="31"/>
       <c r="M452" s="31"/>
     </row>
     <row r="453">
@@ -4482,6 +4949,7 @@
       <c r="F453" s="31"/>
       <c r="I453" s="31"/>
       <c r="J453" s="31"/>
+      <c r="K453" s="31"/>
       <c r="M453" s="31"/>
     </row>
     <row r="454">
@@ -4489,6 +4957,7 @@
       <c r="F454" s="31"/>
       <c r="I454" s="31"/>
       <c r="J454" s="31"/>
+      <c r="K454" s="31"/>
       <c r="M454" s="31"/>
     </row>
     <row r="455">
@@ -4496,6 +4965,7 @@
       <c r="F455" s="31"/>
       <c r="I455" s="31"/>
       <c r="J455" s="31"/>
+      <c r="K455" s="31"/>
       <c r="M455" s="31"/>
     </row>
     <row r="456">
@@ -4503,6 +4973,7 @@
       <c r="F456" s="31"/>
       <c r="I456" s="31"/>
       <c r="J456" s="31"/>
+      <c r="K456" s="31"/>
       <c r="M456" s="31"/>
     </row>
     <row r="457">
@@ -4510,6 +4981,7 @@
       <c r="F457" s="31"/>
       <c r="I457" s="31"/>
       <c r="J457" s="31"/>
+      <c r="K457" s="31"/>
       <c r="M457" s="31"/>
     </row>
     <row r="458">
@@ -4517,6 +4989,7 @@
       <c r="F458" s="31"/>
       <c r="I458" s="31"/>
       <c r="J458" s="31"/>
+      <c r="K458" s="31"/>
       <c r="M458" s="31"/>
     </row>
     <row r="459">
@@ -4524,6 +4997,7 @@
       <c r="F459" s="31"/>
       <c r="I459" s="31"/>
       <c r="J459" s="31"/>
+      <c r="K459" s="31"/>
       <c r="M459" s="31"/>
     </row>
     <row r="460">
@@ -4531,6 +5005,7 @@
       <c r="F460" s="31"/>
       <c r="I460" s="31"/>
       <c r="J460" s="31"/>
+      <c r="K460" s="31"/>
       <c r="M460" s="31"/>
     </row>
     <row r="461">
@@ -4538,6 +5013,7 @@
       <c r="F461" s="31"/>
       <c r="I461" s="31"/>
       <c r="J461" s="31"/>
+      <c r="K461" s="31"/>
       <c r="M461" s="31"/>
     </row>
     <row r="462">
@@ -4545,6 +5021,7 @@
       <c r="F462" s="31"/>
       <c r="I462" s="31"/>
       <c r="J462" s="31"/>
+      <c r="K462" s="31"/>
       <c r="M462" s="31"/>
     </row>
     <row r="463">
@@ -4552,6 +5029,7 @@
       <c r="F463" s="31"/>
       <c r="I463" s="31"/>
       <c r="J463" s="31"/>
+      <c r="K463" s="31"/>
       <c r="M463" s="31"/>
     </row>
     <row r="464">
@@ -4559,6 +5037,7 @@
       <c r="F464" s="31"/>
       <c r="I464" s="31"/>
       <c r="J464" s="31"/>
+      <c r="K464" s="31"/>
       <c r="M464" s="31"/>
     </row>
     <row r="465">
@@ -4566,6 +5045,7 @@
       <c r="F465" s="31"/>
       <c r="I465" s="31"/>
       <c r="J465" s="31"/>
+      <c r="K465" s="31"/>
       <c r="M465" s="31"/>
     </row>
     <row r="466">
@@ -4573,6 +5053,7 @@
       <c r="F466" s="31"/>
       <c r="I466" s="31"/>
       <c r="J466" s="31"/>
+      <c r="K466" s="31"/>
       <c r="M466" s="31"/>
     </row>
     <row r="467">
@@ -4580,6 +5061,7 @@
       <c r="F467" s="31"/>
       <c r="I467" s="31"/>
       <c r="J467" s="31"/>
+      <c r="K467" s="31"/>
       <c r="M467" s="31"/>
     </row>
     <row r="468">
@@ -4587,6 +5069,7 @@
       <c r="F468" s="31"/>
       <c r="I468" s="31"/>
       <c r="J468" s="31"/>
+      <c r="K468" s="31"/>
       <c r="M468" s="31"/>
     </row>
     <row r="469">
@@ -4594,6 +5077,7 @@
       <c r="F469" s="31"/>
       <c r="I469" s="31"/>
       <c r="J469" s="31"/>
+      <c r="K469" s="31"/>
       <c r="M469" s="31"/>
     </row>
     <row r="470">
@@ -4601,6 +5085,7 @@
       <c r="F470" s="31"/>
       <c r="I470" s="31"/>
       <c r="J470" s="31"/>
+      <c r="K470" s="31"/>
       <c r="M470" s="31"/>
     </row>
     <row r="471">
@@ -4608,6 +5093,7 @@
       <c r="F471" s="31"/>
       <c r="I471" s="31"/>
       <c r="J471" s="31"/>
+      <c r="K471" s="31"/>
       <c r="M471" s="31"/>
     </row>
     <row r="472">
@@ -4615,6 +5101,7 @@
       <c r="F472" s="31"/>
       <c r="I472" s="31"/>
       <c r="J472" s="31"/>
+      <c r="K472" s="31"/>
       <c r="M472" s="31"/>
     </row>
     <row r="473">
@@ -4622,6 +5109,7 @@
       <c r="F473" s="31"/>
       <c r="I473" s="31"/>
       <c r="J473" s="31"/>
+      <c r="K473" s="31"/>
       <c r="M473" s="31"/>
     </row>
     <row r="474">
@@ -4629,6 +5117,7 @@
       <c r="F474" s="31"/>
       <c r="I474" s="31"/>
       <c r="J474" s="31"/>
+      <c r="K474" s="31"/>
       <c r="M474" s="31"/>
     </row>
     <row r="475">
@@ -4636,6 +5125,7 @@
       <c r="F475" s="31"/>
       <c r="I475" s="31"/>
       <c r="J475" s="31"/>
+      <c r="K475" s="31"/>
       <c r="M475" s="31"/>
     </row>
     <row r="476">
@@ -4643,6 +5133,7 @@
       <c r="F476" s="31"/>
       <c r="I476" s="31"/>
       <c r="J476" s="31"/>
+      <c r="K476" s="31"/>
       <c r="M476" s="31"/>
     </row>
     <row r="477">
@@ -4650,6 +5141,7 @@
       <c r="F477" s="31"/>
       <c r="I477" s="31"/>
       <c r="J477" s="31"/>
+      <c r="K477" s="31"/>
       <c r="M477" s="31"/>
     </row>
     <row r="478">
@@ -4657,6 +5149,7 @@
       <c r="F478" s="31"/>
       <c r="I478" s="31"/>
       <c r="J478" s="31"/>
+      <c r="K478" s="31"/>
       <c r="M478" s="31"/>
     </row>
     <row r="479">
@@ -4664,6 +5157,7 @@
       <c r="F479" s="31"/>
       <c r="I479" s="31"/>
       <c r="J479" s="31"/>
+      <c r="K479" s="31"/>
       <c r="M479" s="31"/>
     </row>
     <row r="480">
@@ -4671,6 +5165,7 @@
       <c r="F480" s="31"/>
       <c r="I480" s="31"/>
       <c r="J480" s="31"/>
+      <c r="K480" s="31"/>
       <c r="M480" s="31"/>
     </row>
     <row r="481">
@@ -4678,6 +5173,7 @@
       <c r="F481" s="31"/>
       <c r="I481" s="31"/>
       <c r="J481" s="31"/>
+      <c r="K481" s="31"/>
       <c r="M481" s="31"/>
     </row>
     <row r="482">
@@ -4685,6 +5181,7 @@
       <c r="F482" s="31"/>
       <c r="I482" s="31"/>
       <c r="J482" s="31"/>
+      <c r="K482" s="31"/>
       <c r="M482" s="31"/>
     </row>
     <row r="483">
@@ -4692,6 +5189,7 @@
       <c r="F483" s="31"/>
       <c r="I483" s="31"/>
       <c r="J483" s="31"/>
+      <c r="K483" s="31"/>
       <c r="M483" s="31"/>
     </row>
     <row r="484">
@@ -4699,6 +5197,7 @@
       <c r="F484" s="31"/>
       <c r="I484" s="31"/>
       <c r="J484" s="31"/>
+      <c r="K484" s="31"/>
       <c r="M484" s="31"/>
     </row>
     <row r="485">
@@ -4706,6 +5205,7 @@
       <c r="F485" s="31"/>
       <c r="I485" s="31"/>
       <c r="J485" s="31"/>
+      <c r="K485" s="31"/>
       <c r="M485" s="31"/>
     </row>
     <row r="486">
@@ -4713,6 +5213,7 @@
       <c r="F486" s="31"/>
       <c r="I486" s="31"/>
       <c r="J486" s="31"/>
+      <c r="K486" s="31"/>
       <c r="M486" s="31"/>
     </row>
     <row r="487">
@@ -4720,6 +5221,7 @@
       <c r="F487" s="31"/>
       <c r="I487" s="31"/>
       <c r="J487" s="31"/>
+      <c r="K487" s="31"/>
       <c r="M487" s="31"/>
     </row>
     <row r="488">
@@ -4727,6 +5229,7 @@
       <c r="F488" s="31"/>
       <c r="I488" s="31"/>
       <c r="J488" s="31"/>
+      <c r="K488" s="31"/>
       <c r="M488" s="31"/>
     </row>
     <row r="489">
@@ -4734,6 +5237,7 @@
       <c r="F489" s="31"/>
       <c r="I489" s="31"/>
       <c r="J489" s="31"/>
+      <c r="K489" s="31"/>
       <c r="M489" s="31"/>
     </row>
     <row r="490">
@@ -4741,6 +5245,7 @@
       <c r="F490" s="31"/>
       <c r="I490" s="31"/>
       <c r="J490" s="31"/>
+      <c r="K490" s="31"/>
       <c r="M490" s="31"/>
     </row>
     <row r="491">
@@ -4748,6 +5253,7 @@
       <c r="F491" s="31"/>
       <c r="I491" s="31"/>
       <c r="J491" s="31"/>
+      <c r="K491" s="31"/>
       <c r="M491" s="31"/>
     </row>
     <row r="492">
@@ -4755,6 +5261,7 @@
       <c r="F492" s="31"/>
       <c r="I492" s="31"/>
       <c r="J492" s="31"/>
+      <c r="K492" s="31"/>
       <c r="M492" s="31"/>
     </row>
     <row r="493">
@@ -4762,6 +5269,7 @@
       <c r="F493" s="31"/>
       <c r="I493" s="31"/>
       <c r="J493" s="31"/>
+      <c r="K493" s="31"/>
       <c r="M493" s="31"/>
     </row>
     <row r="494">
@@ -4769,6 +5277,7 @@
       <c r="F494" s="31"/>
       <c r="I494" s="31"/>
       <c r="J494" s="31"/>
+      <c r="K494" s="31"/>
       <c r="M494" s="31"/>
     </row>
     <row r="495">
@@ -4776,6 +5285,7 @@
       <c r="F495" s="31"/>
       <c r="I495" s="31"/>
       <c r="J495" s="31"/>
+      <c r="K495" s="31"/>
       <c r="M495" s="31"/>
     </row>
     <row r="496">
@@ -4783,6 +5293,7 @@
       <c r="F496" s="31"/>
       <c r="I496" s="31"/>
       <c r="J496" s="31"/>
+      <c r="K496" s="31"/>
       <c r="M496" s="31"/>
     </row>
     <row r="497">
@@ -4790,6 +5301,7 @@
       <c r="F497" s="31"/>
       <c r="I497" s="31"/>
       <c r="J497" s="31"/>
+      <c r="K497" s="31"/>
       <c r="M497" s="31"/>
     </row>
     <row r="498">
@@ -4797,6 +5309,7 @@
       <c r="F498" s="31"/>
       <c r="I498" s="31"/>
       <c r="J498" s="31"/>
+      <c r="K498" s="31"/>
       <c r="M498" s="31"/>
     </row>
     <row r="499">
@@ -4804,6 +5317,7 @@
       <c r="F499" s="31"/>
       <c r="I499" s="31"/>
       <c r="J499" s="31"/>
+      <c r="K499" s="31"/>
       <c r="M499" s="31"/>
     </row>
     <row r="500">
@@ -4811,6 +5325,7 @@
       <c r="F500" s="31"/>
       <c r="I500" s="31"/>
       <c r="J500" s="31"/>
+      <c r="K500" s="31"/>
       <c r="M500" s="31"/>
     </row>
     <row r="501">
@@ -4818,6 +5333,7 @@
       <c r="F501" s="31"/>
       <c r="I501" s="31"/>
       <c r="J501" s="31"/>
+      <c r="K501" s="31"/>
       <c r="M501" s="31"/>
     </row>
     <row r="502">
@@ -4825,6 +5341,7 @@
       <c r="F502" s="31"/>
       <c r="I502" s="31"/>
       <c r="J502" s="31"/>
+      <c r="K502" s="31"/>
       <c r="M502" s="31"/>
     </row>
     <row r="503">
@@ -4832,6 +5349,7 @@
       <c r="F503" s="31"/>
       <c r="I503" s="31"/>
       <c r="J503" s="31"/>
+      <c r="K503" s="31"/>
       <c r="M503" s="31"/>
     </row>
     <row r="504">
@@ -4839,6 +5357,7 @@
       <c r="F504" s="31"/>
       <c r="I504" s="31"/>
       <c r="J504" s="31"/>
+      <c r="K504" s="31"/>
       <c r="M504" s="31"/>
     </row>
     <row r="505">
@@ -4846,6 +5365,7 @@
       <c r="F505" s="31"/>
       <c r="I505" s="31"/>
       <c r="J505" s="31"/>
+      <c r="K505" s="31"/>
       <c r="M505" s="31"/>
     </row>
     <row r="506">
@@ -4853,6 +5373,7 @@
       <c r="F506" s="31"/>
       <c r="I506" s="31"/>
       <c r="J506" s="31"/>
+      <c r="K506" s="31"/>
       <c r="M506" s="31"/>
     </row>
     <row r="507">
@@ -4860,6 +5381,7 @@
       <c r="F507" s="31"/>
       <c r="I507" s="31"/>
       <c r="J507" s="31"/>
+      <c r="K507" s="31"/>
       <c r="M507" s="31"/>
     </row>
     <row r="508">
@@ -4867,6 +5389,7 @@
       <c r="F508" s="31"/>
       <c r="I508" s="31"/>
       <c r="J508" s="31"/>
+      <c r="K508" s="31"/>
       <c r="M508" s="31"/>
     </row>
     <row r="509">
@@ -4874,6 +5397,7 @@
       <c r="F509" s="31"/>
       <c r="I509" s="31"/>
       <c r="J509" s="31"/>
+      <c r="K509" s="31"/>
       <c r="M509" s="31"/>
     </row>
     <row r="510">
@@ -4881,6 +5405,7 @@
       <c r="F510" s="31"/>
       <c r="I510" s="31"/>
       <c r="J510" s="31"/>
+      <c r="K510" s="31"/>
       <c r="M510" s="31"/>
     </row>
     <row r="511">
@@ -4888,6 +5413,7 @@
       <c r="F511" s="31"/>
       <c r="I511" s="31"/>
       <c r="J511" s="31"/>
+      <c r="K511" s="31"/>
       <c r="M511" s="31"/>
     </row>
     <row r="512">
@@ -4895,6 +5421,7 @@
       <c r="F512" s="31"/>
       <c r="I512" s="31"/>
       <c r="J512" s="31"/>
+      <c r="K512" s="31"/>
       <c r="M512" s="31"/>
     </row>
     <row r="513">
@@ -4902,6 +5429,7 @@
       <c r="F513" s="31"/>
       <c r="I513" s="31"/>
       <c r="J513" s="31"/>
+      <c r="K513" s="31"/>
       <c r="M513" s="31"/>
     </row>
     <row r="514">
@@ -4909,6 +5437,7 @@
       <c r="F514" s="31"/>
       <c r="I514" s="31"/>
       <c r="J514" s="31"/>
+      <c r="K514" s="31"/>
       <c r="M514" s="31"/>
     </row>
     <row r="515">
@@ -4916,6 +5445,7 @@
       <c r="F515" s="31"/>
       <c r="I515" s="31"/>
       <c r="J515" s="31"/>
+      <c r="K515" s="31"/>
       <c r="M515" s="31"/>
     </row>
     <row r="516">
@@ -4923,6 +5453,7 @@
       <c r="F516" s="31"/>
       <c r="I516" s="31"/>
       <c r="J516" s="31"/>
+      <c r="K516" s="31"/>
       <c r="M516" s="31"/>
     </row>
     <row r="517">
@@ -4930,6 +5461,7 @@
       <c r="F517" s="31"/>
       <c r="I517" s="31"/>
       <c r="J517" s="31"/>
+      <c r="K517" s="31"/>
       <c r="M517" s="31"/>
     </row>
     <row r="518">
@@ -4937,6 +5469,7 @@
       <c r="F518" s="31"/>
       <c r="I518" s="31"/>
       <c r="J518" s="31"/>
+      <c r="K518" s="31"/>
       <c r="M518" s="31"/>
     </row>
     <row r="519">
@@ -4944,6 +5477,7 @@
       <c r="F519" s="31"/>
       <c r="I519" s="31"/>
       <c r="J519" s="31"/>
+      <c r="K519" s="31"/>
       <c r="M519" s="31"/>
     </row>
     <row r="520">
@@ -4951,6 +5485,7 @@
       <c r="F520" s="31"/>
       <c r="I520" s="31"/>
       <c r="J520" s="31"/>
+      <c r="K520" s="31"/>
       <c r="M520" s="31"/>
     </row>
     <row r="521">
@@ -4958,6 +5493,7 @@
       <c r="F521" s="31"/>
       <c r="I521" s="31"/>
       <c r="J521" s="31"/>
+      <c r="K521" s="31"/>
       <c r="M521" s="31"/>
     </row>
     <row r="522">
@@ -4965,6 +5501,7 @@
       <c r="F522" s="31"/>
       <c r="I522" s="31"/>
       <c r="J522" s="31"/>
+      <c r="K522" s="31"/>
       <c r="M522" s="31"/>
     </row>
     <row r="523">
@@ -4972,6 +5509,7 @@
       <c r="F523" s="31"/>
       <c r="I523" s="31"/>
       <c r="J523" s="31"/>
+      <c r="K523" s="31"/>
       <c r="M523" s="31"/>
     </row>
     <row r="524">
@@ -4979,6 +5517,7 @@
       <c r="F524" s="31"/>
       <c r="I524" s="31"/>
       <c r="J524" s="31"/>
+      <c r="K524" s="31"/>
       <c r="M524" s="31"/>
     </row>
     <row r="525">
@@ -4986,6 +5525,7 @@
       <c r="F525" s="31"/>
       <c r="I525" s="31"/>
       <c r="J525" s="31"/>
+      <c r="K525" s="31"/>
       <c r="M525" s="31"/>
     </row>
     <row r="526">
@@ -4993,6 +5533,7 @@
       <c r="F526" s="31"/>
       <c r="I526" s="31"/>
       <c r="J526" s="31"/>
+      <c r="K526" s="31"/>
       <c r="M526" s="31"/>
     </row>
     <row r="527">
@@ -5000,6 +5541,7 @@
       <c r="F527" s="31"/>
       <c r="I527" s="31"/>
       <c r="J527" s="31"/>
+      <c r="K527" s="31"/>
       <c r="M527" s="31"/>
     </row>
     <row r="528">
@@ -5007,6 +5549,7 @@
       <c r="F528" s="31"/>
       <c r="I528" s="31"/>
       <c r="J528" s="31"/>
+      <c r="K528" s="31"/>
       <c r="M528" s="31"/>
     </row>
     <row r="529">
@@ -5014,6 +5557,7 @@
       <c r="F529" s="31"/>
       <c r="I529" s="31"/>
       <c r="J529" s="31"/>
+      <c r="K529" s="31"/>
       <c r="M529" s="31"/>
     </row>
     <row r="530">
@@ -5021,6 +5565,7 @@
       <c r="F530" s="31"/>
       <c r="I530" s="31"/>
       <c r="J530" s="31"/>
+      <c r="K530" s="31"/>
       <c r="M530" s="31"/>
     </row>
     <row r="531">
@@ -5028,6 +5573,7 @@
       <c r="F531" s="31"/>
       <c r="I531" s="31"/>
       <c r="J531" s="31"/>
+      <c r="K531" s="31"/>
       <c r="M531" s="31"/>
     </row>
     <row r="532">
@@ -5035,6 +5581,7 @@
       <c r="F532" s="31"/>
       <c r="I532" s="31"/>
       <c r="J532" s="31"/>
+      <c r="K532" s="31"/>
       <c r="M532" s="31"/>
     </row>
     <row r="533">
@@ -5042,6 +5589,7 @@
       <c r="F533" s="31"/>
       <c r="I533" s="31"/>
       <c r="J533" s="31"/>
+      <c r="K533" s="31"/>
       <c r="M533" s="31"/>
     </row>
     <row r="534">
@@ -5049,6 +5597,7 @@
       <c r="F534" s="31"/>
       <c r="I534" s="31"/>
       <c r="J534" s="31"/>
+      <c r="K534" s="31"/>
       <c r="M534" s="31"/>
     </row>
     <row r="535">
@@ -5056,6 +5605,7 @@
       <c r="F535" s="31"/>
       <c r="I535" s="31"/>
       <c r="J535" s="31"/>
+      <c r="K535" s="31"/>
       <c r="M535" s="31"/>
     </row>
     <row r="536">
@@ -5063,6 +5613,7 @@
       <c r="F536" s="31"/>
       <c r="I536" s="31"/>
       <c r="J536" s="31"/>
+      <c r="K536" s="31"/>
       <c r="M536" s="31"/>
     </row>
     <row r="537">
@@ -5070,6 +5621,7 @@
       <c r="F537" s="31"/>
       <c r="I537" s="31"/>
       <c r="J537" s="31"/>
+      <c r="K537" s="31"/>
       <c r="M537" s="31"/>
     </row>
     <row r="538">
@@ -5077,6 +5629,7 @@
       <c r="F538" s="31"/>
       <c r="I538" s="31"/>
       <c r="J538" s="31"/>
+      <c r="K538" s="31"/>
       <c r="M538" s="31"/>
     </row>
     <row r="539">
@@ -5084,6 +5637,7 @@
       <c r="F539" s="31"/>
       <c r="I539" s="31"/>
       <c r="J539" s="31"/>
+      <c r="K539" s="31"/>
       <c r="M539" s="31"/>
     </row>
     <row r="540">
@@ -5091,6 +5645,7 @@
       <c r="F540" s="31"/>
       <c r="I540" s="31"/>
       <c r="J540" s="31"/>
+      <c r="K540" s="31"/>
       <c r="M540" s="31"/>
     </row>
     <row r="541">
@@ -5098,6 +5653,7 @@
       <c r="F541" s="31"/>
       <c r="I541" s="31"/>
       <c r="J541" s="31"/>
+      <c r="K541" s="31"/>
       <c r="M541" s="31"/>
     </row>
     <row r="542">
@@ -5105,6 +5661,7 @@
       <c r="F542" s="31"/>
       <c r="I542" s="31"/>
       <c r="J542" s="31"/>
+      <c r="K542" s="31"/>
       <c r="M542" s="31"/>
     </row>
     <row r="543">
@@ -5112,6 +5669,7 @@
       <c r="F543" s="31"/>
       <c r="I543" s="31"/>
       <c r="J543" s="31"/>
+      <c r="K543" s="31"/>
       <c r="M543" s="31"/>
     </row>
     <row r="544">
@@ -5119,6 +5677,7 @@
       <c r="F544" s="31"/>
       <c r="I544" s="31"/>
       <c r="J544" s="31"/>
+      <c r="K544" s="31"/>
       <c r="M544" s="31"/>
     </row>
     <row r="545">
@@ -5126,6 +5685,7 @@
       <c r="F545" s="31"/>
       <c r="I545" s="31"/>
       <c r="J545" s="31"/>
+      <c r="K545" s="31"/>
       <c r="M545" s="31"/>
     </row>
     <row r="546">
@@ -5133,6 +5693,7 @@
       <c r="F546" s="31"/>
       <c r="I546" s="31"/>
       <c r="J546" s="31"/>
+      <c r="K546" s="31"/>
       <c r="M546" s="31"/>
     </row>
     <row r="547">
@@ -5140,6 +5701,7 @@
       <c r="F547" s="31"/>
       <c r="I547" s="31"/>
       <c r="J547" s="31"/>
+      <c r="K547" s="31"/>
       <c r="M547" s="31"/>
     </row>
     <row r="548">
@@ -5147,6 +5709,7 @@
       <c r="F548" s="31"/>
       <c r="I548" s="31"/>
       <c r="J548" s="31"/>
+      <c r="K548" s="31"/>
       <c r="M548" s="31"/>
     </row>
     <row r="549">
@@ -5154,6 +5717,7 @@
       <c r="F549" s="31"/>
       <c r="I549" s="31"/>
       <c r="J549" s="31"/>
+      <c r="K549" s="31"/>
       <c r="M549" s="31"/>
     </row>
     <row r="550">
@@ -5161,6 +5725,7 @@
       <c r="F550" s="31"/>
       <c r="I550" s="31"/>
       <c r="J550" s="31"/>
+      <c r="K550" s="31"/>
       <c r="M550" s="31"/>
     </row>
     <row r="551">
@@ -5168,6 +5733,7 @@
       <c r="F551" s="31"/>
       <c r="I551" s="31"/>
       <c r="J551" s="31"/>
+      <c r="K551" s="31"/>
       <c r="M551" s="31"/>
     </row>
     <row r="552">
@@ -5175,6 +5741,7 @@
       <c r="F552" s="31"/>
       <c r="I552" s="31"/>
       <c r="J552" s="31"/>
+      <c r="K552" s="31"/>
       <c r="M552" s="31"/>
     </row>
     <row r="553">
@@ -5182,6 +5749,7 @@
       <c r="F553" s="31"/>
       <c r="I553" s="31"/>
       <c r="J553" s="31"/>
+      <c r="K553" s="31"/>
       <c r="M553" s="31"/>
     </row>
     <row r="554">
@@ -5189,6 +5757,7 @@
       <c r="F554" s="31"/>
       <c r="I554" s="31"/>
       <c r="J554" s="31"/>
+      <c r="K554" s="31"/>
       <c r="M554" s="31"/>
     </row>
     <row r="555">
@@ -5196,6 +5765,7 @@
       <c r="F555" s="31"/>
       <c r="I555" s="31"/>
       <c r="J555" s="31"/>
+      <c r="K555" s="31"/>
       <c r="M555" s="31"/>
     </row>
     <row r="556">
@@ -5203,6 +5773,7 @@
       <c r="F556" s="31"/>
       <c r="I556" s="31"/>
       <c r="J556" s="31"/>
+      <c r="K556" s="31"/>
       <c r="M556" s="31"/>
     </row>
     <row r="557">
@@ -5210,6 +5781,7 @@
       <c r="F557" s="31"/>
       <c r="I557" s="31"/>
       <c r="J557" s="31"/>
+      <c r="K557" s="31"/>
       <c r="M557" s="31"/>
     </row>
     <row r="558">
@@ -5217,6 +5789,7 @@
       <c r="F558" s="31"/>
       <c r="I558" s="31"/>
       <c r="J558" s="31"/>
+      <c r="K558" s="31"/>
       <c r="M558" s="31"/>
     </row>
     <row r="559">
@@ -5224,6 +5797,7 @@
       <c r="F559" s="31"/>
       <c r="I559" s="31"/>
       <c r="J559" s="31"/>
+      <c r="K559" s="31"/>
       <c r="M559" s="31"/>
     </row>
     <row r="560">
@@ -5231,6 +5805,7 @@
       <c r="F560" s="31"/>
       <c r="I560" s="31"/>
       <c r="J560" s="31"/>
+      <c r="K560" s="31"/>
       <c r="M560" s="31"/>
     </row>
     <row r="561">
@@ -5238,6 +5813,7 @@
       <c r="F561" s="31"/>
       <c r="I561" s="31"/>
       <c r="J561" s="31"/>
+      <c r="K561" s="31"/>
       <c r="M561" s="31"/>
     </row>
     <row r="562">
@@ -5245,6 +5821,7 @@
       <c r="F562" s="31"/>
       <c r="I562" s="31"/>
       <c r="J562" s="31"/>
+      <c r="K562" s="31"/>
       <c r="M562" s="31"/>
     </row>
     <row r="563">
@@ -5252,6 +5829,7 @@
       <c r="F563" s="31"/>
       <c r="I563" s="31"/>
       <c r="J563" s="31"/>
+      <c r="K563" s="31"/>
       <c r="M563" s="31"/>
     </row>
     <row r="564">
@@ -5259,6 +5837,7 @@
       <c r="F564" s="31"/>
       <c r="I564" s="31"/>
       <c r="J564" s="31"/>
+      <c r="K564" s="31"/>
       <c r="M564" s="31"/>
     </row>
     <row r="565">
@@ -5266,6 +5845,7 @@
       <c r="F565" s="31"/>
       <c r="I565" s="31"/>
       <c r="J565" s="31"/>
+      <c r="K565" s="31"/>
       <c r="M565" s="31"/>
     </row>
     <row r="566">
@@ -5273,6 +5853,7 @@
       <c r="F566" s="31"/>
       <c r="I566" s="31"/>
       <c r="J566" s="31"/>
+      <c r="K566" s="31"/>
       <c r="M566" s="31"/>
     </row>
     <row r="567">
@@ -5280,6 +5861,7 @@
       <c r="F567" s="31"/>
       <c r="I567" s="31"/>
       <c r="J567" s="31"/>
+      <c r="K567" s="31"/>
       <c r="M567" s="31"/>
     </row>
     <row r="568">
@@ -5287,6 +5869,7 @@
       <c r="F568" s="31"/>
       <c r="I568" s="31"/>
       <c r="J568" s="31"/>
+      <c r="K568" s="31"/>
       <c r="M568" s="31"/>
     </row>
     <row r="569">
@@ -5294,6 +5877,7 @@
       <c r="F569" s="31"/>
       <c r="I569" s="31"/>
       <c r="J569" s="31"/>
+      <c r="K569" s="31"/>
       <c r="M569" s="31"/>
     </row>
     <row r="570">
@@ -5301,6 +5885,7 @@
       <c r="F570" s="31"/>
       <c r="I570" s="31"/>
       <c r="J570" s="31"/>
+      <c r="K570" s="31"/>
       <c r="M570" s="31"/>
     </row>
     <row r="571">
@@ -5308,6 +5893,7 @@
       <c r="F571" s="31"/>
       <c r="I571" s="31"/>
       <c r="J571" s="31"/>
+      <c r="K571" s="31"/>
       <c r="M571" s="31"/>
     </row>
     <row r="572">
@@ -5315,6 +5901,7 @@
       <c r="F572" s="31"/>
       <c r="I572" s="31"/>
       <c r="J572" s="31"/>
+      <c r="K572" s="31"/>
       <c r="M572" s="31"/>
     </row>
     <row r="573">
@@ -5322,6 +5909,7 @@
       <c r="F573" s="31"/>
       <c r="I573" s="31"/>
       <c r="J573" s="31"/>
+      <c r="K573" s="31"/>
       <c r="M573" s="31"/>
     </row>
     <row r="574">
@@ -5329,6 +5917,7 @@
       <c r="F574" s="31"/>
       <c r="I574" s="31"/>
       <c r="J574" s="31"/>
+      <c r="K574" s="31"/>
       <c r="M574" s="31"/>
     </row>
     <row r="575">
@@ -5336,6 +5925,7 @@
       <c r="F575" s="31"/>
       <c r="I575" s="31"/>
       <c r="J575" s="31"/>
+      <c r="K575" s="31"/>
       <c r="M575" s="31"/>
     </row>
     <row r="576">
@@ -5343,6 +5933,7 @@
       <c r="F576" s="31"/>
       <c r="I576" s="31"/>
       <c r="J576" s="31"/>
+      <c r="K576" s="31"/>
       <c r="M576" s="31"/>
     </row>
     <row r="577">
@@ -5350,6 +5941,7 @@
       <c r="F577" s="31"/>
       <c r="I577" s="31"/>
       <c r="J577" s="31"/>
+      <c r="K577" s="31"/>
       <c r="M577" s="31"/>
     </row>
     <row r="578">
@@ -5357,6 +5949,7 @@
       <c r="F578" s="31"/>
       <c r="I578" s="31"/>
       <c r="J578" s="31"/>
+      <c r="K578" s="31"/>
       <c r="M578" s="31"/>
     </row>
     <row r="579">
@@ -5364,6 +5957,7 @@
       <c r="F579" s="31"/>
       <c r="I579" s="31"/>
       <c r="J579" s="31"/>
+      <c r="K579" s="31"/>
       <c r="M579" s="31"/>
     </row>
     <row r="580">
@@ -5371,6 +5965,7 @@
       <c r="F580" s="31"/>
       <c r="I580" s="31"/>
       <c r="J580" s="31"/>
+      <c r="K580" s="31"/>
       <c r="M580" s="31"/>
     </row>
     <row r="581">
@@ -5378,6 +5973,7 @@
       <c r="F581" s="31"/>
       <c r="I581" s="31"/>
       <c r="J581" s="31"/>
+      <c r="K581" s="31"/>
       <c r="M581" s="31"/>
     </row>
     <row r="582">
@@ -5385,6 +5981,7 @@
       <c r="F582" s="31"/>
       <c r="I582" s="31"/>
       <c r="J582" s="31"/>
+      <c r="K582" s="31"/>
       <c r="M582" s="31"/>
     </row>
     <row r="583">
@@ -5392,6 +5989,7 @@
       <c r="F583" s="31"/>
       <c r="I583" s="31"/>
       <c r="J583" s="31"/>
+      <c r="K583" s="31"/>
       <c r="M583" s="31"/>
     </row>
     <row r="584">
@@ -5399,6 +5997,7 @@
       <c r="F584" s="31"/>
       <c r="I584" s="31"/>
       <c r="J584" s="31"/>
+      <c r="K584" s="31"/>
       <c r="M584" s="31"/>
     </row>
     <row r="585">
@@ -5406,6 +6005,7 @@
       <c r="F585" s="31"/>
       <c r="I585" s="31"/>
       <c r="J585" s="31"/>
+      <c r="K585" s="31"/>
       <c r="M585" s="31"/>
     </row>
     <row r="586">
@@ -5413,6 +6013,7 @@
       <c r="F586" s="31"/>
       <c r="I586" s="31"/>
       <c r="J586" s="31"/>
+      <c r="K586" s="31"/>
       <c r="M586" s="31"/>
     </row>
     <row r="587">
@@ -5420,6 +6021,7 @@
       <c r="F587" s="31"/>
       <c r="I587" s="31"/>
       <c r="J587" s="31"/>
+      <c r="K587" s="31"/>
       <c r="M587" s="31"/>
     </row>
     <row r="588">
@@ -5427,6 +6029,7 @@
       <c r="F588" s="31"/>
       <c r="I588" s="31"/>
       <c r="J588" s="31"/>
+      <c r="K588" s="31"/>
       <c r="M588" s="31"/>
     </row>
     <row r="589">
@@ -5434,6 +6037,7 @@
       <c r="F589" s="31"/>
       <c r="I589" s="31"/>
       <c r="J589" s="31"/>
+      <c r="K589" s="31"/>
       <c r="M589" s="31"/>
     </row>
     <row r="590">
@@ -5441,6 +6045,7 @@
       <c r="F590" s="31"/>
       <c r="I590" s="31"/>
       <c r="J590" s="31"/>
+      <c r="K590" s="31"/>
       <c r="M590" s="31"/>
     </row>
     <row r="591">
@@ -5448,6 +6053,7 @@
       <c r="F591" s="31"/>
       <c r="I591" s="31"/>
       <c r="J591" s="31"/>
+      <c r="K591" s="31"/>
       <c r="M591" s="31"/>
     </row>
     <row r="592">
@@ -5455,6 +6061,7 @@
       <c r="F592" s="31"/>
       <c r="I592" s="31"/>
       <c r="J592" s="31"/>
+      <c r="K592" s="31"/>
       <c r="M592" s="31"/>
     </row>
     <row r="593">
@@ -5462,6 +6069,7 @@
       <c r="F593" s="31"/>
       <c r="I593" s="31"/>
       <c r="J593" s="31"/>
+      <c r="K593" s="31"/>
       <c r="M593" s="31"/>
     </row>
     <row r="594">
@@ -5469,6 +6077,7 @@
       <c r="F594" s="31"/>
       <c r="I594" s="31"/>
       <c r="J594" s="31"/>
+      <c r="K594" s="31"/>
       <c r="M594" s="31"/>
     </row>
     <row r="595">
@@ -5476,6 +6085,7 @@
       <c r="F595" s="31"/>
       <c r="I595" s="31"/>
       <c r="J595" s="31"/>
+      <c r="K595" s="31"/>
       <c r="M595" s="31"/>
     </row>
     <row r="596">
@@ -5483,6 +6093,7 @@
       <c r="F596" s="31"/>
       <c r="I596" s="31"/>
       <c r="J596" s="31"/>
+      <c r="K596" s="31"/>
       <c r="M596" s="31"/>
     </row>
     <row r="597">
@@ -5490,6 +6101,7 @@
       <c r="F597" s="31"/>
       <c r="I597" s="31"/>
       <c r="J597" s="31"/>
+      <c r="K597" s="31"/>
       <c r="M597" s="31"/>
     </row>
     <row r="598">
@@ -5497,6 +6109,7 @@
       <c r="F598" s="31"/>
       <c r="I598" s="31"/>
       <c r="J598" s="31"/>
+      <c r="K598" s="31"/>
       <c r="M598" s="31"/>
     </row>
     <row r="599">
@@ -5504,6 +6117,7 @@
       <c r="F599" s="31"/>
       <c r="I599" s="31"/>
       <c r="J599" s="31"/>
+      <c r="K599" s="31"/>
       <c r="M599" s="31"/>
     </row>
     <row r="600">
@@ -5511,6 +6125,7 @@
       <c r="F600" s="31"/>
       <c r="I600" s="31"/>
       <c r="J600" s="31"/>
+      <c r="K600" s="31"/>
       <c r="M600" s="31"/>
     </row>
     <row r="601">
@@ -5518,6 +6133,7 @@
       <c r="F601" s="31"/>
       <c r="I601" s="31"/>
       <c r="J601" s="31"/>
+      <c r="K601" s="31"/>
       <c r="M601" s="31"/>
     </row>
     <row r="602">
@@ -5525,6 +6141,7 @@
       <c r="F602" s="31"/>
       <c r="I602" s="31"/>
       <c r="J602" s="31"/>
+      <c r="K602" s="31"/>
       <c r="M602" s="31"/>
     </row>
     <row r="603">
@@ -5532,6 +6149,7 @@
       <c r="F603" s="31"/>
       <c r="I603" s="31"/>
       <c r="J603" s="31"/>
+      <c r="K603" s="31"/>
       <c r="M603" s="31"/>
     </row>
     <row r="604">
@@ -5539,6 +6157,7 @@
       <c r="F604" s="31"/>
       <c r="I604" s="31"/>
       <c r="J604" s="31"/>
+      <c r="K604" s="31"/>
       <c r="M604" s="31"/>
     </row>
     <row r="605">
@@ -5546,6 +6165,7 @@
       <c r="F605" s="31"/>
       <c r="I605" s="31"/>
       <c r="J605" s="31"/>
+      <c r="K605" s="31"/>
       <c r="M605" s="31"/>
     </row>
     <row r="606">
@@ -5553,6 +6173,7 @@
       <c r="F606" s="31"/>
       <c r="I606" s="31"/>
       <c r="J606" s="31"/>
+      <c r="K606" s="31"/>
       <c r="M606" s="31"/>
     </row>
     <row r="607">
@@ -5560,6 +6181,7 @@
       <c r="F607" s="31"/>
       <c r="I607" s="31"/>
       <c r="J607" s="31"/>
+      <c r="K607" s="31"/>
       <c r="M607" s="31"/>
     </row>
     <row r="608">
@@ -5567,6 +6189,7 @@
       <c r="F608" s="31"/>
       <c r="I608" s="31"/>
       <c r="J608" s="31"/>
+      <c r="K608" s="31"/>
       <c r="M608" s="31"/>
     </row>
     <row r="609">
@@ -5574,6 +6197,7 @@
       <c r="F609" s="31"/>
       <c r="I609" s="31"/>
       <c r="J609" s="31"/>
+      <c r="K609" s="31"/>
       <c r="M609" s="31"/>
     </row>
     <row r="610">
@@ -5581,6 +6205,7 @@
       <c r="F610" s="31"/>
       <c r="I610" s="31"/>
       <c r="J610" s="31"/>
+      <c r="K610" s="31"/>
       <c r="M610" s="31"/>
     </row>
     <row r="611">
@@ -5588,6 +6213,7 @@
       <c r="F611" s="31"/>
       <c r="I611" s="31"/>
       <c r="J611" s="31"/>
+      <c r="K611" s="31"/>
       <c r="M611" s="31"/>
     </row>
     <row r="612">
@@ -5595,6 +6221,7 @@
       <c r="F612" s="31"/>
       <c r="I612" s="31"/>
       <c r="J612" s="31"/>
+      <c r="K612" s="31"/>
       <c r="M612" s="31"/>
     </row>
     <row r="613">
@@ -5602,6 +6229,7 @@
       <c r="F613" s="31"/>
       <c r="I613" s="31"/>
       <c r="J613" s="31"/>
+      <c r="K613" s="31"/>
       <c r="M613" s="31"/>
     </row>
     <row r="614">
@@ -5609,6 +6237,7 @@
       <c r="F614" s="31"/>
       <c r="I614" s="31"/>
       <c r="J614" s="31"/>
+      <c r="K614" s="31"/>
       <c r="M614" s="31"/>
     </row>
     <row r="615">
@@ -5616,6 +6245,7 @@
       <c r="F615" s="31"/>
       <c r="I615" s="31"/>
       <c r="J615" s="31"/>
+      <c r="K615" s="31"/>
       <c r="M615" s="31"/>
     </row>
     <row r="616">
@@ -5623,6 +6253,7 @@
       <c r="F616" s="31"/>
       <c r="I616" s="31"/>
       <c r="J616" s="31"/>
+      <c r="K616" s="31"/>
       <c r="M616" s="31"/>
     </row>
     <row r="617">
@@ -5630,6 +6261,7 @@
       <c r="F617" s="31"/>
       <c r="I617" s="31"/>
       <c r="J617" s="31"/>
+      <c r="K617" s="31"/>
       <c r="M617" s="31"/>
     </row>
     <row r="618">
@@ -5637,6 +6269,7 @@
       <c r="F618" s="31"/>
       <c r="I618" s="31"/>
       <c r="J618" s="31"/>
+      <c r="K618" s="31"/>
       <c r="M618" s="31"/>
     </row>
     <row r="619">
@@ -5644,6 +6277,7 @@
       <c r="F619" s="31"/>
       <c r="I619" s="31"/>
       <c r="J619" s="31"/>
+      <c r="K619" s="31"/>
       <c r="M619" s="31"/>
     </row>
     <row r="620">
@@ -5651,6 +6285,7 @@
       <c r="F620" s="31"/>
       <c r="I620" s="31"/>
       <c r="J620" s="31"/>
+      <c r="K620" s="31"/>
       <c r="M620" s="31"/>
     </row>
     <row r="621">
@@ -5658,6 +6293,7 @@
       <c r="F621" s="31"/>
       <c r="I621" s="31"/>
       <c r="J621" s="31"/>
+      <c r="K621" s="31"/>
       <c r="M621" s="31"/>
     </row>
     <row r="622">
@@ -5665,6 +6301,7 @@
       <c r="F622" s="31"/>
       <c r="I622" s="31"/>
       <c r="J622" s="31"/>
+      <c r="K622" s="31"/>
       <c r="M622" s="31"/>
     </row>
     <row r="623">
@@ -5672,6 +6309,7 @@
       <c r="F623" s="31"/>
       <c r="I623" s="31"/>
       <c r="J623" s="31"/>
+      <c r="K623" s="31"/>
       <c r="M623" s="31"/>
     </row>
     <row r="624">
@@ -5679,6 +6317,7 @@
       <c r="F624" s="31"/>
       <c r="I624" s="31"/>
       <c r="J624" s="31"/>
+      <c r="K624" s="31"/>
       <c r="M624" s="31"/>
     </row>
     <row r="625">
@@ -5686,6 +6325,7 @@
       <c r="F625" s="31"/>
       <c r="I625" s="31"/>
       <c r="J625" s="31"/>
+      <c r="K625" s="31"/>
       <c r="M625" s="31"/>
     </row>
     <row r="626">
@@ -5693,6 +6333,7 @@
       <c r="F626" s="31"/>
       <c r="I626" s="31"/>
       <c r="J626" s="31"/>
+      <c r="K626" s="31"/>
       <c r="M626" s="31"/>
     </row>
     <row r="627">
@@ -5700,6 +6341,7 @@
       <c r="F627" s="31"/>
       <c r="I627" s="31"/>
       <c r="J627" s="31"/>
+      <c r="K627" s="31"/>
       <c r="M627" s="31"/>
     </row>
     <row r="628">
@@ -5707,6 +6349,7 @@
       <c r="F628" s="31"/>
       <c r="I628" s="31"/>
       <c r="J628" s="31"/>
+      <c r="K628" s="31"/>
       <c r="M628" s="31"/>
     </row>
     <row r="629">
@@ -5714,6 +6357,7 @@
       <c r="F629" s="31"/>
       <c r="I629" s="31"/>
       <c r="J629" s="31"/>
+      <c r="K629" s="31"/>
       <c r="M629" s="31"/>
     </row>
     <row r="630">
@@ -5721,6 +6365,7 @@
       <c r="F630" s="31"/>
       <c r="I630" s="31"/>
       <c r="J630" s="31"/>
+      <c r="K630" s="31"/>
       <c r="M630" s="31"/>
     </row>
     <row r="631">
@@ -5728,6 +6373,7 @@
       <c r="F631" s="31"/>
       <c r="I631" s="31"/>
       <c r="J631" s="31"/>
+      <c r="K631" s="31"/>
       <c r="M631" s="31"/>
     </row>
     <row r="632">
@@ -5735,6 +6381,7 @@
       <c r="F632" s="31"/>
       <c r="I632" s="31"/>
       <c r="J632" s="31"/>
+      <c r="K632" s="31"/>
       <c r="M632" s="31"/>
     </row>
     <row r="633">
@@ -5742,6 +6389,7 @@
       <c r="F633" s="31"/>
       <c r="I633" s="31"/>
       <c r="J633" s="31"/>
+      <c r="K633" s="31"/>
       <c r="M633" s="31"/>
     </row>
     <row r="634">
@@ -5749,6 +6397,7 @@
       <c r="F634" s="31"/>
       <c r="I634" s="31"/>
       <c r="J634" s="31"/>
+      <c r="K634" s="31"/>
       <c r="M634" s="31"/>
     </row>
     <row r="635">
@@ -5756,6 +6405,7 @@
       <c r="F635" s="31"/>
       <c r="I635" s="31"/>
       <c r="J635" s="31"/>
+      <c r="K635" s="31"/>
       <c r="M635" s="31"/>
     </row>
     <row r="636">
@@ -5763,6 +6413,7 @@
       <c r="F636" s="31"/>
       <c r="I636" s="31"/>
       <c r="J636" s="31"/>
+      <c r="K636" s="31"/>
       <c r="M636" s="31"/>
     </row>
     <row r="637">
@@ -5770,6 +6421,7 @@
       <c r="F637" s="31"/>
       <c r="I637" s="31"/>
       <c r="J637" s="31"/>
+      <c r="K637" s="31"/>
       <c r="M637" s="31"/>
     </row>
     <row r="638">
@@ -5777,6 +6429,7 @@
       <c r="F638" s="31"/>
       <c r="I638" s="31"/>
       <c r="J638" s="31"/>
+      <c r="K638" s="31"/>
       <c r="M638" s="31"/>
     </row>
     <row r="639">
@@ -5784,6 +6437,7 @@
       <c r="F639" s="31"/>
       <c r="I639" s="31"/>
       <c r="J639" s="31"/>
+      <c r="K639" s="31"/>
       <c r="M639" s="31"/>
     </row>
     <row r="640">
@@ -5791,6 +6445,7 @@
       <c r="F640" s="31"/>
       <c r="I640" s="31"/>
       <c r="J640" s="31"/>
+      <c r="K640" s="31"/>
       <c r="M640" s="31"/>
     </row>
     <row r="641">
@@ -5798,6 +6453,7 @@
       <c r="F641" s="31"/>
       <c r="I641" s="31"/>
       <c r="J641" s="31"/>
+      <c r="K641" s="31"/>
       <c r="M641" s="31"/>
     </row>
     <row r="642">
@@ -5805,6 +6461,7 @@
       <c r="F642" s="31"/>
       <c r="I642" s="31"/>
       <c r="J642" s="31"/>
+      <c r="K642" s="31"/>
       <c r="M642" s="31"/>
     </row>
     <row r="643">
@@ -5812,6 +6469,7 @@
       <c r="F643" s="31"/>
       <c r="I643" s="31"/>
       <c r="J643" s="31"/>
+      <c r="K643" s="31"/>
       <c r="M643" s="31"/>
     </row>
     <row r="644">
@@ -5819,6 +6477,7 @@
       <c r="F644" s="31"/>
       <c r="I644" s="31"/>
       <c r="J644" s="31"/>
+      <c r="K644" s="31"/>
       <c r="M644" s="31"/>
     </row>
     <row r="645">
@@ -5826,6 +6485,7 @@
       <c r="F645" s="31"/>
       <c r="I645" s="31"/>
       <c r="J645" s="31"/>
+      <c r="K645" s="31"/>
       <c r="M645" s="31"/>
     </row>
     <row r="646">
@@ -5833,6 +6493,7 @@
       <c r="F646" s="31"/>
       <c r="I646" s="31"/>
       <c r="J646" s="31"/>
+      <c r="K646" s="31"/>
       <c r="M646" s="31"/>
     </row>
     <row r="647">
@@ -5840,6 +6501,7 @@
       <c r="F647" s="31"/>
       <c r="I647" s="31"/>
       <c r="J647" s="31"/>
+      <c r="K647" s="31"/>
       <c r="M647" s="31"/>
     </row>
     <row r="648">
@@ -5847,6 +6509,7 @@
       <c r="F648" s="31"/>
       <c r="I648" s="31"/>
       <c r="J648" s="31"/>
+      <c r="K648" s="31"/>
       <c r="M648" s="31"/>
     </row>
     <row r="649">
@@ -5854,6 +6517,7 @@
       <c r="F649" s="31"/>
       <c r="I649" s="31"/>
       <c r="J649" s="31"/>
+      <c r="K649" s="31"/>
       <c r="M649" s="31"/>
     </row>
     <row r="650">
@@ -5861,6 +6525,7 @@
       <c r="F650" s="31"/>
       <c r="I650" s="31"/>
       <c r="J650" s="31"/>
+      <c r="K650" s="31"/>
       <c r="M650" s="31"/>
     </row>
     <row r="651">
@@ -5868,6 +6533,7 @@
       <c r="F651" s="31"/>
       <c r="I651" s="31"/>
       <c r="J651" s="31"/>
+      <c r="K651" s="31"/>
       <c r="M651" s="31"/>
     </row>
     <row r="652">
@@ -5875,6 +6541,7 @@
       <c r="F652" s="31"/>
       <c r="I652" s="31"/>
       <c r="J652" s="31"/>
+      <c r="K652" s="31"/>
       <c r="M652" s="31"/>
     </row>
     <row r="653">
@@ -5882,6 +6549,7 @@
       <c r="F653" s="31"/>
       <c r="I653" s="31"/>
       <c r="J653" s="31"/>
+      <c r="K653" s="31"/>
       <c r="M653" s="31"/>
     </row>
     <row r="654">
@@ -5889,6 +6557,7 @@
       <c r="F654" s="31"/>
       <c r="I654" s="31"/>
       <c r="J654" s="31"/>
+      <c r="K654" s="31"/>
       <c r="M654" s="31"/>
     </row>
     <row r="655">
@@ -5896,6 +6565,7 @@
       <c r="F655" s="31"/>
       <c r="I655" s="31"/>
       <c r="J655" s="31"/>
+      <c r="K655" s="31"/>
       <c r="M655" s="31"/>
     </row>
     <row r="656">
@@ -5903,6 +6573,7 @@
       <c r="F656" s="31"/>
       <c r="I656" s="31"/>
       <c r="J656" s="31"/>
+      <c r="K656" s="31"/>
       <c r="M656" s="31"/>
     </row>
     <row r="657">
@@ -5910,6 +6581,7 @@
       <c r="F657" s="31"/>
       <c r="I657" s="31"/>
       <c r="J657" s="31"/>
+      <c r="K657" s="31"/>
       <c r="M657" s="31"/>
     </row>
     <row r="658">
@@ -5917,6 +6589,7 @@
       <c r="F658" s="31"/>
       <c r="I658" s="31"/>
       <c r="J658" s="31"/>
+      <c r="K658" s="31"/>
       <c r="M658" s="31"/>
     </row>
     <row r="659">
@@ -5924,6 +6597,7 @@
       <c r="F659" s="31"/>
       <c r="I659" s="31"/>
       <c r="J659" s="31"/>
+      <c r="K659" s="31"/>
       <c r="M659" s="31"/>
     </row>
     <row r="660">
@@ -5931,6 +6605,7 @@
       <c r="F660" s="31"/>
       <c r="I660" s="31"/>
       <c r="J660" s="31"/>
+      <c r="K660" s="31"/>
       <c r="M660" s="31"/>
     </row>
     <row r="661">
@@ -5938,6 +6613,7 @@
       <c r="F661" s="31"/>
       <c r="I661" s="31"/>
       <c r="J661" s="31"/>
+      <c r="K661" s="31"/>
       <c r="M661" s="31"/>
     </row>
     <row r="662">
@@ -5945,6 +6621,7 @@
       <c r="F662" s="31"/>
       <c r="I662" s="31"/>
       <c r="J662" s="31"/>
+      <c r="K662" s="31"/>
       <c r="M662" s="31"/>
     </row>
     <row r="663">
@@ -5952,6 +6629,7 @@
       <c r="F663" s="31"/>
       <c r="I663" s="31"/>
       <c r="J663" s="31"/>
+      <c r="K663" s="31"/>
       <c r="M663" s="31"/>
     </row>
     <row r="664">
@@ -5959,6 +6637,7 @@
       <c r="F664" s="31"/>
       <c r="I664" s="31"/>
       <c r="J664" s="31"/>
+      <c r="K664" s="31"/>
       <c r="M664" s="31"/>
     </row>
     <row r="665">
@@ -5966,6 +6645,7 @@
       <c r="F665" s="31"/>
       <c r="I665" s="31"/>
       <c r="J665" s="31"/>
+      <c r="K665" s="31"/>
       <c r="M665" s="31"/>
     </row>
     <row r="666">
@@ -5973,6 +6653,7 @@
       <c r="F666" s="31"/>
       <c r="I666" s="31"/>
       <c r="J666" s="31"/>
+      <c r="K666" s="31"/>
       <c r="M666" s="31"/>
     </row>
     <row r="667">
@@ -5980,6 +6661,7 @@
       <c r="F667" s="31"/>
       <c r="I667" s="31"/>
       <c r="J667" s="31"/>
+      <c r="K667" s="31"/>
       <c r="M667" s="31"/>
     </row>
     <row r="668">
@@ -5987,6 +6669,7 @@
       <c r="F668" s="31"/>
       <c r="I668" s="31"/>
       <c r="J668" s="31"/>
+      <c r="K668" s="31"/>
       <c r="M668" s="31"/>
     </row>
     <row r="669">
@@ -5994,6 +6677,7 @@
       <c r="F669" s="31"/>
       <c r="I669" s="31"/>
       <c r="J669" s="31"/>
+      <c r="K669" s="31"/>
       <c r="M669" s="31"/>
     </row>
     <row r="670">
@@ -6001,6 +6685,7 @@
       <c r="F670" s="31"/>
       <c r="I670" s="31"/>
       <c r="J670" s="31"/>
+      <c r="K670" s="31"/>
       <c r="M670" s="31"/>
     </row>
     <row r="671">
@@ -6008,6 +6693,7 @@
       <c r="F671" s="31"/>
       <c r="I671" s="31"/>
       <c r="J671" s="31"/>
+      <c r="K671" s="31"/>
       <c r="M671" s="31"/>
     </row>
     <row r="672">
@@ -6015,6 +6701,7 @@
       <c r="F672" s="31"/>
       <c r="I672" s="31"/>
       <c r="J672" s="31"/>
+      <c r="K672" s="31"/>
       <c r="M672" s="31"/>
     </row>
     <row r="673">
@@ -6022,6 +6709,7 @@
       <c r="F673" s="31"/>
       <c r="I673" s="31"/>
       <c r="J673" s="31"/>
+      <c r="K673" s="31"/>
       <c r="M673" s="31"/>
     </row>
     <row r="674">
@@ -6029,6 +6717,7 @@
       <c r="F674" s="31"/>
       <c r="I674" s="31"/>
       <c r="J674" s="31"/>
+      <c r="K674" s="31"/>
       <c r="M674" s="31"/>
     </row>
     <row r="675">
@@ -6036,6 +6725,7 @@
       <c r="F675" s="31"/>
       <c r="I675" s="31"/>
       <c r="J675" s="31"/>
+      <c r="K675" s="31"/>
       <c r="M675" s="31"/>
     </row>
     <row r="676">
@@ -6043,6 +6733,7 @@
       <c r="F676" s="31"/>
       <c r="I676" s="31"/>
       <c r="J676" s="31"/>
+      <c r="K676" s="31"/>
       <c r="M676" s="31"/>
     </row>
     <row r="677">
@@ -6050,6 +6741,7 @@
       <c r="F677" s="31"/>
       <c r="I677" s="31"/>
       <c r="J677" s="31"/>
+      <c r="K677" s="31"/>
       <c r="M677" s="31"/>
     </row>
     <row r="678">
@@ -6057,6 +6749,7 @@
       <c r="F678" s="31"/>
       <c r="I678" s="31"/>
       <c r="J678" s="31"/>
+      <c r="K678" s="31"/>
       <c r="M678" s="31"/>
     </row>
     <row r="679">
@@ -6064,6 +6757,7 @@
       <c r="F679" s="31"/>
       <c r="I679" s="31"/>
       <c r="J679" s="31"/>
+      <c r="K679" s="31"/>
       <c r="M679" s="31"/>
     </row>
     <row r="680">
@@ -6071,6 +6765,7 @@
       <c r="F680" s="31"/>
       <c r="I680" s="31"/>
       <c r="J680" s="31"/>
+      <c r="K680" s="31"/>
       <c r="M680" s="31"/>
     </row>
     <row r="681">
@@ -6078,6 +6773,7 @@
       <c r="F681" s="31"/>
       <c r="I681" s="31"/>
       <c r="J681" s="31"/>
+      <c r="K681" s="31"/>
       <c r="M681" s="31"/>
     </row>
     <row r="682">
@@ -6085,6 +6781,7 @@
       <c r="F682" s="31"/>
       <c r="I682" s="31"/>
       <c r="J682" s="31"/>
+      <c r="K682" s="31"/>
       <c r="M682" s="31"/>
     </row>
     <row r="683">
@@ -6092,6 +6789,7 @@
       <c r="F683" s="31"/>
       <c r="I683" s="31"/>
       <c r="J683" s="31"/>
+      <c r="K683" s="31"/>
       <c r="M683" s="31"/>
     </row>
     <row r="684">
@@ -6099,6 +6797,7 @@
       <c r="F684" s="31"/>
       <c r="I684" s="31"/>
       <c r="J684" s="31"/>
+      <c r="K684" s="31"/>
       <c r="M684" s="31"/>
     </row>
     <row r="685">
@@ -6106,6 +6805,7 @@
       <c r="F685" s="31"/>
       <c r="I685" s="31"/>
       <c r="J685" s="31"/>
+      <c r="K685" s="31"/>
       <c r="M685" s="31"/>
     </row>
     <row r="686">
@@ -6113,6 +6813,7 @@
       <c r="F686" s="31"/>
       <c r="I686" s="31"/>
       <c r="J686" s="31"/>
+      <c r="K686" s="31"/>
       <c r="M686" s="31"/>
     </row>
     <row r="687">
@@ -6120,6 +6821,7 @@
       <c r="F687" s="31"/>
       <c r="I687" s="31"/>
       <c r="J687" s="31"/>
+      <c r="K687" s="31"/>
       <c r="M687" s="31"/>
     </row>
     <row r="688">
@@ -6127,6 +6829,7 @@
       <c r="F688" s="31"/>
       <c r="I688" s="31"/>
       <c r="J688" s="31"/>
+      <c r="K688" s="31"/>
       <c r="M688" s="31"/>
     </row>
     <row r="689">
@@ -6134,6 +6837,7 @@
       <c r="F689" s="31"/>
       <c r="I689" s="31"/>
       <c r="J689" s="31"/>
+      <c r="K689" s="31"/>
       <c r="M689" s="31"/>
     </row>
     <row r="690">
@@ -6141,6 +6845,7 @@
       <c r="F690" s="31"/>
       <c r="I690" s="31"/>
       <c r="J690" s="31"/>
+      <c r="K690" s="31"/>
       <c r="M690" s="31"/>
     </row>
     <row r="691">
@@ -6148,6 +6853,7 @@
       <c r="F691" s="31"/>
       <c r="I691" s="31"/>
       <c r="J691" s="31"/>
+      <c r="K691" s="31"/>
       <c r="M691" s="31"/>
     </row>
     <row r="692">
@@ -6155,6 +6861,7 @@
       <c r="F692" s="31"/>
       <c r="I692" s="31"/>
       <c r="J692" s="31"/>
+      <c r="K692" s="31"/>
       <c r="M692" s="31"/>
     </row>
     <row r="693">
@@ -6162,6 +6869,7 @@
       <c r="F693" s="31"/>
       <c r="I693" s="31"/>
       <c r="J693" s="31"/>
+      <c r="K693" s="31"/>
       <c r="M693" s="31"/>
     </row>
     <row r="694">
@@ -6169,6 +6877,7 @@
       <c r="F694" s="31"/>
       <c r="I694" s="31"/>
       <c r="J694" s="31"/>
+      <c r="K694" s="31"/>
       <c r="M694" s="31"/>
     </row>
     <row r="695">
@@ -6176,6 +6885,7 @@
       <c r="F695" s="31"/>
       <c r="I695" s="31"/>
       <c r="J695" s="31"/>
+      <c r="K695" s="31"/>
       <c r="M695" s="31"/>
     </row>
     <row r="696">
@@ -6183,6 +6893,7 @@
       <c r="F696" s="31"/>
       <c r="I696" s="31"/>
       <c r="J696" s="31"/>
+      <c r="K696" s="31"/>
       <c r="M696" s="31"/>
     </row>
     <row r="697">
@@ -6190,6 +6901,7 @@
       <c r="F697" s="31"/>
       <c r="I697" s="31"/>
       <c r="J697" s="31"/>
+      <c r="K697" s="31"/>
       <c r="M697" s="31"/>
     </row>
     <row r="698">
@@ -6197,6 +6909,7 @@
       <c r="F698" s="31"/>
       <c r="I698" s="31"/>
       <c r="J698" s="31"/>
+      <c r="K698" s="31"/>
       <c r="M698" s="31"/>
     </row>
     <row r="699">
@@ -6204,6 +6917,7 @@
       <c r="F699" s="31"/>
       <c r="I699" s="31"/>
       <c r="J699" s="31"/>
+      <c r="K699" s="31"/>
       <c r="M699" s="31"/>
     </row>
     <row r="700">
@@ -6211,6 +6925,7 @@
       <c r="F700" s="31"/>
       <c r="I700" s="31"/>
       <c r="J700" s="31"/>
+      <c r="K700" s="31"/>
       <c r="M700" s="31"/>
     </row>
     <row r="701">
@@ -6218,6 +6933,7 @@
       <c r="F701" s="31"/>
       <c r="I701" s="31"/>
       <c r="J701" s="31"/>
+      <c r="K701" s="31"/>
       <c r="M701" s="31"/>
     </row>
     <row r="702">
@@ -6225,6 +6941,7 @@
       <c r="F702" s="31"/>
       <c r="I702" s="31"/>
       <c r="J702" s="31"/>
+      <c r="K702" s="31"/>
       <c r="M702" s="31"/>
     </row>
     <row r="703">
@@ -6232,6 +6949,7 @@
       <c r="F703" s="31"/>
       <c r="I703" s="31"/>
       <c r="J703" s="31"/>
+      <c r="K703" s="31"/>
       <c r="M703" s="31"/>
     </row>
     <row r="704">
@@ -6239,6 +6957,7 @@
       <c r="F704" s="31"/>
       <c r="I704" s="31"/>
       <c r="J704" s="31"/>
+      <c r="K704" s="31"/>
       <c r="M704" s="31"/>
     </row>
     <row r="705">
@@ -6246,6 +6965,7 @@
       <c r="F705" s="31"/>
       <c r="I705" s="31"/>
       <c r="J705" s="31"/>
+      <c r="K705" s="31"/>
       <c r="M705" s="31"/>
     </row>
     <row r="706">
@@ -6253,6 +6973,7 @@
       <c r="F706" s="31"/>
       <c r="I706" s="31"/>
       <c r="J706" s="31"/>
+      <c r="K706" s="31"/>
       <c r="M706" s="31"/>
     </row>
     <row r="707">
@@ -6260,6 +6981,7 @@
       <c r="F707" s="31"/>
       <c r="I707" s="31"/>
       <c r="J707" s="31"/>
+      <c r="K707" s="31"/>
       <c r="M707" s="31"/>
     </row>
     <row r="708">
@@ -6267,6 +6989,7 @@
       <c r="F708" s="31"/>
       <c r="I708" s="31"/>
       <c r="J708" s="31"/>
+      <c r="K708" s="31"/>
       <c r="M708" s="31"/>
     </row>
     <row r="709">
@@ -6274,6 +6997,7 @@
       <c r="F709" s="31"/>
       <c r="I709" s="31"/>
       <c r="J709" s="31"/>
+      <c r="K709" s="31"/>
       <c r="M709" s="31"/>
     </row>
     <row r="710">
@@ -6281,6 +7005,7 @@
       <c r="F710" s="31"/>
       <c r="I710" s="31"/>
       <c r="J710" s="31"/>
+      <c r="K710" s="31"/>
       <c r="M710" s="31"/>
     </row>
     <row r="711">
@@ -6288,6 +7013,7 @@
       <c r="F711" s="31"/>
       <c r="I711" s="31"/>
       <c r="J711" s="31"/>
+      <c r="K711" s="31"/>
       <c r="M711" s="31"/>
     </row>
     <row r="712">
@@ -6295,6 +7021,7 @@
       <c r="F712" s="31"/>
       <c r="I712" s="31"/>
       <c r="J712" s="31"/>
+      <c r="K712" s="31"/>
       <c r="M712" s="31"/>
     </row>
     <row r="713">
@@ -6302,6 +7029,7 @@
       <c r="F713" s="31"/>
       <c r="I713" s="31"/>
       <c r="J713" s="31"/>
+      <c r="K713" s="31"/>
       <c r="M713" s="31"/>
     </row>
     <row r="714">
@@ -6309,6 +7037,7 @@
       <c r="F714" s="31"/>
       <c r="I714" s="31"/>
       <c r="J714" s="31"/>
+      <c r="K714" s="31"/>
       <c r="M714" s="31"/>
     </row>
     <row r="715">
@@ -6316,6 +7045,7 @@
       <c r="F715" s="31"/>
       <c r="I715" s="31"/>
       <c r="J715" s="31"/>
+      <c r="K715" s="31"/>
       <c r="M715" s="31"/>
     </row>
     <row r="716">
@@ -6323,6 +7053,7 @@
       <c r="F716" s="31"/>
       <c r="I716" s="31"/>
       <c r="J716" s="31"/>
+      <c r="K716" s="31"/>
       <c r="M716" s="31"/>
     </row>
     <row r="717">
@@ -6330,6 +7061,7 @@
       <c r="F717" s="31"/>
       <c r="I717" s="31"/>
       <c r="J717" s="31"/>
+      <c r="K717" s="31"/>
       <c r="M717" s="31"/>
     </row>
     <row r="718">
@@ -6337,6 +7069,7 @@
       <c r="F718" s="31"/>
       <c r="I718" s="31"/>
       <c r="J718" s="31"/>
+      <c r="K718" s="31"/>
       <c r="M718" s="31"/>
     </row>
     <row r="719">
@@ -6344,6 +7077,7 @@
       <c r="F719" s="31"/>
       <c r="I719" s="31"/>
       <c r="J719" s="31"/>
+      <c r="K719" s="31"/>
       <c r="M719" s="31"/>
     </row>
     <row r="720">
@@ -6351,6 +7085,7 @@
       <c r="F720" s="31"/>
       <c r="I720" s="31"/>
       <c r="J720" s="31"/>
+      <c r="K720" s="31"/>
       <c r="M720" s="31"/>
     </row>
     <row r="721">
@@ -6358,6 +7093,7 @@
       <c r="F721" s="31"/>
       <c r="I721" s="31"/>
       <c r="J721" s="31"/>
+      <c r="K721" s="31"/>
       <c r="M721" s="31"/>
     </row>
     <row r="722">
@@ -6365,6 +7101,7 @@
       <c r="F722" s="31"/>
       <c r="I722" s="31"/>
       <c r="J722" s="31"/>
+      <c r="K722" s="31"/>
       <c r="M722" s="31"/>
     </row>
     <row r="723">
@@ -6372,6 +7109,7 @@
       <c r="F723" s="31"/>
       <c r="I723" s="31"/>
       <c r="J723" s="31"/>
+      <c r="K723" s="31"/>
       <c r="M723" s="31"/>
     </row>
     <row r="724">
@@ -6379,6 +7117,7 @@
       <c r="F724" s="31"/>
       <c r="I724" s="31"/>
       <c r="J724" s="31"/>
+      <c r="K724" s="31"/>
       <c r="M724" s="31"/>
     </row>
     <row r="725">
@@ -6386,6 +7125,7 @@
       <c r="F725" s="31"/>
       <c r="I725" s="31"/>
       <c r="J725" s="31"/>
+      <c r="K725" s="31"/>
       <c r="M725" s="31"/>
     </row>
     <row r="726">
@@ -6393,6 +7133,7 @@
       <c r="F726" s="31"/>
       <c r="I726" s="31"/>
       <c r="J726" s="31"/>
+      <c r="K726" s="31"/>
       <c r="M726" s="31"/>
     </row>
     <row r="727">
@@ -6400,6 +7141,7 @@
       <c r="F727" s="31"/>
       <c r="I727" s="31"/>
       <c r="J727" s="31"/>
+      <c r="K727" s="31"/>
       <c r="M727" s="31"/>
     </row>
     <row r="728">
@@ -6407,6 +7149,7 @@
       <c r="F728" s="31"/>
       <c r="I728" s="31"/>
       <c r="J728" s="31"/>
+      <c r="K728" s="31"/>
       <c r="M728" s="31"/>
     </row>
     <row r="729">
@@ -6414,6 +7157,7 @@
       <c r="F729" s="31"/>
       <c r="I729" s="31"/>
       <c r="J729" s="31"/>
+      <c r="K729" s="31"/>
       <c r="M729" s="31"/>
     </row>
     <row r="730">
@@ -6421,6 +7165,7 @@
       <c r="F730" s="31"/>
       <c r="I730" s="31"/>
       <c r="J730" s="31"/>
+      <c r="K730" s="31"/>
       <c r="M730" s="31"/>
     </row>
     <row r="731">
@@ -6428,6 +7173,7 @@
       <c r="F731" s="31"/>
       <c r="I731" s="31"/>
       <c r="J731" s="31"/>
+      <c r="K731" s="31"/>
       <c r="M731" s="31"/>
     </row>
     <row r="732">
@@ -6435,6 +7181,7 @@
       <c r="F732" s="31"/>
       <c r="I732" s="31"/>
       <c r="J732" s="31"/>
+      <c r="K732" s="31"/>
       <c r="M732" s="31"/>
     </row>
     <row r="733">
@@ -6442,6 +7189,7 @@
       <c r="F733" s="31"/>
       <c r="I733" s="31"/>
       <c r="J733" s="31"/>
+      <c r="K733" s="31"/>
       <c r="M733" s="31"/>
     </row>
     <row r="734">
@@ -6449,6 +7197,7 @@
       <c r="F734" s="31"/>
       <c r="I734" s="31"/>
       <c r="J734" s="31"/>
+      <c r="K734" s="31"/>
       <c r="M734" s="31"/>
     </row>
     <row r="735">
@@ -6456,6 +7205,7 @@
       <c r="F735" s="31"/>
       <c r="I735" s="31"/>
       <c r="J735" s="31"/>
+      <c r="K735" s="31"/>
       <c r="M735" s="31"/>
     </row>
     <row r="736">
@@ -6463,6 +7213,7 @@
       <c r="F736" s="31"/>
       <c r="I736" s="31"/>
       <c r="J736" s="31"/>
+      <c r="K736" s="31"/>
       <c r="M736" s="31"/>
     </row>
     <row r="737">
@@ -6470,6 +7221,7 @@
       <c r="F737" s="31"/>
       <c r="I737" s="31"/>
       <c r="J737" s="31"/>
+      <c r="K737" s="31"/>
       <c r="M737" s="31"/>
     </row>
     <row r="738">
@@ -6477,6 +7229,7 @@
       <c r="F738" s="31"/>
       <c r="I738" s="31"/>
       <c r="J738" s="31"/>
+      <c r="K738" s="31"/>
       <c r="M738" s="31"/>
     </row>
     <row r="739">
@@ -6484,6 +7237,7 @@
       <c r="F739" s="31"/>
       <c r="I739" s="31"/>
       <c r="J739" s="31"/>
+      <c r="K739" s="31"/>
       <c r="M739" s="31"/>
     </row>
     <row r="740">
@@ -6491,6 +7245,7 @@
       <c r="F740" s="31"/>
       <c r="I740" s="31"/>
       <c r="J740" s="31"/>
+      <c r="K740" s="31"/>
       <c r="M740" s="31"/>
     </row>
     <row r="741">
@@ -6498,6 +7253,7 @@
       <c r="F741" s="31"/>
       <c r="I741" s="31"/>
       <c r="J741" s="31"/>
+      <c r="K741" s="31"/>
       <c r="M741" s="31"/>
     </row>
     <row r="742">
@@ -6505,6 +7261,7 @@
       <c r="F742" s="31"/>
       <c r="I742" s="31"/>
       <c r="J742" s="31"/>
+      <c r="K742" s="31"/>
       <c r="M742" s="31"/>
     </row>
     <row r="743">
@@ -6512,6 +7269,7 @@
       <c r="F743" s="31"/>
       <c r="I743" s="31"/>
       <c r="J743" s="31"/>
+      <c r="K743" s="31"/>
       <c r="M743" s="31"/>
     </row>
     <row r="744">
@@ -6519,6 +7277,7 @@
       <c r="F744" s="31"/>
       <c r="I744" s="31"/>
       <c r="J744" s="31"/>
+      <c r="K744" s="31"/>
       <c r="M744" s="31"/>
     </row>
     <row r="745">
@@ -6526,6 +7285,7 @@
       <c r="F745" s="31"/>
       <c r="I745" s="31"/>
       <c r="J745" s="31"/>
+      <c r="K745" s="31"/>
       <c r="M745" s="31"/>
     </row>
     <row r="746">
@@ -6533,6 +7293,7 @@
       <c r="F746" s="31"/>
       <c r="I746" s="31"/>
       <c r="J746" s="31"/>
+      <c r="K746" s="31"/>
       <c r="M746" s="31"/>
     </row>
     <row r="747">
@@ -6540,6 +7301,7 @@
       <c r="F747" s="31"/>
       <c r="I747" s="31"/>
       <c r="J747" s="31"/>
+      <c r="K747" s="31"/>
       <c r="M747" s="31"/>
     </row>
     <row r="748">
@@ -6547,6 +7309,7 @@
       <c r="F748" s="31"/>
       <c r="I748" s="31"/>
       <c r="J748" s="31"/>
+      <c r="K748" s="31"/>
       <c r="M748" s="31"/>
     </row>
     <row r="749">
@@ -6554,6 +7317,7 @@
       <c r="F749" s="31"/>
       <c r="I749" s="31"/>
       <c r="J749" s="31"/>
+      <c r="K749" s="31"/>
       <c r="M749" s="31"/>
     </row>
     <row r="750">
@@ -6561,6 +7325,7 @@
       <c r="F750" s="31"/>
       <c r="I750" s="31"/>
       <c r="J750" s="31"/>
+      <c r="K750" s="31"/>
       <c r="M750" s="31"/>
     </row>
     <row r="751">
@@ -6568,6 +7333,7 @@
       <c r="F751" s="31"/>
       <c r="I751" s="31"/>
       <c r="J751" s="31"/>
+      <c r="K751" s="31"/>
       <c r="M751" s="31"/>
     </row>
     <row r="752">
@@ -6575,6 +7341,7 @@
       <c r="F752" s="31"/>
       <c r="I752" s="31"/>
       <c r="J752" s="31"/>
+      <c r="K752" s="31"/>
       <c r="M752" s="31"/>
     </row>
     <row r="753">
@@ -6582,6 +7349,7 @@
       <c r="F753" s="31"/>
       <c r="I753" s="31"/>
       <c r="J753" s="31"/>
+      <c r="K753" s="31"/>
       <c r="M753" s="31"/>
     </row>
     <row r="754">
@@ -6589,6 +7357,7 @@
       <c r="F754" s="31"/>
       <c r="I754" s="31"/>
       <c r="J754" s="31"/>
+      <c r="K754" s="31"/>
       <c r="M754" s="31"/>
     </row>
     <row r="755">
@@ -6596,6 +7365,7 @@
       <c r="F755" s="31"/>
       <c r="I755" s="31"/>
       <c r="J755" s="31"/>
+      <c r="K755" s="31"/>
       <c r="M755" s="31"/>
     </row>
     <row r="756">
@@ -6603,6 +7373,7 @@
       <c r="F756" s="31"/>
       <c r="I756" s="31"/>
       <c r="J756" s="31"/>
+      <c r="K756" s="31"/>
       <c r="M756" s="31"/>
     </row>
     <row r="757">
@@ -6610,6 +7381,7 @@
       <c r="F757" s="31"/>
       <c r="I757" s="31"/>
       <c r="J757" s="31"/>
+      <c r="K757" s="31"/>
       <c r="M757" s="31"/>
     </row>
     <row r="758">
@@ -6617,6 +7389,7 @@
       <c r="F758" s="31"/>
       <c r="I758" s="31"/>
       <c r="J758" s="31"/>
+      <c r="K758" s="31"/>
       <c r="M758" s="31"/>
     </row>
     <row r="759">
@@ -6624,6 +7397,7 @@
       <c r="F759" s="31"/>
       <c r="I759" s="31"/>
       <c r="J759" s="31"/>
+      <c r="K759" s="31"/>
       <c r="M759" s="31"/>
     </row>
     <row r="760">
@@ -6631,6 +7405,7 @@
       <c r="F760" s="31"/>
       <c r="I760" s="31"/>
       <c r="J760" s="31"/>
+      <c r="K760" s="31"/>
       <c r="M760" s="31"/>
     </row>
     <row r="761">
@@ -6638,6 +7413,7 @@
       <c r="F761" s="31"/>
       <c r="I761" s="31"/>
       <c r="J761" s="31"/>
+      <c r="K761" s="31"/>
       <c r="M761" s="31"/>
     </row>
     <row r="762">
@@ -6645,6 +7421,7 @@
       <c r="F762" s="31"/>
       <c r="I762" s="31"/>
       <c r="J762" s="31"/>
+      <c r="K762" s="31"/>
       <c r="M762" s="31"/>
     </row>
     <row r="763">
@@ -6652,6 +7429,7 @@
       <c r="F763" s="31"/>
       <c r="I763" s="31"/>
       <c r="J763" s="31"/>
+      <c r="K763" s="31"/>
       <c r="M763" s="31"/>
     </row>
     <row r="764">
@@ -6659,6 +7437,7 @@
       <c r="F764" s="31"/>
       <c r="I764" s="31"/>
       <c r="J764" s="31"/>
+      <c r="K764" s="31"/>
       <c r="M764" s="31"/>
     </row>
     <row r="765">
@@ -6666,6 +7445,7 @@
       <c r="F765" s="31"/>
       <c r="I765" s="31"/>
       <c r="J765" s="31"/>
+      <c r="K765" s="31"/>
       <c r="M765" s="31"/>
     </row>
     <row r="766">
@@ -6673,6 +7453,7 @@
       <c r="F766" s="31"/>
       <c r="I766" s="31"/>
       <c r="J766" s="31"/>
+      <c r="K766" s="31"/>
       <c r="M766" s="31"/>
     </row>
     <row r="767">
@@ -6680,6 +7461,7 @@
       <c r="F767" s="31"/>
       <c r="I767" s="31"/>
       <c r="J767" s="31"/>
+      <c r="K767" s="31"/>
       <c r="M767" s="31"/>
     </row>
     <row r="768">
@@ -6687,6 +7469,7 @@
       <c r="F768" s="31"/>
       <c r="I768" s="31"/>
       <c r="J768" s="31"/>
+      <c r="K768" s="31"/>
       <c r="M768" s="31"/>
     </row>
     <row r="769">
@@ -6694,6 +7477,7 @@
       <c r="F769" s="31"/>
       <c r="I769" s="31"/>
       <c r="J769" s="31"/>
+      <c r="K769" s="31"/>
       <c r="M769" s="31"/>
     </row>
     <row r="770">
@@ -6701,6 +7485,7 @@
       <c r="F770" s="31"/>
       <c r="I770" s="31"/>
       <c r="J770" s="31"/>
+      <c r="K770" s="31"/>
       <c r="M770" s="31"/>
     </row>
     <row r="771">
@@ -6708,6 +7493,7 @@
       <c r="F771" s="31"/>
       <c r="I771" s="31"/>
       <c r="J771" s="31"/>
+      <c r="K771" s="31"/>
       <c r="M771" s="31"/>
     </row>
     <row r="772">
@@ -6715,6 +7501,7 @@
       <c r="F772" s="31"/>
       <c r="I772" s="31"/>
       <c r="J772" s="31"/>
+      <c r="K772" s="31"/>
       <c r="M772" s="31"/>
     </row>
     <row r="773">
@@ -6722,6 +7509,7 @@
       <c r="F773" s="31"/>
       <c r="I773" s="31"/>
       <c r="J773" s="31"/>
+      <c r="K773" s="31"/>
       <c r="M773" s="31"/>
     </row>
     <row r="774">
@@ -6729,6 +7517,7 @@
       <c r="F774" s="31"/>
       <c r="I774" s="31"/>
       <c r="J774" s="31"/>
+      <c r="K774" s="31"/>
       <c r="M774" s="31"/>
     </row>
     <row r="775">
@@ -6736,6 +7525,7 @@
       <c r="F775" s="31"/>
       <c r="I775" s="31"/>
       <c r="J775" s="31"/>
+      <c r="K775" s="31"/>
       <c r="M775" s="31"/>
     </row>
     <row r="776">
@@ -6743,6 +7533,7 @@
       <c r="F776" s="31"/>
       <c r="I776" s="31"/>
       <c r="J776" s="31"/>
+      <c r="K776" s="31"/>
       <c r="M776" s="31"/>
     </row>
     <row r="777">
@@ -6750,6 +7541,7 @@
       <c r="F777" s="31"/>
       <c r="I777" s="31"/>
       <c r="J777" s="31"/>
+      <c r="K777" s="31"/>
       <c r="M777" s="31"/>
     </row>
     <row r="778">
@@ -6757,6 +7549,7 @@
       <c r="F778" s="31"/>
       <c r="I778" s="31"/>
       <c r="J778" s="31"/>
+      <c r="K778" s="31"/>
       <c r="M778" s="31"/>
     </row>
     <row r="779">
@@ -6764,6 +7557,7 @@
       <c r="F779" s="31"/>
       <c r="I779" s="31"/>
       <c r="J779" s="31"/>
+      <c r="K779" s="31"/>
       <c r="M779" s="31"/>
     </row>
     <row r="780">
@@ -6771,6 +7565,7 @@
       <c r="F780" s="31"/>
       <c r="I780" s="31"/>
       <c r="J780" s="31"/>
+      <c r="K780" s="31"/>
       <c r="M780" s="31"/>
     </row>
     <row r="781">
@@ -6778,6 +7573,7 @@
       <c r="F781" s="31"/>
       <c r="I781" s="31"/>
       <c r="J781" s="31"/>
+      <c r="K781" s="31"/>
       <c r="M781" s="31"/>
     </row>
     <row r="782">
@@ -6785,6 +7581,7 @@
       <c r="F782" s="31"/>
       <c r="I782" s="31"/>
       <c r="J782" s="31"/>
+      <c r="K782" s="31"/>
       <c r="M782" s="31"/>
     </row>
     <row r="783">
@@ -6792,6 +7589,7 @@
       <c r="F783" s="31"/>
       <c r="I783" s="31"/>
       <c r="J783" s="31"/>
+      <c r="K783" s="31"/>
       <c r="M783" s="31"/>
     </row>
     <row r="784">
@@ -6799,6 +7597,7 @@
       <c r="F784" s="31"/>
       <c r="I784" s="31"/>
       <c r="J784" s="31"/>
+      <c r="K784" s="31"/>
       <c r="M784" s="31"/>
     </row>
     <row r="785">
@@ -6806,6 +7605,7 @@
       <c r="F785" s="31"/>
       <c r="I785" s="31"/>
       <c r="J785" s="31"/>
+      <c r="K785" s="31"/>
       <c r="M785" s="31"/>
     </row>
     <row r="786">
@@ -6813,6 +7613,7 @@
       <c r="F786" s="31"/>
       <c r="I786" s="31"/>
       <c r="J786" s="31"/>
+      <c r="K786" s="31"/>
       <c r="M786" s="31"/>
     </row>
     <row r="787">
@@ -6820,6 +7621,7 @@
       <c r="F787" s="31"/>
       <c r="I787" s="31"/>
       <c r="J787" s="31"/>
+      <c r="K787" s="31"/>
       <c r="M787" s="31"/>
     </row>
     <row r="788">
@@ -6827,6 +7629,7 @@
       <c r="F788" s="31"/>
       <c r="I788" s="31"/>
       <c r="J788" s="31"/>
+      <c r="K788" s="31"/>
       <c r="M788" s="31"/>
     </row>
     <row r="789">
@@ -6834,6 +7637,7 @@
       <c r="F789" s="31"/>
       <c r="I789" s="31"/>
       <c r="J789" s="31"/>
+      <c r="K789" s="31"/>
       <c r="M789" s="31"/>
     </row>
     <row r="790">
@@ -6841,6 +7645,7 @@
       <c r="F790" s="31"/>
       <c r="I790" s="31"/>
       <c r="J790" s="31"/>
+      <c r="K790" s="31"/>
       <c r="M790" s="31"/>
     </row>
     <row r="791">
@@ -6848,6 +7653,7 @@
       <c r="F791" s="31"/>
       <c r="I791" s="31"/>
       <c r="J791" s="31"/>
+      <c r="K791" s="31"/>
       <c r="M791" s="31"/>
     </row>
     <row r="792">
@@ -6855,6 +7661,7 @@
       <c r="F792" s="31"/>
       <c r="I792" s="31"/>
       <c r="J792" s="31"/>
+      <c r="K792" s="31"/>
       <c r="M792" s="31"/>
     </row>
     <row r="793">
@@ -6862,6 +7669,7 @@
       <c r="F793" s="31"/>
       <c r="I793" s="31"/>
       <c r="J793" s="31"/>
+      <c r="K793" s="31"/>
       <c r="M793" s="31"/>
     </row>
     <row r="794">
@@ -6869,6 +7677,7 @@
       <c r="F794" s="31"/>
       <c r="I794" s="31"/>
       <c r="J794" s="31"/>
+      <c r="K794" s="31"/>
       <c r="M794" s="31"/>
     </row>
     <row r="795">
@@ -6876,6 +7685,7 @@
       <c r="F795" s="31"/>
       <c r="I795" s="31"/>
       <c r="J795" s="31"/>
+      <c r="K795" s="31"/>
       <c r="M795" s="31"/>
     </row>
     <row r="796">
@@ -6883,6 +7693,7 @@
       <c r="F796" s="31"/>
       <c r="I796" s="31"/>
       <c r="J796" s="31"/>
+      <c r="K796" s="31"/>
       <c r="M796" s="31"/>
     </row>
     <row r="797">
@@ -6890,6 +7701,7 @@
       <c r="F797" s="31"/>
       <c r="I797" s="31"/>
       <c r="J797" s="31"/>
+      <c r="K797" s="31"/>
       <c r="M797" s="31"/>
     </row>
     <row r="798">
@@ -6897,6 +7709,7 @@
       <c r="F798" s="31"/>
       <c r="I798" s="31"/>
       <c r="J798" s="31"/>
+      <c r="K798" s="31"/>
       <c r="M798" s="31"/>
     </row>
     <row r="799">
@@ -6904,6 +7717,7 @@
       <c r="F799" s="31"/>
       <c r="I799" s="31"/>
       <c r="J799" s="31"/>
+      <c r="K799" s="31"/>
       <c r="M799" s="31"/>
     </row>
     <row r="800">
@@ -6911,6 +7725,7 @@
       <c r="F800" s="31"/>
       <c r="I800" s="31"/>
       <c r="J800" s="31"/>
+      <c r="K800" s="31"/>
       <c r="M800" s="31"/>
     </row>
     <row r="801">
@@ -6918,6 +7733,7 @@
       <c r="F801" s="31"/>
       <c r="I801" s="31"/>
       <c r="J801" s="31"/>
+      <c r="K801" s="31"/>
       <c r="M801" s="31"/>
     </row>
     <row r="802">
@@ -6925,6 +7741,7 @@
       <c r="F802" s="31"/>
       <c r="I802" s="31"/>
       <c r="J802" s="31"/>
+      <c r="K802" s="31"/>
       <c r="M802" s="31"/>
     </row>
     <row r="803">
@@ -6932,6 +7749,7 @@
       <c r="F803" s="31"/>
       <c r="I803" s="31"/>
       <c r="J803" s="31"/>
+      <c r="K803" s="31"/>
       <c r="M803" s="31"/>
     </row>
     <row r="804">
@@ -6939,6 +7757,7 @@
       <c r="F804" s="31"/>
       <c r="I804" s="31"/>
       <c r="J804" s="31"/>
+      <c r="K804" s="31"/>
       <c r="M804" s="31"/>
     </row>
     <row r="805">
@@ -6946,6 +7765,7 @@
       <c r="F805" s="31"/>
       <c r="I805" s="31"/>
       <c r="J805" s="31"/>
+      <c r="K805" s="31"/>
       <c r="M805" s="31"/>
     </row>
     <row r="806">
@@ -6953,6 +7773,7 @@
       <c r="F806" s="31"/>
       <c r="I806" s="31"/>
       <c r="J806" s="31"/>
+      <c r="K806" s="31"/>
       <c r="M806" s="31"/>
     </row>
     <row r="807">
@@ -6960,6 +7781,7 @@
       <c r="F807" s="31"/>
       <c r="I807" s="31"/>
       <c r="J807" s="31"/>
+      <c r="K807" s="31"/>
       <c r="M807" s="31"/>
     </row>
     <row r="808">
@@ -6967,6 +7789,7 @@
       <c r="F808" s="31"/>
       <c r="I808" s="31"/>
       <c r="J808" s="31"/>
+      <c r="K808" s="31"/>
       <c r="M808" s="31"/>
     </row>
     <row r="809">
@@ -6974,6 +7797,7 @@
       <c r="F809" s="31"/>
       <c r="I809" s="31"/>
       <c r="J809" s="31"/>
+      <c r="K809" s="31"/>
       <c r="M809" s="31"/>
     </row>
     <row r="810">
@@ -6981,6 +7805,7 @@
       <c r="F810" s="31"/>
       <c r="I810" s="31"/>
       <c r="J810" s="31"/>
+      <c r="K810" s="31"/>
       <c r="M810" s="31"/>
     </row>
     <row r="811">
@@ -6988,6 +7813,7 @@
       <c r="F811" s="31"/>
       <c r="I811" s="31"/>
       <c r="J811" s="31"/>
+      <c r="K811" s="31"/>
       <c r="M811" s="31"/>
     </row>
     <row r="812">
@@ -6995,6 +7821,7 @@
       <c r="F812" s="31"/>
       <c r="I812" s="31"/>
       <c r="J812" s="31"/>
+      <c r="K812" s="31"/>
       <c r="M812" s="31"/>
     </row>
     <row r="813">
@@ -7002,6 +7829,7 @@
       <c r="F813" s="31"/>
       <c r="I813" s="31"/>
       <c r="J813" s="31"/>
+      <c r="K813" s="31"/>
       <c r="M813" s="31"/>
     </row>
     <row r="814">
@@ -7009,6 +7837,7 @@
       <c r="F814" s="31"/>
       <c r="I814" s="31"/>
       <c r="J814" s="31"/>
+      <c r="K814" s="31"/>
       <c r="M814" s="31"/>
     </row>
     <row r="815">
@@ -7016,6 +7845,7 @@
       <c r="F815" s="31"/>
       <c r="I815" s="31"/>
       <c r="J815" s="31"/>
+      <c r="K815" s="31"/>
       <c r="M815" s="31"/>
     </row>
     <row r="816">
@@ -7023,6 +7853,7 @@
       <c r="F816" s="31"/>
       <c r="I816" s="31"/>
       <c r="J816" s="31"/>
+      <c r="K816" s="31"/>
       <c r="M816" s="31"/>
     </row>
     <row r="817">
@@ -7030,6 +7861,7 @@
       <c r="F817" s="31"/>
       <c r="I817" s="31"/>
       <c r="J817" s="31"/>
+      <c r="K817" s="31"/>
       <c r="M817" s="31"/>
     </row>
     <row r="818">
@@ -7037,6 +7869,7 @@
       <c r="F818" s="31"/>
       <c r="I818" s="31"/>
       <c r="J818" s="31"/>
+      <c r="K818" s="31"/>
       <c r="M818" s="31"/>
     </row>
     <row r="819">
@@ -7044,6 +7877,7 @@
       <c r="F819" s="31"/>
       <c r="I819" s="31"/>
       <c r="J819" s="31"/>
+      <c r="K819" s="31"/>
       <c r="M819" s="31"/>
     </row>
     <row r="820">
@@ -7051,6 +7885,7 @@
       <c r="F820" s="31"/>
       <c r="I820" s="31"/>
       <c r="J820" s="31"/>
+      <c r="K820" s="31"/>
       <c r="M820" s="31"/>
     </row>
     <row r="821">
@@ -7058,6 +7893,7 @@
       <c r="F821" s="31"/>
       <c r="I821" s="31"/>
       <c r="J821" s="31"/>
+      <c r="K821" s="31"/>
       <c r="M821" s="31"/>
     </row>
     <row r="822">
@@ -7065,6 +7901,7 @@
       <c r="F822" s="31"/>
       <c r="I822" s="31"/>
       <c r="J822" s="31"/>
+      <c r="K822" s="31"/>
       <c r="M822" s="31"/>
     </row>
     <row r="823">
@@ -7072,6 +7909,7 @@
       <c r="F823" s="31"/>
       <c r="I823" s="31"/>
       <c r="J823" s="31"/>
+      <c r="K823" s="31"/>
       <c r="M823" s="31"/>
     </row>
     <row r="824">
@@ -7079,6 +7917,7 @@
       <c r="F824" s="31"/>
       <c r="I824" s="31"/>
       <c r="J824" s="31"/>
+      <c r="K824" s="31"/>
       <c r="M824" s="31"/>
     </row>
     <row r="825">
@@ -7086,6 +7925,7 @@
       <c r="F825" s="31"/>
       <c r="I825" s="31"/>
       <c r="J825" s="31"/>
+      <c r="K825" s="31"/>
       <c r="M825" s="31"/>
     </row>
     <row r="826">
@@ -7093,6 +7933,7 @@
       <c r="F826" s="31"/>
       <c r="I826" s="31"/>
       <c r="J826" s="31"/>
+      <c r="K826" s="31"/>
       <c r="M826" s="31"/>
     </row>
     <row r="827">
@@ -7100,6 +7941,7 @@
       <c r="F827" s="31"/>
       <c r="I827" s="31"/>
       <c r="J827" s="31"/>
+      <c r="K827" s="31"/>
       <c r="M827" s="31"/>
     </row>
     <row r="828">
@@ -7107,6 +7949,7 @@
       <c r="F828" s="31"/>
       <c r="I828" s="31"/>
       <c r="J828" s="31"/>
+      <c r="K828" s="31"/>
       <c r="M828" s="31"/>
     </row>
     <row r="829">
@@ -7114,6 +7957,7 @@
       <c r="F829" s="31"/>
       <c r="I829" s="31"/>
       <c r="J829" s="31"/>
+      <c r="K829" s="31"/>
       <c r="M829" s="31"/>
     </row>
     <row r="830">
@@ -7121,6 +7965,7 @@
       <c r="F830" s="31"/>
       <c r="I830" s="31"/>
       <c r="J830" s="31"/>
+      <c r="K830" s="31"/>
       <c r="M830" s="31"/>
     </row>
     <row r="831">
@@ -7128,6 +7973,7 @@
       <c r="F831" s="31"/>
       <c r="I831" s="31"/>
       <c r="J831" s="31"/>
+      <c r="K831" s="31"/>
       <c r="M831" s="31"/>
     </row>
     <row r="832">
@@ -7135,6 +7981,7 @@
       <c r="F832" s="31"/>
       <c r="I832" s="31"/>
       <c r="J832" s="31"/>
+      <c r="K832" s="31"/>
       <c r="M832" s="31"/>
     </row>
     <row r="833">
@@ -7142,6 +7989,7 @@
       <c r="F833" s="31"/>
       <c r="I833" s="31"/>
       <c r="J833" s="31"/>
+      <c r="K833" s="31"/>
       <c r="M833" s="31"/>
     </row>
     <row r="834">
@@ -7149,6 +7997,7 @@
       <c r="F834" s="31"/>
       <c r="I834" s="31"/>
       <c r="J834" s="31"/>
+      <c r="K834" s="31"/>
       <c r="M834" s="31"/>
     </row>
     <row r="835">
@@ -7156,6 +8005,7 @@
       <c r="F835" s="31"/>
       <c r="I835" s="31"/>
       <c r="J835" s="31"/>
+      <c r="K835" s="31"/>
       <c r="M835" s="31"/>
     </row>
     <row r="836">
@@ -7163,6 +8013,7 @@
       <c r="F836" s="31"/>
       <c r="I836" s="31"/>
       <c r="J836" s="31"/>
+      <c r="K836" s="31"/>
       <c r="M836" s="31"/>
     </row>
     <row r="837">
@@ -7170,6 +8021,7 @@
       <c r="F837" s="31"/>
       <c r="I837" s="31"/>
       <c r="J837" s="31"/>
+      <c r="K837" s="31"/>
       <c r="M837" s="31"/>
     </row>
     <row r="838">
@@ -7177,6 +8029,7 @@
       <c r="F838" s="31"/>
       <c r="I838" s="31"/>
       <c r="J838" s="31"/>
+      <c r="K838" s="31"/>
       <c r="M838" s="31"/>
     </row>
     <row r="839">
@@ -7184,6 +8037,7 @@
       <c r="F839" s="31"/>
       <c r="I839" s="31"/>
       <c r="J839" s="31"/>
+      <c r="K839" s="31"/>
       <c r="M839" s="31"/>
     </row>
     <row r="840">
@@ -7191,6 +8045,7 @@
       <c r="F840" s="31"/>
       <c r="I840" s="31"/>
       <c r="J840" s="31"/>
+      <c r="K840" s="31"/>
       <c r="M840" s="31"/>
     </row>
     <row r="841">
@@ -7198,6 +8053,7 @@
       <c r="F841" s="31"/>
       <c r="I841" s="31"/>
       <c r="J841" s="31"/>
+      <c r="K841" s="31"/>
       <c r="M841" s="31"/>
     </row>
     <row r="842">
@@ -7205,6 +8061,7 @@
       <c r="F842" s="31"/>
       <c r="I842" s="31"/>
       <c r="J842" s="31"/>
+      <c r="K842" s="31"/>
       <c r="M842" s="31"/>
     </row>
     <row r="843">
@@ -7212,6 +8069,7 @@
       <c r="F843" s="31"/>
       <c r="I843" s="31"/>
       <c r="J843" s="31"/>
+      <c r="K843" s="31"/>
       <c r="M843" s="31"/>
     </row>
     <row r="844">
@@ -7219,6 +8077,7 @@
       <c r="F844" s="31"/>
       <c r="I844" s="31"/>
       <c r="J844" s="31"/>
+      <c r="K844" s="31"/>
       <c r="M844" s="31"/>
     </row>
     <row r="845">
@@ -7226,6 +8085,7 @@
       <c r="F845" s="31"/>
       <c r="I845" s="31"/>
       <c r="J845" s="31"/>
+      <c r="K845" s="31"/>
       <c r="M845" s="31"/>
     </row>
     <row r="846">
@@ -7233,6 +8093,7 @@
       <c r="F846" s="31"/>
       <c r="I846" s="31"/>
       <c r="J846" s="31"/>
+      <c r="K846" s="31"/>
       <c r="M846" s="31"/>
     </row>
     <row r="847">
@@ -7240,6 +8101,7 @@
       <c r="F847" s="31"/>
       <c r="I847" s="31"/>
       <c r="J847" s="31"/>
+      <c r="K847" s="31"/>
       <c r="M847" s="31"/>
     </row>
     <row r="848">
@@ -7247,6 +8109,7 @@
       <c r="F848" s="31"/>
       <c r="I848" s="31"/>
       <c r="J848" s="31"/>
+      <c r="K848" s="31"/>
       <c r="M848" s="31"/>
     </row>
     <row r="849">
@@ -7254,6 +8117,7 @@
       <c r="F849" s="31"/>
       <c r="I849" s="31"/>
       <c r="J849" s="31"/>
+      <c r="K849" s="31"/>
       <c r="M849" s="31"/>
     </row>
     <row r="850">
@@ -7261,6 +8125,7 @@
       <c r="F850" s="31"/>
       <c r="I850" s="31"/>
       <c r="J850" s="31"/>
+      <c r="K850" s="31"/>
       <c r="M850" s="31"/>
     </row>
     <row r="851">
@@ -7268,6 +8133,7 @@
       <c r="F851" s="31"/>
       <c r="I851" s="31"/>
       <c r="J851" s="31"/>
+      <c r="K851" s="31"/>
       <c r="M851" s="31"/>
     </row>
     <row r="852">
@@ -7275,6 +8141,7 @@
       <c r="F852" s="31"/>
       <c r="I852" s="31"/>
       <c r="J852" s="31"/>
+      <c r="K852" s="31"/>
       <c r="M852" s="31"/>
     </row>
     <row r="853">
@@ -7282,6 +8149,7 @@
       <c r="F853" s="31"/>
       <c r="I853" s="31"/>
       <c r="J853" s="31"/>
+      <c r="K853" s="31"/>
       <c r="M853" s="31"/>
     </row>
     <row r="854">
@@ -7289,6 +8157,7 @@
       <c r="F854" s="31"/>
       <c r="I854" s="31"/>
       <c r="J854" s="31"/>
+      <c r="K854" s="31"/>
       <c r="M854" s="31"/>
     </row>
     <row r="855">
@@ -7296,6 +8165,7 @@
       <c r="F855" s="31"/>
       <c r="I855" s="31"/>
       <c r="J855" s="31"/>
+      <c r="K855" s="31"/>
       <c r="M855" s="31"/>
     </row>
     <row r="856">
@@ -7303,6 +8173,7 @@
       <c r="F856" s="31"/>
       <c r="I856" s="31"/>
       <c r="J856" s="31"/>
+      <c r="K856" s="31"/>
       <c r="M856" s="31"/>
     </row>
     <row r="857">
@@ -7310,6 +8181,7 @@
       <c r="F857" s="31"/>
       <c r="I857" s="31"/>
       <c r="J857" s="31"/>
+      <c r="K857" s="31"/>
       <c r="M857" s="31"/>
     </row>
     <row r="858">
@@ -7317,6 +8189,7 @@
       <c r="F858" s="31"/>
       <c r="I858" s="31"/>
       <c r="J858" s="31"/>
+      <c r="K858" s="31"/>
       <c r="M858" s="31"/>
     </row>
     <row r="859">
@@ -7324,6 +8197,7 @@
       <c r="F859" s="31"/>
       <c r="I859" s="31"/>
       <c r="J859" s="31"/>
+      <c r="K859" s="31"/>
       <c r="M859" s="31"/>
     </row>
     <row r="860">
@@ -7331,6 +8205,7 @@
       <c r="F860" s="31"/>
       <c r="I860" s="31"/>
       <c r="J860" s="31"/>
+      <c r="K860" s="31"/>
       <c r="M860" s="31"/>
     </row>
     <row r="861">
@@ -7338,6 +8213,7 @@
       <c r="F861" s="31"/>
       <c r="I861" s="31"/>
       <c r="J861" s="31"/>
+      <c r="K861" s="31"/>
       <c r="M861" s="31"/>
     </row>
     <row r="862">
@@ -7345,6 +8221,7 @@
       <c r="F862" s="31"/>
       <c r="I862" s="31"/>
       <c r="J862" s="31"/>
+      <c r="K862" s="31"/>
       <c r="M862" s="31"/>
     </row>
     <row r="863">
@@ -7352,6 +8229,7 @@
       <c r="F863" s="31"/>
       <c r="I863" s="31"/>
       <c r="J863" s="31"/>
+      <c r="K863" s="31"/>
       <c r="M863" s="31"/>
     </row>
     <row r="864">
@@ -7359,6 +8237,7 @@
       <c r="F864" s="31"/>
       <c r="I864" s="31"/>
       <c r="J864" s="31"/>
+      <c r="K864" s="31"/>
       <c r="M864" s="31"/>
     </row>
     <row r="865">
@@ -7366,6 +8245,7 @@
       <c r="F865" s="31"/>
       <c r="I865" s="31"/>
       <c r="J865" s="31"/>
+      <c r="K865" s="31"/>
       <c r="M865" s="31"/>
     </row>
     <row r="866">
@@ -7373,6 +8253,7 @@
       <c r="F866" s="31"/>
       <c r="I866" s="31"/>
       <c r="J866" s="31"/>
+      <c r="K866" s="31"/>
       <c r="M866" s="31"/>
     </row>
     <row r="867">
@@ -7380,6 +8261,7 @@
       <c r="F867" s="31"/>
       <c r="I867" s="31"/>
       <c r="J867" s="31"/>
+      <c r="K867" s="31"/>
       <c r="M867" s="31"/>
     </row>
     <row r="868">
@@ -7387,6 +8269,7 @@
       <c r="F868" s="31"/>
       <c r="I868" s="31"/>
       <c r="J868" s="31"/>
+      <c r="K868" s="31"/>
       <c r="M868" s="31"/>
     </row>
     <row r="869">
@@ -7394,6 +8277,7 @@
       <c r="F869" s="31"/>
       <c r="I869" s="31"/>
       <c r="J869" s="31"/>
+      <c r="K869" s="31"/>
       <c r="M869" s="31"/>
     </row>
     <row r="870">
@@ -7401,6 +8285,7 @@
       <c r="F870" s="31"/>
       <c r="I870" s="31"/>
       <c r="J870" s="31"/>
+      <c r="K870" s="31"/>
       <c r="M870" s="31"/>
     </row>
     <row r="871">
@@ -7408,6 +8293,7 @@
       <c r="F871" s="31"/>
       <c r="I871" s="31"/>
       <c r="J871" s="31"/>
+      <c r="K871" s="31"/>
       <c r="M871" s="31"/>
     </row>
     <row r="872">
@@ -7415,6 +8301,7 @@
       <c r="F872" s="31"/>
       <c r="I872" s="31"/>
       <c r="J872" s="31"/>
+      <c r="K872" s="31"/>
       <c r="M872" s="31"/>
     </row>
     <row r="873">
@@ -7422,6 +8309,7 @@
       <c r="F873" s="31"/>
       <c r="I873" s="31"/>
       <c r="J873" s="31"/>
+      <c r="K873" s="31"/>
       <c r="M873" s="31"/>
     </row>
     <row r="874">
@@ -7429,6 +8317,7 @@
       <c r="F874" s="31"/>
       <c r="I874" s="31"/>
       <c r="J874" s="31"/>
+      <c r="K874" s="31"/>
       <c r="M874" s="31"/>
     </row>
     <row r="875">
@@ -7436,6 +8325,7 @@
       <c r="F875" s="31"/>
       <c r="I875" s="31"/>
       <c r="J875" s="31"/>
+      <c r="K875" s="31"/>
       <c r="M875" s="31"/>
     </row>
     <row r="876">
@@ -7443,6 +8333,7 @@
       <c r="F876" s="31"/>
       <c r="I876" s="31"/>
       <c r="J876" s="31"/>
+      <c r="K876" s="31"/>
       <c r="M876" s="31"/>
     </row>
     <row r="877">
@@ -7450,6 +8341,7 @@
       <c r="F877" s="31"/>
       <c r="I877" s="31"/>
       <c r="J877" s="31"/>
+      <c r="K877" s="31"/>
       <c r="M877" s="31"/>
     </row>
     <row r="878">
@@ -7457,6 +8349,7 @@
       <c r="F878" s="31"/>
       <c r="I878" s="31"/>
       <c r="J878" s="31"/>
+      <c r="K878" s="31"/>
       <c r="M878" s="31"/>
     </row>
     <row r="879">
@@ -7464,6 +8357,7 @@
       <c r="F879" s="31"/>
       <c r="I879" s="31"/>
       <c r="J879" s="31"/>
+      <c r="K879" s="31"/>
       <c r="M879" s="31"/>
     </row>
     <row r="880">
@@ -7471,6 +8365,7 @@
       <c r="F880" s="31"/>
       <c r="I880" s="31"/>
       <c r="J880" s="31"/>
+      <c r="K880" s="31"/>
       <c r="M880" s="31"/>
     </row>
     <row r="881">
@@ -7478,6 +8373,7 @@
       <c r="F881" s="31"/>
       <c r="I881" s="31"/>
       <c r="J881" s="31"/>
+      <c r="K881" s="31"/>
       <c r="M881" s="31"/>
     </row>
     <row r="882">
@@ -7485,6 +8381,7 @@
       <c r="F882" s="31"/>
       <c r="I882" s="31"/>
       <c r="J882" s="31"/>
+      <c r="K882" s="31"/>
       <c r="M882" s="31"/>
     </row>
     <row r="883">
@@ -7492,6 +8389,7 @@
       <c r="F883" s="31"/>
       <c r="I883" s="31"/>
       <c r="J883" s="31"/>
+      <c r="K883" s="31"/>
       <c r="M883" s="31"/>
     </row>
     <row r="884">
@@ -7499,6 +8397,7 @@
       <c r="F884" s="31"/>
       <c r="I884" s="31"/>
       <c r="J884" s="31"/>
+      <c r="K884" s="31"/>
       <c r="M884" s="31"/>
     </row>
     <row r="885">
@@ -7506,6 +8405,7 @@
       <c r="F885" s="31"/>
       <c r="I885" s="31"/>
       <c r="J885" s="31"/>
+      <c r="K885" s="31"/>
       <c r="M885" s="31"/>
     </row>
     <row r="886">
@@ -7513,6 +8413,7 @@
       <c r="F886" s="31"/>
       <c r="I886" s="31"/>
       <c r="J886" s="31"/>
+      <c r="K886" s="31"/>
       <c r="M886" s="31"/>
     </row>
     <row r="887">
@@ -7520,6 +8421,7 @@
       <c r="F887" s="31"/>
       <c r="I887" s="31"/>
       <c r="J887" s="31"/>
+      <c r="K887" s="31"/>
       <c r="M887" s="31"/>
     </row>
     <row r="888">
@@ -7527,6 +8429,7 @@
       <c r="F888" s="31"/>
       <c r="I888" s="31"/>
       <c r="J888" s="31"/>
+      <c r="K888" s="31"/>
       <c r="M888" s="31"/>
     </row>
     <row r="889">
@@ -7534,6 +8437,7 @@
       <c r="F889" s="31"/>
       <c r="I889" s="31"/>
       <c r="J889" s="31"/>
+      <c r="K889" s="31"/>
       <c r="M889" s="31"/>
     </row>
     <row r="890">
@@ -7541,6 +8445,7 @@
       <c r="F890" s="31"/>
       <c r="I890" s="31"/>
       <c r="J890" s="31"/>
+      <c r="K890" s="31"/>
       <c r="M890" s="31"/>
     </row>
     <row r="891">
@@ -7548,6 +8453,7 @@
       <c r="F891" s="31"/>
       <c r="I891" s="31"/>
       <c r="J891" s="31"/>
+      <c r="K891" s="31"/>
       <c r="M891" s="31"/>
     </row>
     <row r="892">
@@ -7555,6 +8461,7 @@
       <c r="F892" s="31"/>
       <c r="I892" s="31"/>
       <c r="J892" s="31"/>
+      <c r="K892" s="31"/>
       <c r="M892" s="31"/>
     </row>
     <row r="893">
@@ -7562,6 +8469,7 @@
       <c r="F893" s="31"/>
       <c r="I893" s="31"/>
       <c r="J893" s="31"/>
+      <c r="K893" s="31"/>
       <c r="M893" s="31"/>
     </row>
     <row r="894">
@@ -7569,6 +8477,7 @@
       <c r="F894" s="31"/>
       <c r="I894" s="31"/>
       <c r="J894" s="31"/>
+      <c r="K894" s="31"/>
       <c r="M894" s="31"/>
     </row>
     <row r="895">
@@ -7576,6 +8485,7 @@
       <c r="F895" s="31"/>
       <c r="I895" s="31"/>
       <c r="J895" s="31"/>
+      <c r="K895" s="31"/>
       <c r="M895" s="31"/>
     </row>
     <row r="896">
@@ -7583,6 +8493,7 @@
       <c r="F896" s="31"/>
       <c r="I896" s="31"/>
       <c r="J896" s="31"/>
+      <c r="K896" s="31"/>
       <c r="M896" s="31"/>
     </row>
     <row r="897">
@@ -7590,6 +8501,7 @@
       <c r="F897" s="31"/>
       <c r="I897" s="31"/>
       <c r="J897" s="31"/>
+      <c r="K897" s="31"/>
       <c r="M897" s="31"/>
     </row>
     <row r="898">
@@ -7597,6 +8509,7 @@
       <c r="F898" s="31"/>
       <c r="I898" s="31"/>
       <c r="J898" s="31"/>
+      <c r="K898" s="31"/>
       <c r="M898" s="31"/>
     </row>
     <row r="899">
@@ -7604,6 +8517,7 @@
       <c r="F899" s="31"/>
       <c r="I899" s="31"/>
       <c r="J899" s="31"/>
+      <c r="K899" s="31"/>
       <c r="M899" s="31"/>
     </row>
     <row r="900">
@@ -7611,6 +8525,7 @@
       <c r="F900" s="31"/>
       <c r="I900" s="31"/>
       <c r="J900" s="31"/>
+      <c r="K900" s="31"/>
       <c r="M900" s="31"/>
     </row>
     <row r="901">
@@ -7618,6 +8533,7 @@
       <c r="F901" s="31"/>
       <c r="I901" s="31"/>
       <c r="J901" s="31"/>
+      <c r="K901" s="31"/>
       <c r="M901" s="31"/>
     </row>
     <row r="902">
@@ -7625,6 +8541,7 @@
       <c r="F902" s="31"/>
       <c r="I902" s="31"/>
       <c r="J902" s="31"/>
+      <c r="K902" s="31"/>
       <c r="M902" s="31"/>
     </row>
     <row r="903">
@@ -7632,6 +8549,7 @@
       <c r="F903" s="31"/>
       <c r="I903" s="31"/>
       <c r="J903" s="31"/>
+      <c r="K903" s="31"/>
       <c r="M903" s="31"/>
     </row>
     <row r="904">
@@ -7639,6 +8557,7 @@
       <c r="F904" s="31"/>
       <c r="I904" s="31"/>
       <c r="J904" s="31"/>
+      <c r="K904" s="31"/>
       <c r="M904" s="31"/>
     </row>
     <row r="905">
@@ -7646,6 +8565,7 @@
       <c r="F905" s="31"/>
       <c r="I905" s="31"/>
       <c r="J905" s="31"/>
+      <c r="K905" s="31"/>
       <c r="M905" s="31"/>
     </row>
     <row r="906">
@@ -7653,6 +8573,7 @@
       <c r="F906" s="31"/>
       <c r="I906" s="31"/>
       <c r="J906" s="31"/>
+      <c r="K906" s="31"/>
       <c r="M906" s="31"/>
     </row>
     <row r="907">
@@ -7660,6 +8581,7 @@
       <c r="F907" s="31"/>
       <c r="I907" s="31"/>
       <c r="J907" s="31"/>
+      <c r="K907" s="31"/>
       <c r="M907" s="31"/>
     </row>
     <row r="908">
@@ -7667,6 +8589,7 @@
       <c r="F908" s="31"/>
       <c r="I908" s="31"/>
       <c r="J908" s="31"/>
+      <c r="K908" s="31"/>
       <c r="M908" s="31"/>
     </row>
     <row r="909">
@@ -7674,6 +8597,7 @@
       <c r="F909" s="31"/>
       <c r="I909" s="31"/>
       <c r="J909" s="31"/>
+      <c r="K909" s="31"/>
       <c r="M909" s="31"/>
     </row>
     <row r="910">
@@ -7681,6 +8605,7 @@
       <c r="F910" s="31"/>
       <c r="I910" s="31"/>
       <c r="J910" s="31"/>
+      <c r="K910" s="31"/>
       <c r="M910" s="31"/>
     </row>
     <row r="911">
@@ -7688,6 +8613,7 @@
       <c r="F911" s="31"/>
       <c r="I911" s="31"/>
       <c r="J911" s="31"/>
+      <c r="K911" s="31"/>
       <c r="M911" s="31"/>
     </row>
     <row r="912">
@@ -7695,6 +8621,7 @@
       <c r="F912" s="31"/>
       <c r="I912" s="31"/>
       <c r="J912" s="31"/>
+      <c r="K912" s="31"/>
       <c r="M912" s="31"/>
     </row>
     <row r="913">
@@ -7702,6 +8629,7 @@
       <c r="F913" s="31"/>
       <c r="I913" s="31"/>
       <c r="J913" s="31"/>
+      <c r="K913" s="31"/>
       <c r="M913" s="31"/>
     </row>
     <row r="914">
@@ -7709,6 +8637,7 @@
       <c r="F914" s="31"/>
       <c r="I914" s="31"/>
       <c r="J914" s="31"/>
+      <c r="K914" s="31"/>
       <c r="M914" s="31"/>
     </row>
     <row r="915">
@@ -7716,6 +8645,7 @@
       <c r="F915" s="31"/>
       <c r="I915" s="31"/>
       <c r="J915" s="31"/>
+      <c r="K915" s="31"/>
       <c r="M915" s="31"/>
     </row>
     <row r="916">
@@ -7723,6 +8653,7 @@
       <c r="F916" s="31"/>
       <c r="I916" s="31"/>
       <c r="J916" s="31"/>
+      <c r="K916" s="31"/>
       <c r="M916" s="31"/>
     </row>
     <row r="917">
@@ -7730,6 +8661,7 @@
       <c r="F917" s="31"/>
       <c r="I917" s="31"/>
       <c r="J917" s="31"/>
+      <c r="K917" s="31"/>
       <c r="M917" s="31"/>
     </row>
     <row r="918">
@@ -7737,6 +8669,7 @@
       <c r="F918" s="31"/>
       <c r="I918" s="31"/>
       <c r="J918" s="31"/>
+      <c r="K918" s="31"/>
       <c r="M918" s="31"/>
     </row>
     <row r="919">
@@ -7744,6 +8677,7 @@
       <c r="F919" s="31"/>
       <c r="I919" s="31"/>
       <c r="J919" s="31"/>
+      <c r="K919" s="31"/>
       <c r="M919" s="31"/>
     </row>
     <row r="920">
@@ -7751,6 +8685,7 @@
       <c r="F920" s="31"/>
       <c r="I920" s="31"/>
       <c r="J920" s="31"/>
+      <c r="K920" s="31"/>
       <c r="M920" s="31"/>
     </row>
     <row r="921">
@@ -7758,6 +8693,7 @@
       <c r="F921" s="31"/>
       <c r="I921" s="31"/>
       <c r="J921" s="31"/>
+      <c r="K921" s="31"/>
       <c r="M921" s="31"/>
     </row>
     <row r="922">
@@ -7765,6 +8701,7 @@
       <c r="F922" s="31"/>
       <c r="I922" s="31"/>
       <c r="J922" s="31"/>
+      <c r="K922" s="31"/>
       <c r="M922" s="31"/>
     </row>
     <row r="923">
@@ -7772,6 +8709,7 @@
       <c r="F923" s="31"/>
       <c r="I923" s="31"/>
       <c r="J923" s="31"/>
+      <c r="K923" s="31"/>
       <c r="M923" s="31"/>
     </row>
     <row r="924">
@@ -7779,6 +8717,7 @@
       <c r="F924" s="31"/>
       <c r="I924" s="31"/>
       <c r="J924" s="31"/>
+      <c r="K924" s="31"/>
       <c r="M924" s="31"/>
     </row>
     <row r="925">
@@ -7786,6 +8725,7 @@
       <c r="F925" s="31"/>
       <c r="I925" s="31"/>
       <c r="J925" s="31"/>
+      <c r="K925" s="31"/>
       <c r="M925" s="31"/>
     </row>
     <row r="926">
@@ -7793,6 +8733,7 @@
       <c r="F926" s="31"/>
       <c r="I926" s="31"/>
       <c r="J926" s="31"/>
+      <c r="K926" s="31"/>
       <c r="M926" s="31"/>
     </row>
     <row r="927">
@@ -7800,6 +8741,7 @@
       <c r="F927" s="31"/>
       <c r="I927" s="31"/>
       <c r="J927" s="31"/>
+      <c r="K927" s="31"/>
       <c r="M927" s="31"/>
     </row>
     <row r="928">
@@ -7807,6 +8749,7 @@
       <c r="F928" s="31"/>
       <c r="I928" s="31"/>
       <c r="J928" s="31"/>
+      <c r="K928" s="31"/>
       <c r="M928" s="31"/>
     </row>
     <row r="929">
@@ -7814,6 +8757,7 @@
       <c r="F929" s="31"/>
       <c r="I929" s="31"/>
       <c r="J929" s="31"/>
+      <c r="K929" s="31"/>
       <c r="M929" s="31"/>
     </row>
     <row r="930">
@@ -7821,6 +8765,7 @@
       <c r="F930" s="31"/>
       <c r="I930" s="31"/>
       <c r="J930" s="31"/>
+      <c r="K930" s="31"/>
       <c r="M930" s="31"/>
     </row>
     <row r="931">
@@ -7828,6 +8773,7 @@
       <c r="F931" s="31"/>
       <c r="I931" s="31"/>
       <c r="J931" s="31"/>
+      <c r="K931" s="31"/>
       <c r="M931" s="31"/>
     </row>
     <row r="932">
@@ -7835,6 +8781,7 @@
       <c r="F932" s="31"/>
       <c r="I932" s="31"/>
       <c r="J932" s="31"/>
+      <c r="K932" s="31"/>
       <c r="M932" s="31"/>
     </row>
     <row r="933">
@@ -7842,6 +8789,7 @@
       <c r="F933" s="31"/>
       <c r="I933" s="31"/>
       <c r="J933" s="31"/>
+      <c r="K933" s="31"/>
       <c r="M933" s="31"/>
     </row>
     <row r="934">
@@ -7849,6 +8797,7 @@
       <c r="F934" s="31"/>
       <c r="I934" s="31"/>
       <c r="J934" s="31"/>
+      <c r="K934" s="31"/>
       <c r="M934" s="31"/>
     </row>
     <row r="935">
@@ -7856,6 +8805,7 @@
       <c r="F935" s="31"/>
       <c r="I935" s="31"/>
       <c r="J935" s="31"/>
+      <c r="K935" s="31"/>
       <c r="M935" s="31"/>
     </row>
     <row r="936">
@@ -7863,6 +8813,7 @@
       <c r="F936" s="31"/>
       <c r="I936" s="31"/>
       <c r="J936" s="31"/>
+      <c r="K936" s="31"/>
       <c r="M936" s="31"/>
     </row>
     <row r="937">
@@ -7870,6 +8821,7 @@
       <c r="F937" s="31"/>
       <c r="I937" s="31"/>
       <c r="J937" s="31"/>
+      <c r="K937" s="31"/>
       <c r="M937" s="31"/>
     </row>
     <row r="938">
@@ -7877,6 +8829,7 @@
       <c r="F938" s="31"/>
       <c r="I938" s="31"/>
       <c r="J938" s="31"/>
+      <c r="K938" s="31"/>
       <c r="M938" s="31"/>
     </row>
     <row r="939">
@@ -7884,6 +8837,7 @@
       <c r="F939" s="31"/>
       <c r="I939" s="31"/>
       <c r="J939" s="31"/>
+      <c r="K939" s="31"/>
       <c r="M939" s="31"/>
     </row>
     <row r="940">
@@ -7891,6 +8845,7 @@
       <c r="F940" s="31"/>
       <c r="I940" s="31"/>
       <c r="J940" s="31"/>
+      <c r="K940" s="31"/>
       <c r="M940" s="31"/>
     </row>
     <row r="941">
@@ -7898,6 +8853,7 @@
       <c r="F941" s="31"/>
       <c r="I941" s="31"/>
       <c r="J941" s="31"/>
+      <c r="K941" s="31"/>
       <c r="M941" s="31"/>
     </row>
     <row r="942">
@@ -7905,6 +8861,7 @@
       <c r="F942" s="31"/>
       <c r="I942" s="31"/>
       <c r="J942" s="31"/>
+      <c r="K942" s="31"/>
       <c r="M942" s="31"/>
     </row>
     <row r="943">
@@ -7912,6 +8869,7 @@
       <c r="F943" s="31"/>
       <c r="I943" s="31"/>
       <c r="J943" s="31"/>
+      <c r="K943" s="31"/>
       <c r="M943" s="31"/>
     </row>
     <row r="944">
@@ -7919,6 +8877,7 @@
       <c r="F944" s="31"/>
       <c r="I944" s="31"/>
       <c r="J944" s="31"/>
+      <c r="K944" s="31"/>
       <c r="M944" s="31"/>
     </row>
     <row r="945">
@@ -7926,6 +8885,7 @@
       <c r="F945" s="31"/>
       <c r="I945" s="31"/>
       <c r="J945" s="31"/>
+      <c r="K945" s="31"/>
       <c r="M945" s="31"/>
     </row>
     <row r="946">
@@ -7933,6 +8893,7 @@
       <c r="F946" s="31"/>
       <c r="I946" s="31"/>
       <c r="J946" s="31"/>
+      <c r="K946" s="31"/>
       <c r="M946" s="31"/>
     </row>
     <row r="947">
@@ -7940,6 +8901,7 @@
       <c r="F947" s="31"/>
       <c r="I947" s="31"/>
       <c r="J947" s="31"/>
+      <c r="K947" s="31"/>
       <c r="M947" s="31"/>
     </row>
     <row r="948">
@@ -7947,6 +8909,7 @@
       <c r="F948" s="31"/>
       <c r="I948" s="31"/>
       <c r="J948" s="31"/>
+      <c r="K948" s="31"/>
       <c r="M948" s="31"/>
     </row>
     <row r="949">
@@ -7954,6 +8917,7 @@
       <c r="F949" s="31"/>
       <c r="I949" s="31"/>
       <c r="J949" s="31"/>
+      <c r="K949" s="31"/>
       <c r="M949" s="31"/>
     </row>
     <row r="950">
@@ -7961,6 +8925,7 @@
       <c r="F950" s="31"/>
       <c r="I950" s="31"/>
       <c r="J950" s="31"/>
+      <c r="K950" s="31"/>
       <c r="M950" s="31"/>
     </row>
     <row r="951">
@@ -7968,6 +8933,7 @@
       <c r="F951" s="31"/>
       <c r="I951" s="31"/>
       <c r="J951" s="31"/>
+      <c r="K951" s="31"/>
       <c r="M951" s="31"/>
     </row>
     <row r="952">
@@ -7975,6 +8941,7 @@
       <c r="F952" s="31"/>
       <c r="I952" s="31"/>
       <c r="J952" s="31"/>
+      <c r="K952" s="31"/>
       <c r="M952" s="31"/>
     </row>
     <row r="953">
@@ -7982,6 +8949,7 @@
       <c r="F953" s="31"/>
       <c r="I953" s="31"/>
       <c r="J953" s="31"/>
+      <c r="K953" s="31"/>
       <c r="M953" s="31"/>
     </row>
     <row r="954">
@@ -7989,6 +8957,7 @@
       <c r="F954" s="31"/>
       <c r="I954" s="31"/>
       <c r="J954" s="31"/>
+      <c r="K954" s="31"/>
       <c r="M954" s="31"/>
     </row>
     <row r="955">
@@ -7996,6 +8965,7 @@
       <c r="F955" s="31"/>
       <c r="I955" s="31"/>
       <c r="J955" s="31"/>
+      <c r="K955" s="31"/>
       <c r="M955" s="31"/>
     </row>
     <row r="956">
@@ -8003,6 +8973,7 @@
       <c r="F956" s="31"/>
       <c r="I956" s="31"/>
       <c r="J956" s="31"/>
+      <c r="K956" s="31"/>
       <c r="M956" s="31"/>
     </row>
     <row r="957">
@@ -8010,6 +8981,7 @@
       <c r="F957" s="31"/>
       <c r="I957" s="31"/>
       <c r="J957" s="31"/>
+      <c r="K957" s="31"/>
       <c r="M957" s="31"/>
     </row>
     <row r="958">
@@ -8017,6 +8989,7 @@
       <c r="F958" s="31"/>
       <c r="I958" s="31"/>
       <c r="J958" s="31"/>
+      <c r="K958" s="31"/>
       <c r="M958" s="31"/>
     </row>
     <row r="959">
@@ -8024,6 +8997,7 @@
       <c r="F959" s="31"/>
       <c r="I959" s="31"/>
       <c r="J959" s="31"/>
+      <c r="K959" s="31"/>
       <c r="M959" s="31"/>
     </row>
     <row r="960">
@@ -8031,6 +9005,7 @@
       <c r="F960" s="31"/>
       <c r="I960" s="31"/>
       <c r="J960" s="31"/>
+      <c r="K960" s="31"/>
       <c r="M960" s="31"/>
     </row>
     <row r="961">
@@ -8038,6 +9013,7 @@
       <c r="F961" s="31"/>
       <c r="I961" s="31"/>
       <c r="J961" s="31"/>
+      <c r="K961" s="31"/>
       <c r="M961" s="31"/>
     </row>
     <row r="962">
@@ -8045,6 +9021,7 @@
       <c r="F962" s="31"/>
       <c r="I962" s="31"/>
       <c r="J962" s="31"/>
+      <c r="K962" s="31"/>
       <c r="M962" s="31"/>
     </row>
     <row r="963">
@@ -8052,6 +9029,7 @@
       <c r="F963" s="31"/>
       <c r="I963" s="31"/>
       <c r="J963" s="31"/>
+      <c r="K963" s="31"/>
       <c r="M963" s="31"/>
     </row>
     <row r="964">
@@ -8059,6 +9037,7 @@
       <c r="F964" s="31"/>
       <c r="I964" s="31"/>
       <c r="J964" s="31"/>
+      <c r="K964" s="31"/>
       <c r="M964" s="31"/>
     </row>
     <row r="965">
@@ -8066,6 +9045,7 @@
       <c r="F965" s="31"/>
       <c r="I965" s="31"/>
       <c r="J965" s="31"/>
+      <c r="K965" s="31"/>
       <c r="M965" s="31"/>
     </row>
     <row r="966">
@@ -8073,6 +9053,7 @@
       <c r="F966" s="31"/>
       <c r="I966" s="31"/>
       <c r="J966" s="31"/>
+      <c r="K966" s="31"/>
       <c r="M966" s="31"/>
     </row>
     <row r="967">
@@ -8080,6 +9061,7 @@
       <c r="F967" s="31"/>
       <c r="I967" s="31"/>
       <c r="J967" s="31"/>
+      <c r="K967" s="31"/>
       <c r="M967" s="31"/>
     </row>
     <row r="968">
@@ -8087,6 +9069,7 @@
       <c r="F968" s="31"/>
       <c r="I968" s="31"/>
       <c r="J968" s="31"/>
+      <c r="K968" s="31"/>
       <c r="M968" s="31"/>
     </row>
     <row r="969">
@@ -8094,6 +9077,7 @@
       <c r="F969" s="31"/>
       <c r="I969" s="31"/>
       <c r="J969" s="31"/>
+      <c r="K969" s="31"/>
       <c r="M969" s="31"/>
     </row>
     <row r="970">
@@ -8101,6 +9085,7 @@
       <c r="F970" s="31"/>
       <c r="I970" s="31"/>
       <c r="J970" s="31"/>
+      <c r="K970" s="31"/>
       <c r="M970" s="31"/>
     </row>
     <row r="971">
@@ -8108,6 +9093,7 @@
       <c r="F971" s="31"/>
       <c r="I971" s="31"/>
       <c r="J971" s="31"/>
+      <c r="K971" s="31"/>
       <c r="M971" s="31"/>
     </row>
     <row r="972">
@@ -8115,6 +9101,7 @@
       <c r="F972" s="31"/>
       <c r="I972" s="31"/>
       <c r="J972" s="31"/>
+      <c r="K972" s="31"/>
       <c r="M972" s="31"/>
     </row>
     <row r="973">
@@ -8122,6 +9109,7 @@
       <c r="F973" s="31"/>
       <c r="I973" s="31"/>
       <c r="J973" s="31"/>
+      <c r="K973" s="31"/>
       <c r="M973" s="31"/>
     </row>
     <row r="974">
@@ -8129,6 +9117,7 @@
       <c r="F974" s="31"/>
       <c r="I974" s="31"/>
       <c r="J974" s="31"/>
+      <c r="K974" s="31"/>
       <c r="M974" s="31"/>
     </row>
     <row r="975">
@@ -8136,6 +9125,7 @@
       <c r="F975" s="31"/>
       <c r="I975" s="31"/>
       <c r="J975" s="31"/>
+      <c r="K975" s="31"/>
       <c r="M975" s="31"/>
     </row>
     <row r="976">
@@ -8143,6 +9133,7 @@
       <c r="F976" s="31"/>
       <c r="I976" s="31"/>
       <c r="J976" s="31"/>
+      <c r="K976" s="31"/>
       <c r="M976" s="31"/>
     </row>
     <row r="977">
@@ -8150,6 +9141,7 @@
       <c r="F977" s="31"/>
       <c r="I977" s="31"/>
       <c r="J977" s="31"/>
+      <c r="K977" s="31"/>
       <c r="M977" s="31"/>
     </row>
     <row r="978">
@@ -8157,6 +9149,7 @@
       <c r="F978" s="31"/>
       <c r="I978" s="31"/>
       <c r="J978" s="31"/>
+      <c r="K978" s="31"/>
       <c r="M978" s="31"/>
     </row>
     <row r="979">
@@ -8164,6 +9157,7 @@
       <c r="F979" s="31"/>
       <c r="I979" s="31"/>
       <c r="J979" s="31"/>
+      <c r="K979" s="31"/>
       <c r="M979" s="31"/>
     </row>
     <row r="980">
@@ -8171,6 +9165,7 @@
       <c r="F980" s="31"/>
       <c r="I980" s="31"/>
       <c r="J980" s="31"/>
+      <c r="K980" s="31"/>
       <c r="M980" s="31"/>
     </row>
     <row r="981">
@@ -8178,6 +9173,7 @@
       <c r="F981" s="31"/>
       <c r="I981" s="31"/>
       <c r="J981" s="31"/>
+      <c r="K981" s="31"/>
       <c r="M981" s="31"/>
     </row>
     <row r="982">
@@ -8185,6 +9181,7 @@
       <c r="F982" s="31"/>
       <c r="I982" s="31"/>
       <c r="J982" s="31"/>
+      <c r="K982" s="31"/>
       <c r="M982" s="31"/>
     </row>
     <row r="983">
@@ -8192,6 +9189,7 @@
       <c r="F983" s="31"/>
       <c r="I983" s="31"/>
       <c r="J983" s="31"/>
+      <c r="K983" s="31"/>
       <c r="M983" s="31"/>
     </row>
     <row r="984">
@@ -8199,6 +9197,7 @@
       <c r="F984" s="31"/>
       <c r="I984" s="31"/>
       <c r="J984" s="31"/>
+      <c r="K984" s="31"/>
       <c r="M984" s="31"/>
     </row>
     <row r="985">
@@ -8206,6 +9205,7 @@
       <c r="F985" s="31"/>
       <c r="I985" s="31"/>
       <c r="J985" s="31"/>
+      <c r="K985" s="31"/>
       <c r="M985" s="31"/>
     </row>
     <row r="986">
@@ -8213,6 +9213,7 @@
       <c r="F986" s="31"/>
       <c r="I986" s="31"/>
       <c r="J986" s="31"/>
+      <c r="K986" s="31"/>
       <c r="M986" s="31"/>
     </row>
     <row r="987">
@@ -8220,6 +9221,7 @@
       <c r="F987" s="31"/>
       <c r="I987" s="31"/>
       <c r="J987" s="31"/>
+      <c r="K987" s="31"/>
       <c r="M987" s="31"/>
     </row>
     <row r="988">
@@ -8227,6 +9229,7 @@
       <c r="F988" s="31"/>
       <c r="I988" s="31"/>
       <c r="J988" s="31"/>
+      <c r="K988" s="31"/>
       <c r="M988" s="31"/>
     </row>
     <row r="989">
@@ -8234,6 +9237,7 @@
       <c r="F989" s="31"/>
       <c r="I989" s="31"/>
       <c r="J989" s="31"/>
+      <c r="K989" s="31"/>
       <c r="M989" s="31"/>
     </row>
     <row r="990">
@@ -8241,6 +9245,7 @@
       <c r="F990" s="31"/>
       <c r="I990" s="31"/>
       <c r="J990" s="31"/>
+      <c r="K990" s="31"/>
       <c r="M990" s="31"/>
     </row>
     <row r="991">
@@ -8248,6 +9253,7 @@
       <c r="F991" s="31"/>
       <c r="I991" s="31"/>
       <c r="J991" s="31"/>
+      <c r="K991" s="31"/>
       <c r="M991" s="31"/>
     </row>
     <row r="992">
@@ -8255,6 +9261,7 @@
       <c r="F992" s="31"/>
       <c r="I992" s="31"/>
       <c r="J992" s="31"/>
+      <c r="K992" s="31"/>
       <c r="M992" s="31"/>
     </row>
     <row r="993">
@@ -8262,6 +9269,7 @@
       <c r="F993" s="31"/>
       <c r="I993" s="31"/>
       <c r="J993" s="31"/>
+      <c r="K993" s="31"/>
       <c r="M993" s="31"/>
     </row>
     <row r="994">
@@ -8269,6 +9277,7 @@
       <c r="F994" s="31"/>
       <c r="I994" s="31"/>
       <c r="J994" s="31"/>
+      <c r="K994" s="31"/>
       <c r="M994" s="31"/>
     </row>
     <row r="995">
@@ -8276,6 +9285,7 @@
       <c r="F995" s="31"/>
       <c r="I995" s="31"/>
       <c r="J995" s="31"/>
+      <c r="K995" s="31"/>
       <c r="M995" s="31"/>
     </row>
     <row r="996">
@@ -8283,6 +9293,7 @@
       <c r="F996" s="31"/>
       <c r="I996" s="31"/>
       <c r="J996" s="31"/>
+      <c r="K996" s="31"/>
       <c r="M996" s="31"/>
     </row>
     <row r="997">
@@ -8290,6 +9301,7 @@
       <c r="F997" s="31"/>
       <c r="I997" s="31"/>
       <c r="J997" s="31"/>
+      <c r="K997" s="31"/>
       <c r="M997" s="31"/>
     </row>
     <row r="998">
@@ -8297,6 +9309,7 @@
       <c r="F998" s="31"/>
       <c r="I998" s="31"/>
       <c r="J998" s="31"/>
+      <c r="K998" s="31"/>
       <c r="M998" s="31"/>
     </row>
     <row r="999">
@@ -8304,6 +9317,7 @@
       <c r="F999" s="31"/>
       <c r="I999" s="31"/>
       <c r="J999" s="31"/>
+      <c r="K999" s="31"/>
       <c r="M999" s="31"/>
     </row>
     <row r="1000">
@@ -8311,6 +9325,7 @@
       <c r="F1000" s="31"/>
       <c r="I1000" s="31"/>
       <c r="J1000" s="31"/>
+      <c r="K1000" s="31"/>
       <c r="M1000" s="31"/>
     </row>
     <row r="1001">
@@ -8318,6 +9333,7 @@
       <c r="F1001" s="31"/>
       <c r="I1001" s="31"/>
       <c r="J1001" s="31"/>
+      <c r="K1001" s="31"/>
       <c r="M1001" s="31"/>
     </row>
     <row r="1002">
@@ -8325,6 +9341,7 @@
       <c r="F1002" s="31"/>
       <c r="I1002" s="31"/>
       <c r="J1002" s="31"/>
+      <c r="K1002" s="31"/>
       <c r="M1002" s="31"/>
     </row>
     <row r="1003">
@@ -8332,6 +9349,7 @@
       <c r="F1003" s="31"/>
       <c r="I1003" s="31"/>
       <c r="J1003" s="31"/>
+      <c r="K1003" s="31"/>
       <c r="M1003" s="31"/>
     </row>
     <row r="1004">
@@ -8339,6 +9357,7 @@
       <c r="F1004" s="31"/>
       <c r="I1004" s="31"/>
       <c r="J1004" s="31"/>
+      <c r="K1004" s="31"/>
       <c r="M1004" s="31"/>
     </row>
     <row r="1005">
@@ -8346,6 +9365,7 @@
       <c r="F1005" s="31"/>
       <c r="I1005" s="31"/>
       <c r="J1005" s="31"/>
+      <c r="K1005" s="31"/>
       <c r="M1005" s="31"/>
     </row>
     <row r="1006">
@@ -8353,6 +9373,7 @@
       <c r="F1006" s="31"/>
       <c r="I1006" s="31"/>
       <c r="J1006" s="31"/>
+      <c r="K1006" s="31"/>
       <c r="M1006" s="31"/>
     </row>
   </sheetData>

--- a/questions/Assignment 6 - Blue Gecko Client Command Table.xlsx
+++ b/questions/Assignment 6 - Blue Gecko Client Command Table.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="100">
   <si>
     <t>Event Handler Event</t>
   </si>
@@ -181,6 +181,9 @@
     <t>connection, service, uuid len, uuid data</t>
   </si>
   <si>
+    <t>service from evt_gatt_service, rest const values</t>
+  </si>
+  <si>
     <t>"Characteristics Discovered"</t>
   </si>
   <si>
@@ -203,6 +206,9 @@
   </si>
   <si>
     <t>connection, characteristics, flags</t>
+  </si>
+  <si>
+    <t>from evt_gatt_characteristic</t>
   </si>
   <si>
     <t>"Notifications Enabled"</t>
@@ -912,17 +918,17 @@
       <c r="F8" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>42</v>
+      <c r="G8" s="18" t="s">
+        <v>56</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I8" s="21" t="s">
         <v>46</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K8" s="29" t="s">
         <v>39</v>
@@ -931,10 +937,10 @@
         <v>48</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N8" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
@@ -961,34 +967,34 @@
     </row>
     <row r="9">
       <c r="A9" s="28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>42</v>
+        <v>64</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K9" s="29" t="s">
         <v>53</v>
@@ -997,10 +1003,10 @@
         <v>48</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N9" s="25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
@@ -1027,31 +1033,31 @@
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G10" s="22" t="s">
         <v>42</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J10" s="30" t="s">
         <v>48</v>
@@ -1063,10 +1069,10 @@
         <v>48</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N10" s="25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
@@ -1093,10 +1099,10 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>16</v>
@@ -1159,10 +1165,10 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>19</v>
@@ -1225,10 +1231,10 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>16</v>
@@ -1315,7 +1321,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1333,22 +1339,22 @@
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>42</v>
@@ -1370,42 +1376,42 @@
         <v>18</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>42</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>18</v>
@@ -1414,7 +1420,7 @@
         <v>18</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19">
@@ -1435,7 +1441,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="8"/>
@@ -1453,28 +1459,28 @@
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>42</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>18</v>
@@ -1492,7 +1498,7 @@
         <v>18</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
